--- a/Bases_de_Dados_(2022-2023)/Paraguay Division Profesional_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Paraguay Division Profesional_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK79"/>
+  <dimension ref="A1:BK81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="AS3" t="n">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AT3" t="n">
         <v>0.43</v>
@@ -1715,7 +1715,7 @@
         <v>1.86</v>
       </c>
       <c r="AT6" t="n">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AU6" t="n">
         <v>0</v>
@@ -2121,7 +2121,7 @@
         <v>0.83</v>
       </c>
       <c r="AT8" t="n">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AU8" t="n">
         <v>0</v>
@@ -2324,7 +2324,7 @@
         <v>2</v>
       </c>
       <c r="AT9" t="n">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AU9" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="AS10" t="n">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AT10" t="n">
         <v>2.17</v>
@@ -2727,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="AS11" t="n">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AT11" t="n">
         <v>2.17</v>
@@ -4351,7 +4351,7 @@
         <v>0.5</v>
       </c>
       <c r="AS19" t="n">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AT19" t="n">
         <v>1.71</v>
@@ -4757,7 +4757,7 @@
         <v>0</v>
       </c>
       <c r="AS21" t="n">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AT21" t="n">
         <v>1.33</v>
@@ -5369,7 +5369,7 @@
         <v>2</v>
       </c>
       <c r="AT24" t="n">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AU24" t="n">
         <v>1.41</v>
@@ -6587,7 +6587,7 @@
         <v>1.57</v>
       </c>
       <c r="AT30" t="n">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AU30" t="n">
         <v>1.8</v>
@@ -6790,7 +6790,7 @@
         <v>0.83</v>
       </c>
       <c r="AT31" t="n">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AU31" t="n">
         <v>1.34</v>
@@ -7802,7 +7802,7 @@
         <v>3</v>
       </c>
       <c r="AS36" t="n">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AT36" t="n">
         <v>2.17</v>
@@ -8211,7 +8211,7 @@
         <v>2.71</v>
       </c>
       <c r="AT38" t="n">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AU38" t="n">
         <v>1.61</v>
@@ -8614,7 +8614,7 @@
         <v>2.33</v>
       </c>
       <c r="AS40" t="n">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AT40" t="n">
         <v>2</v>
@@ -9429,7 +9429,7 @@
         <v>0.29</v>
       </c>
       <c r="AT44" t="n">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AU44" t="n">
         <v>0.84</v>
@@ -10035,7 +10035,7 @@
         <v>1.75</v>
       </c>
       <c r="AS47" t="n">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AT47" t="n">
         <v>1.71</v>
@@ -10647,7 +10647,7 @@
         <v>2</v>
       </c>
       <c r="AT50" t="n">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AU50" t="n">
         <v>1.54</v>
@@ -11456,7 +11456,7 @@
         <v>1.33</v>
       </c>
       <c r="AS54" t="n">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AT54" t="n">
         <v>1.43</v>
@@ -12268,7 +12268,7 @@
         <v>1</v>
       </c>
       <c r="AS58" t="n">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AT58" t="n">
         <v>0.86</v>
@@ -12880,7 +12880,7 @@
         <v>0.86</v>
       </c>
       <c r="AT61" t="n">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AU61" t="n">
         <v>1.02</v>
@@ -13286,7 +13286,7 @@
         <v>2</v>
       </c>
       <c r="AT63" t="n">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AU63" t="n">
         <v>1.27</v>
@@ -13486,7 +13486,7 @@
         <v>1.25</v>
       </c>
       <c r="AS64" t="n">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AT64" t="n">
         <v>1.33</v>
@@ -14301,7 +14301,7 @@
         <v>0.33</v>
       </c>
       <c r="AT68" t="n">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AU68" t="n">
         <v>1.26</v>
@@ -15313,7 +15313,7 @@
         <v>0.6</v>
       </c>
       <c r="AS73" t="n">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AT73" t="n">
         <v>0.67</v>
@@ -16586,6 +16586,412 @@
       </c>
       <c r="BK79" t="n">
         <v>15</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B80" t="n">
+        <v>4933009</v>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>Paraguay Division Profesional</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E80" s="2" t="n">
+        <v>45038.75</v>
+      </c>
+      <c r="F80" t="n">
+        <v>14</v>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>Sportivo Trinidense</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>Guaireña</t>
+        </is>
+      </c>
+      <c r="I80" t="n">
+        <v>1</v>
+      </c>
+      <c r="J80" t="n">
+        <v>0</v>
+      </c>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="n">
+        <v>0</v>
+      </c>
+      <c r="N80" t="n">
+        <v>1</v>
+      </c>
+      <c r="O80" t="inlineStr">
+        <is>
+          <t>['10']</t>
+        </is>
+      </c>
+      <c r="P80" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q80" t="n">
+        <v>8</v>
+      </c>
+      <c r="R80" t="n">
+        <v>6</v>
+      </c>
+      <c r="S80" t="n">
+        <v>14</v>
+      </c>
+      <c r="T80" t="n">
+        <v>0</v>
+      </c>
+      <c r="U80" t="n">
+        <v>0</v>
+      </c>
+      <c r="V80" t="n">
+        <v>0</v>
+      </c>
+      <c r="W80" t="n">
+        <v>0</v>
+      </c>
+      <c r="X80" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y80" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z80" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA80" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB80" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC80" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AD80" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AE80" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AF80" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG80" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH80" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI80" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ80" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="AK80" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AL80" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM80" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN80" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO80" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP80" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ80" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AR80" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AS80" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AT80" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU80" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AV80" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AW80" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="AX80" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY80" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ80" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA80" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB80" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC80" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD80" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE80" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF80" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG80" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH80" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI80" t="n">
+        <v>9</v>
+      </c>
+      <c r="BJ80" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK80" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B81" t="n">
+        <v>4933005</v>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>Paraguay Division Profesional</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E81" s="2" t="n">
+        <v>45038.85416666666</v>
+      </c>
+      <c r="F81" t="n">
+        <v>14</v>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>Resistencia</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>Sportivo Ameliano</t>
+        </is>
+      </c>
+      <c r="I81" t="n">
+        <v>1</v>
+      </c>
+      <c r="J81" t="n">
+        <v>1</v>
+      </c>
+      <c r="K81" t="n">
+        <v>2</v>
+      </c>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="n">
+        <v>1</v>
+      </c>
+      <c r="N81" t="n">
+        <v>2</v>
+      </c>
+      <c r="O81" t="inlineStr">
+        <is>
+          <t>['2']</t>
+        </is>
+      </c>
+      <c r="P81" t="inlineStr">
+        <is>
+          <t>['40']</t>
+        </is>
+      </c>
+      <c r="Q81" t="n">
+        <v>0</v>
+      </c>
+      <c r="R81" t="n">
+        <v>2</v>
+      </c>
+      <c r="S81" t="n">
+        <v>2</v>
+      </c>
+      <c r="T81" t="n">
+        <v>0</v>
+      </c>
+      <c r="U81" t="n">
+        <v>0</v>
+      </c>
+      <c r="V81" t="n">
+        <v>0</v>
+      </c>
+      <c r="W81" t="n">
+        <v>0</v>
+      </c>
+      <c r="X81" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y81" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z81" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA81" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB81" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC81" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AD81" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AE81" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="AF81" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG81" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH81" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI81" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ81" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AK81" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AL81" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM81" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN81" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO81" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP81" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ81" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AR81" t="n">
+        <v>2</v>
+      </c>
+      <c r="AS81" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="AT81" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AU81" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AV81" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AW81" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="AX81" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY81" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ81" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA81" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB81" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC81" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD81" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE81" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF81" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG81" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH81" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI81" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ81" t="n">
+        <v>3</v>
+      </c>
+      <c r="BK81" t="n">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Paraguay Division Profesional_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Paraguay Division Profesional_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK81"/>
+  <dimension ref="A1:BK85"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2118,7 +2118,7 @@
         <v>0</v>
       </c>
       <c r="AS8" t="n">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AT8" t="n">
         <v>1</v>
@@ -2321,7 +2321,7 @@
         <v>1</v>
       </c>
       <c r="AS9" t="n">
-        <v>2</v>
+        <v>1.71</v>
       </c>
       <c r="AT9" t="n">
         <v>1.86</v>
@@ -2527,7 +2527,7 @@
         <v>1.57</v>
       </c>
       <c r="AT10" t="n">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AU10" t="n">
         <v>1.03</v>
@@ -2730,7 +2730,7 @@
         <v>0.71</v>
       </c>
       <c r="AT11" t="n">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AU11" t="n">
         <v>0</v>
@@ -2930,10 +2930,10 @@
         <v>0</v>
       </c>
       <c r="AS12" t="n">
-        <v>2</v>
+        <v>1.71</v>
       </c>
       <c r="AT12" t="n">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AU12" t="n">
         <v>0</v>
@@ -4557,7 +4557,7 @@
         <v>0.29</v>
       </c>
       <c r="AT20" t="n">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AU20" t="n">
         <v>0.8</v>
@@ -4760,7 +4760,7 @@
         <v>1.57</v>
       </c>
       <c r="AT21" t="n">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AU21" t="n">
         <v>1.16</v>
@@ -4960,10 +4960,10 @@
         <v>3</v>
       </c>
       <c r="AS22" t="n">
-        <v>0.33</v>
+        <v>0.71</v>
       </c>
       <c r="AT22" t="n">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AU22" t="n">
         <v>0</v>
@@ -5163,10 +5163,10 @@
         <v>1</v>
       </c>
       <c r="AS23" t="n">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AT23" t="n">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AU23" t="n">
         <v>1.25</v>
@@ -5366,7 +5366,7 @@
         <v>1</v>
       </c>
       <c r="AS24" t="n">
-        <v>2</v>
+        <v>1.71</v>
       </c>
       <c r="AT24" t="n">
         <v>1.86</v>
@@ -5975,7 +5975,7 @@
         <v>0.5</v>
       </c>
       <c r="AS27" t="n">
-        <v>2</v>
+        <v>1.71</v>
       </c>
       <c r="AT27" t="n">
         <v>0.86</v>
@@ -6787,7 +6787,7 @@
         <v>1</v>
       </c>
       <c r="AS31" t="n">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AT31" t="n">
         <v>1.86</v>
@@ -6993,7 +6993,7 @@
         <v>0.29</v>
       </c>
       <c r="AT32" t="n">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AU32" t="n">
         <v>0.79</v>
@@ -7193,7 +7193,7 @@
         <v>1.33</v>
       </c>
       <c r="AS33" t="n">
-        <v>0.33</v>
+        <v>0.71</v>
       </c>
       <c r="AT33" t="n">
         <v>1.71</v>
@@ -7399,7 +7399,7 @@
         <v>1.57</v>
       </c>
       <c r="AT34" t="n">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AU34" t="n">
         <v>1.92</v>
@@ -7599,7 +7599,7 @@
         <v>1.33</v>
       </c>
       <c r="AS35" t="n">
-        <v>2</v>
+        <v>1.71</v>
       </c>
       <c r="AT35" t="n">
         <v>1</v>
@@ -7805,7 +7805,7 @@
         <v>1.57</v>
       </c>
       <c r="AT36" t="n">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AU36" t="n">
         <v>1.14</v>
@@ -8005,10 +8005,10 @@
         <v>0</v>
       </c>
       <c r="AS37" t="n">
-        <v>0.33</v>
+        <v>0.71</v>
       </c>
       <c r="AT37" t="n">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AU37" t="n">
         <v>1.18</v>
@@ -8414,7 +8414,7 @@
         <v>0.86</v>
       </c>
       <c r="AT39" t="n">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AU39" t="n">
         <v>1.14</v>
@@ -9223,7 +9223,7 @@
         <v>0</v>
       </c>
       <c r="AS43" t="n">
-        <v>2</v>
+        <v>1.71</v>
       </c>
       <c r="AT43" t="n">
         <v>0.43</v>
@@ -9629,7 +9629,7 @@
         <v>0.5</v>
       </c>
       <c r="AS45" t="n">
-        <v>0.33</v>
+        <v>0.71</v>
       </c>
       <c r="AT45" t="n">
         <v>0.86</v>
@@ -9835,7 +9835,7 @@
         <v>1.57</v>
       </c>
       <c r="AT46" t="n">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AU46" t="n">
         <v>1.81</v>
@@ -10241,7 +10241,7 @@
         <v>0.86</v>
       </c>
       <c r="AT48" t="n">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AU48" t="n">
         <v>1.06</v>
@@ -10441,7 +10441,7 @@
         <v>1</v>
       </c>
       <c r="AS49" t="n">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AT49" t="n">
         <v>1</v>
@@ -10644,7 +10644,7 @@
         <v>1.33</v>
       </c>
       <c r="AS50" t="n">
-        <v>2</v>
+        <v>1.71</v>
       </c>
       <c r="AT50" t="n">
         <v>1</v>
@@ -10850,7 +10850,7 @@
         <v>0.86</v>
       </c>
       <c r="AT51" t="n">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AU51" t="n">
         <v>1.46</v>
@@ -11253,7 +11253,7 @@
         <v>0</v>
       </c>
       <c r="AS53" t="n">
-        <v>2</v>
+        <v>1.71</v>
       </c>
       <c r="AT53" t="n">
         <v>0.43</v>
@@ -11662,7 +11662,7 @@
         <v>2.71</v>
       </c>
       <c r="AT55" t="n">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AU55" t="n">
         <v>1.81</v>
@@ -11862,7 +11862,7 @@
         <v>2</v>
       </c>
       <c r="AS56" t="n">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AT56" t="n">
         <v>2</v>
@@ -12677,7 +12677,7 @@
         <v>2.71</v>
       </c>
       <c r="AT60" t="n">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AU60" t="n">
         <v>1.98</v>
@@ -13080,7 +13080,7 @@
         <v>1</v>
       </c>
       <c r="AS62" t="n">
-        <v>0.33</v>
+        <v>0.71</v>
       </c>
       <c r="AT62" t="n">
         <v>1.43</v>
@@ -13283,7 +13283,7 @@
         <v>1.25</v>
       </c>
       <c r="AS63" t="n">
-        <v>2</v>
+        <v>1.71</v>
       </c>
       <c r="AT63" t="n">
         <v>1</v>
@@ -13489,7 +13489,7 @@
         <v>0.71</v>
       </c>
       <c r="AT64" t="n">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AU64" t="n">
         <v>1.5</v>
@@ -13895,7 +13895,7 @@
         <v>0.86</v>
       </c>
       <c r="AT66" t="n">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AU66" t="n">
         <v>1.37</v>
@@ -14095,10 +14095,10 @@
         <v>0.75</v>
       </c>
       <c r="AS67" t="n">
-        <v>2</v>
+        <v>1.71</v>
       </c>
       <c r="AT67" t="n">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AU67" t="n">
         <v>1.59</v>
@@ -14298,7 +14298,7 @@
         <v>1.2</v>
       </c>
       <c r="AS68" t="n">
-        <v>0.33</v>
+        <v>0.71</v>
       </c>
       <c r="AT68" t="n">
         <v>1</v>
@@ -14501,10 +14501,10 @@
         <v>1.6</v>
       </c>
       <c r="AS69" t="n">
-        <v>2</v>
+        <v>1.71</v>
       </c>
       <c r="AT69" t="n">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AU69" t="n">
         <v>1.46</v>
@@ -14704,7 +14704,7 @@
         <v>1.4</v>
       </c>
       <c r="AS70" t="n">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AT70" t="n">
         <v>1.43</v>
@@ -14910,7 +14910,7 @@
         <v>0.86</v>
       </c>
       <c r="AT71" t="n">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AU71" t="n">
         <v>1.27</v>
@@ -15110,10 +15110,10 @@
         <v>2.4</v>
       </c>
       <c r="AS72" t="n">
-        <v>2</v>
+        <v>1.71</v>
       </c>
       <c r="AT72" t="n">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AU72" t="n">
         <v>1.46</v>
@@ -15316,7 +15316,7 @@
         <v>0.71</v>
       </c>
       <c r="AT73" t="n">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AU73" t="n">
         <v>1.41</v>
@@ -16856,10 +16856,10 @@
         <v>0</v>
       </c>
       <c r="R81" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S81" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T81" t="n">
         <v>0</v>
@@ -16976,21 +16976,833 @@
         <v>0</v>
       </c>
       <c r="BF81" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG81" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH81" t="n">
         <v>2</v>
       </c>
-      <c r="BG81" t="n">
+      <c r="BI81" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ81" t="n">
+        <v>5</v>
+      </c>
+      <c r="BK81" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B82" t="n">
+        <v>4933008</v>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>Paraguay Division Profesional</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E82" s="2" t="n">
+        <v>45039.79166666666</v>
+      </c>
+      <c r="F82" t="n">
+        <v>14</v>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>Tacuary</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>Olimpia</t>
+        </is>
+      </c>
+      <c r="I82" t="n">
+        <v>0</v>
+      </c>
+      <c r="J82" t="n">
+        <v>0</v>
+      </c>
+      <c r="K82" t="n">
+        <v>0</v>
+      </c>
+      <c r="L82" t="n">
+        <v>0</v>
+      </c>
+      <c r="M82" t="n">
+        <v>1</v>
+      </c>
+      <c r="N82" t="n">
+        <v>1</v>
+      </c>
+      <c r="O82" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P82" t="inlineStr">
+        <is>
+          <t>['82']</t>
+        </is>
+      </c>
+      <c r="Q82" t="n">
+        <v>4</v>
+      </c>
+      <c r="R82" t="n">
+        <v>5</v>
+      </c>
+      <c r="S82" t="n">
+        <v>9</v>
+      </c>
+      <c r="T82" t="n">
+        <v>0</v>
+      </c>
+      <c r="U82" t="n">
+        <v>0</v>
+      </c>
+      <c r="V82" t="n">
+        <v>0</v>
+      </c>
+      <c r="W82" t="n">
+        <v>0</v>
+      </c>
+      <c r="X82" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y82" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z82" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA82" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB82" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC82" t="n">
+        <v>4.81</v>
+      </c>
+      <c r="AD82" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="AE82" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AF82" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG82" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH82" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI82" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ82" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AK82" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL82" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM82" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN82" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO82" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP82" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ82" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="AR82" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AS82" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="AT82" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AU82" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AV82" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AW82" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AX82" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY82" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ82" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA82" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB82" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC82" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD82" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE82" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF82" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG82" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH82" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI82" t="n">
+        <v>9</v>
+      </c>
+      <c r="BJ82" t="n">
+        <v>8</v>
+      </c>
+      <c r="BK82" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B83" t="n">
+        <v>4933007</v>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>Paraguay Division Profesional</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E83" s="2" t="n">
+        <v>45039.89583333334</v>
+      </c>
+      <c r="F83" t="n">
+        <v>14</v>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>Nacional Asunción</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>General Caballero JLM</t>
+        </is>
+      </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>0</v>
+      </c>
+      <c r="K83" t="n">
+        <v>0</v>
+      </c>
+      <c r="L83" t="n">
+        <v>2</v>
+      </c>
+      <c r="M83" t="n">
+        <v>0</v>
+      </c>
+      <c r="N83" t="n">
+        <v>2</v>
+      </c>
+      <c r="O83" t="inlineStr">
+        <is>
+          <t>['80', '83']</t>
+        </is>
+      </c>
+      <c r="P83" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q83" t="n">
         <v>3</v>
       </c>
-      <c r="BH81" t="n">
-        <v>1</v>
-      </c>
-      <c r="BI81" t="n">
+      <c r="R83" t="n">
+        <v>3</v>
+      </c>
+      <c r="S83" t="n">
+        <v>6</v>
+      </c>
+      <c r="T83" t="n">
+        <v>0</v>
+      </c>
+      <c r="U83" t="n">
+        <v>0</v>
+      </c>
+      <c r="V83" t="n">
+        <v>0</v>
+      </c>
+      <c r="W83" t="n">
+        <v>0</v>
+      </c>
+      <c r="X83" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y83" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z83" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA83" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB83" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC83" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AD83" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="AE83" t="n">
+        <v>4.54</v>
+      </c>
+      <c r="AF83" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG83" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH83" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI83" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ83" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AK83" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AL83" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM83" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN83" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO83" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP83" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ83" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AR83" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AS83" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="AT83" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="AU83" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AV83" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AW83" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="AX83" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY83" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ83" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA83" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB83" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC83" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD83" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE83" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF83" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG83" t="n">
         <v>2</v>
       </c>
-      <c r="BJ81" t="n">
+      <c r="BH83" t="n">
+        <v>11</v>
+      </c>
+      <c r="BI83" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ83" t="n">
+        <v>16</v>
+      </c>
+      <c r="BK83" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B84" t="n">
+        <v>4933006</v>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>Paraguay Division Profesional</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E84" s="2" t="n">
+        <v>45040.79166666666</v>
+      </c>
+      <c r="F84" t="n">
+        <v>14</v>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>Sportivo Luqueño</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>Libertad</t>
+        </is>
+      </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>1</v>
+      </c>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="n">
+        <v>0</v>
+      </c>
+      <c r="M84" t="n">
+        <v>2</v>
+      </c>
+      <c r="N84" t="n">
+        <v>2</v>
+      </c>
+      <c r="O84" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P84" t="inlineStr">
+        <is>
+          <t>['2', '83']</t>
+        </is>
+      </c>
+      <c r="Q84" t="n">
         <v>3</v>
       </c>
-      <c r="BK81" t="n">
+      <c r="R84" t="n">
+        <v>1</v>
+      </c>
+      <c r="S84" t="n">
+        <v>4</v>
+      </c>
+      <c r="T84" t="n">
+        <v>0</v>
+      </c>
+      <c r="U84" t="n">
+        <v>0</v>
+      </c>
+      <c r="V84" t="n">
+        <v>0</v>
+      </c>
+      <c r="W84" t="n">
+        <v>0</v>
+      </c>
+      <c r="X84" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y84" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z84" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA84" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB84" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC84" t="n">
+        <v>5</v>
+      </c>
+      <c r="AD84" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AE84" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AF84" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG84" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH84" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI84" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ84" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AK84" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AL84" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM84" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN84" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO84" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP84" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ84" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR84" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AS84" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AT84" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="AU84" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AV84" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AW84" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="AX84" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY84" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ84" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA84" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB84" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC84" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD84" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE84" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF84" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG84" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH84" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI84" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ84" t="n">
+        <v>8</v>
+      </c>
+      <c r="BK84" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B85" t="n">
+        <v>4933004</v>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>Paraguay Division Profesional</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E85" s="2" t="n">
+        <v>45040.89583333334</v>
+      </c>
+      <c r="F85" t="n">
+        <v>14</v>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>Guaraní</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>Cerro Porteño</t>
+        </is>
+      </c>
+      <c r="I85" t="n">
+        <v>0</v>
+      </c>
+      <c r="J85" t="n">
+        <v>2</v>
+      </c>
+      <c r="K85" t="n">
+        <v>2</v>
+      </c>
+      <c r="L85" t="n">
+        <v>0</v>
+      </c>
+      <c r="M85" t="n">
+        <v>3</v>
+      </c>
+      <c r="N85" t="n">
+        <v>3</v>
+      </c>
+      <c r="O85" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P85" t="inlineStr">
+        <is>
+          <t>['16', '30', '56']</t>
+        </is>
+      </c>
+      <c r="Q85" t="n">
+        <v>4</v>
+      </c>
+      <c r="R85" t="n">
+        <v>3</v>
+      </c>
+      <c r="S85" t="n">
+        <v>7</v>
+      </c>
+      <c r="T85" t="n">
+        <v>0</v>
+      </c>
+      <c r="U85" t="n">
+        <v>0</v>
+      </c>
+      <c r="V85" t="n">
+        <v>0</v>
+      </c>
+      <c r="W85" t="n">
+        <v>0</v>
+      </c>
+      <c r="X85" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y85" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z85" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA85" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB85" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC85" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AD85" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AE85" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AF85" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG85" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH85" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI85" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ85" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AK85" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AL85" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM85" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN85" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO85" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP85" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ85" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR85" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AS85" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AT85" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="AU85" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AV85" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AW85" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AX85" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY85" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ85" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA85" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB85" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC85" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD85" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE85" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF85" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG85" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH85" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI85" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ85" t="n">
+        <v>5</v>
+      </c>
+      <c r="BK85" t="n">
         <v>5</v>
       </c>
     </row>

--- a/Bases_de_Dados_(2022-2023)/Paraguay Division Profesional_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Paraguay Division Profesional_2023.xlsx
@@ -17462,13 +17462,13 @@
         </is>
       </c>
       <c r="Q84" t="n">
+        <v>5</v>
+      </c>
+      <c r="R84" t="n">
         <v>3</v>
       </c>
-      <c r="R84" t="n">
-        <v>1</v>
-      </c>
       <c r="S84" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="T84" t="n">
         <v>0</v>
@@ -17588,19 +17588,19 @@
         <v>4</v>
       </c>
       <c r="BG84" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BH84" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BI84" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="BJ84" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="BK84" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="85">
@@ -17668,10 +17668,10 @@
         <v>4</v>
       </c>
       <c r="R85" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S85" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="T85" t="n">
         <v>0</v>
@@ -17788,22 +17788,22 @@
         <v>0</v>
       </c>
       <c r="BF85" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG85" t="n">
         <v>3</v>
       </c>
-      <c r="BG85" t="n">
-        <v>2</v>
-      </c>
       <c r="BH85" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="BI85" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BJ85" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="BK85" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Paraguay Division Profesional_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Paraguay Division Profesional_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK85"/>
+  <dimension ref="A1:BK89"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1106,7 +1106,7 @@
         <v>1.57</v>
       </c>
       <c r="AT3" t="n">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="AU3" t="n">
         <v>0</v>
@@ -1509,10 +1509,10 @@
         <v>0</v>
       </c>
       <c r="AS5" t="n">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AT5" t="n">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AU5" t="n">
         <v>0</v>
@@ -1712,7 +1712,7 @@
         <v>0</v>
       </c>
       <c r="AS6" t="n">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AT6" t="n">
         <v>1.86</v>
@@ -1915,7 +1915,7 @@
         <v>0</v>
       </c>
       <c r="AS7" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AT7" t="n">
         <v>0.86</v>
@@ -2121,7 +2121,7 @@
         <v>0.71</v>
       </c>
       <c r="AT8" t="n">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AU8" t="n">
         <v>0</v>
@@ -2321,7 +2321,7 @@
         <v>1</v>
       </c>
       <c r="AS9" t="n">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AT9" t="n">
         <v>1.86</v>
@@ -3136,7 +3136,7 @@
         <v>0.86</v>
       </c>
       <c r="AT13" t="n">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AU13" t="n">
         <v>0</v>
@@ -3539,7 +3539,7 @@
         <v>3</v>
       </c>
       <c r="AS15" t="n">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AT15" t="n">
         <v>2</v>
@@ -3742,7 +3742,7 @@
         <v>0</v>
       </c>
       <c r="AS16" t="n">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AT16" t="n">
         <v>1.71</v>
@@ -3948,7 +3948,7 @@
         <v>0.29</v>
       </c>
       <c r="AT17" t="n">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AU17" t="n">
         <v>0.9</v>
@@ -4148,10 +4148,10 @@
         <v>0</v>
       </c>
       <c r="AS18" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AT18" t="n">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="AU18" t="n">
         <v>1.41</v>
@@ -5772,10 +5772,10 @@
         <v>1.5</v>
       </c>
       <c r="AS26" t="n">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AT26" t="n">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AU26" t="n">
         <v>1.32</v>
@@ -5975,7 +5975,7 @@
         <v>0.5</v>
       </c>
       <c r="AS27" t="n">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AT27" t="n">
         <v>0.86</v>
@@ -6181,7 +6181,7 @@
         <v>2.71</v>
       </c>
       <c r="AT28" t="n">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="AU28" t="n">
         <v>1.25</v>
@@ -6381,10 +6381,10 @@
         <v>1</v>
       </c>
       <c r="AS29" t="n">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AT29" t="n">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AU29" t="n">
         <v>1.02</v>
@@ -6584,10 +6584,10 @@
         <v>3</v>
       </c>
       <c r="AS30" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AT30" t="n">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AU30" t="n">
         <v>1.8</v>
@@ -7396,7 +7396,7 @@
         <v>3</v>
       </c>
       <c r="AS34" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AT34" t="n">
         <v>2.29</v>
@@ -7602,7 +7602,7 @@
         <v>1.71</v>
       </c>
       <c r="AT35" t="n">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AU35" t="n">
         <v>1.35</v>
@@ -8211,7 +8211,7 @@
         <v>2.71</v>
       </c>
       <c r="AT38" t="n">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AU38" t="n">
         <v>1.61</v>
@@ -8411,7 +8411,7 @@
         <v>0.5</v>
       </c>
       <c r="AS39" t="n">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AT39" t="n">
         <v>1.57</v>
@@ -8820,7 +8820,7 @@
         <v>0.86</v>
       </c>
       <c r="AT41" t="n">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AU41" t="n">
         <v>1.4</v>
@@ -9020,7 +9020,7 @@
         <v>0.33</v>
       </c>
       <c r="AS42" t="n">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AT42" t="n">
         <v>0.86</v>
@@ -9223,10 +9223,10 @@
         <v>0</v>
       </c>
       <c r="AS43" t="n">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AT43" t="n">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="AU43" t="n">
         <v>1.73</v>
@@ -9832,7 +9832,7 @@
         <v>3</v>
       </c>
       <c r="AS46" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AT46" t="n">
         <v>2.29</v>
@@ -10238,7 +10238,7 @@
         <v>2.33</v>
       </c>
       <c r="AS48" t="n">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AT48" t="n">
         <v>2.29</v>
@@ -10444,7 +10444,7 @@
         <v>0.71</v>
       </c>
       <c r="AT49" t="n">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AU49" t="n">
         <v>1.44</v>
@@ -10644,10 +10644,10 @@
         <v>1.33</v>
       </c>
       <c r="AS50" t="n">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AT50" t="n">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AU50" t="n">
         <v>1.54</v>
@@ -11050,7 +11050,7 @@
         <v>2.5</v>
       </c>
       <c r="AS52" t="n">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AT52" t="n">
         <v>2</v>
@@ -11256,7 +11256,7 @@
         <v>1.71</v>
       </c>
       <c r="AT53" t="n">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="AU53" t="n">
         <v>1.25</v>
@@ -11459,7 +11459,7 @@
         <v>0.71</v>
       </c>
       <c r="AT54" t="n">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AU54" t="n">
         <v>1.51</v>
@@ -12065,7 +12065,7 @@
         <v>1.6</v>
       </c>
       <c r="AS57" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AT57" t="n">
         <v>1.71</v>
@@ -12474,7 +12474,7 @@
         <v>0.29</v>
       </c>
       <c r="AT59" t="n">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AU59" t="n">
         <v>1</v>
@@ -12877,7 +12877,7 @@
         <v>1.8</v>
       </c>
       <c r="AS61" t="n">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AT61" t="n">
         <v>1.86</v>
@@ -13083,7 +13083,7 @@
         <v>0.71</v>
       </c>
       <c r="AT62" t="n">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AU62" t="n">
         <v>1.09</v>
@@ -13286,7 +13286,7 @@
         <v>1.71</v>
       </c>
       <c r="AT63" t="n">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AU63" t="n">
         <v>1.27</v>
@@ -13689,10 +13689,10 @@
         <v>0</v>
       </c>
       <c r="AS65" t="n">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AT65" t="n">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="AU65" t="n">
         <v>1.36</v>
@@ -14095,7 +14095,7 @@
         <v>0.75</v>
       </c>
       <c r="AS67" t="n">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AT67" t="n">
         <v>0.57</v>
@@ -14301,7 +14301,7 @@
         <v>0.71</v>
       </c>
       <c r="AT68" t="n">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AU68" t="n">
         <v>1.26</v>
@@ -14707,7 +14707,7 @@
         <v>0.71</v>
       </c>
       <c r="AT70" t="n">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AU70" t="n">
         <v>1.31</v>
@@ -15110,7 +15110,7 @@
         <v>2.4</v>
       </c>
       <c r="AS72" t="n">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AT72" t="n">
         <v>2.29</v>
@@ -15519,7 +15519,7 @@
         <v>0.29</v>
       </c>
       <c r="AT74" t="n">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="AU74" t="n">
         <v>1.09</v>
@@ -15719,7 +15719,7 @@
         <v>1.83</v>
       </c>
       <c r="AS75" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AT75" t="n">
         <v>2</v>
@@ -15922,10 +15922,10 @@
         <v>1.67</v>
       </c>
       <c r="AS76" t="n">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AT76" t="n">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AU76" t="n">
         <v>1.48</v>
@@ -16331,7 +16331,7 @@
         <v>2.71</v>
       </c>
       <c r="AT78" t="n">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AU78" t="n">
         <v>1.9</v>
@@ -16531,7 +16531,7 @@
         <v>1</v>
       </c>
       <c r="AS79" t="n">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AT79" t="n">
         <v>0.86</v>
@@ -16737,7 +16737,7 @@
         <v>1.57</v>
       </c>
       <c r="AT80" t="n">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AU80" t="n">
         <v>1.21</v>
@@ -17749,7 +17749,7 @@
         <v>2.17</v>
       </c>
       <c r="AS85" t="n">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AT85" t="n">
         <v>2.29</v>
@@ -17804,6 +17804,818 @@
       </c>
       <c r="BK85" t="n">
         <v>7</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B86" t="n">
+        <v>4933012</v>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>Paraguay Division Profesional</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E86" s="2" t="n">
+        <v>45043.75</v>
+      </c>
+      <c r="F86" t="n">
+        <v>15</v>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>General Caballero JLM</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>Tacuary</t>
+        </is>
+      </c>
+      <c r="I86" t="n">
+        <v>1</v>
+      </c>
+      <c r="J86" t="n">
+        <v>0</v>
+      </c>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="n">
+        <v>0</v>
+      </c>
+      <c r="N86" t="n">
+        <v>1</v>
+      </c>
+      <c r="O86" t="inlineStr">
+        <is>
+          <t>['23']</t>
+        </is>
+      </c>
+      <c r="P86" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q86" t="n">
+        <v>5</v>
+      </c>
+      <c r="R86" t="n">
+        <v>5</v>
+      </c>
+      <c r="S86" t="n">
+        <v>10</v>
+      </c>
+      <c r="T86" t="n">
+        <v>0</v>
+      </c>
+      <c r="U86" t="n">
+        <v>0</v>
+      </c>
+      <c r="V86" t="n">
+        <v>0</v>
+      </c>
+      <c r="W86" t="n">
+        <v>0</v>
+      </c>
+      <c r="X86" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y86" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z86" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA86" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB86" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC86" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AD86" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AE86" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AF86" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG86" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH86" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI86" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ86" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AK86" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AL86" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM86" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN86" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO86" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP86" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ86" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="AR86" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="AS86" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AT86" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="AU86" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AV86" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AW86" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AX86" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY86" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ86" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA86" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB86" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC86" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD86" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE86" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF86" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG86" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH86" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI86" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ86" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK86" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B87" t="n">
+        <v>4933011</v>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>Paraguay Division Profesional</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E87" s="2" t="n">
+        <v>45043.85416666666</v>
+      </c>
+      <c r="F87" t="n">
+        <v>15</v>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>Olimpia</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>Sportivo Trinidense</t>
+        </is>
+      </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>1</v>
+      </c>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="n">
+        <v>1</v>
+      </c>
+      <c r="N87" t="n">
+        <v>2</v>
+      </c>
+      <c r="O87" t="inlineStr">
+        <is>
+          <t>['64']</t>
+        </is>
+      </c>
+      <c r="P87" t="inlineStr">
+        <is>
+          <t>['41']</t>
+        </is>
+      </c>
+      <c r="Q87" t="n">
+        <v>6</v>
+      </c>
+      <c r="R87" t="n">
+        <v>9</v>
+      </c>
+      <c r="S87" t="n">
+        <v>15</v>
+      </c>
+      <c r="T87" t="n">
+        <v>0</v>
+      </c>
+      <c r="U87" t="n">
+        <v>0</v>
+      </c>
+      <c r="V87" t="n">
+        <v>0</v>
+      </c>
+      <c r="W87" t="n">
+        <v>0</v>
+      </c>
+      <c r="X87" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y87" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z87" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA87" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB87" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC87" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AD87" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AE87" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="AF87" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG87" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH87" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI87" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ87" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AK87" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AL87" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM87" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN87" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO87" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP87" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ87" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AR87" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AS87" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AT87" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AU87" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AV87" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AW87" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="AX87" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY87" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ87" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA87" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB87" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC87" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD87" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE87" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF87" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG87" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH87" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI87" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ87" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK87" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B88" t="n">
+        <v>4933010</v>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>Paraguay Division Profesional</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E88" s="2" t="n">
+        <v>45044.79166666666</v>
+      </c>
+      <c r="F88" t="n">
+        <v>15</v>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>Cerro Porteño</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>Guaireña</t>
+        </is>
+      </c>
+      <c r="I88" t="n">
+        <v>1</v>
+      </c>
+      <c r="J88" t="n">
+        <v>0</v>
+      </c>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="n">
+        <v>2</v>
+      </c>
+      <c r="M88" t="n">
+        <v>0</v>
+      </c>
+      <c r="N88" t="n">
+        <v>2</v>
+      </c>
+      <c r="O88" t="inlineStr">
+        <is>
+          <t>['30', '66']</t>
+        </is>
+      </c>
+      <c r="P88" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q88" t="n">
+        <v>9</v>
+      </c>
+      <c r="R88" t="n">
+        <v>1</v>
+      </c>
+      <c r="S88" t="n">
+        <v>10</v>
+      </c>
+      <c r="T88" t="n">
+        <v>0</v>
+      </c>
+      <c r="U88" t="n">
+        <v>0</v>
+      </c>
+      <c r="V88" t="n">
+        <v>0</v>
+      </c>
+      <c r="W88" t="n">
+        <v>0</v>
+      </c>
+      <c r="X88" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y88" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z88" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA88" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB88" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC88" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AD88" t="n">
+        <v>4.04</v>
+      </c>
+      <c r="AE88" t="n">
+        <v>5.66</v>
+      </c>
+      <c r="AF88" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG88" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH88" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI88" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ88" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AK88" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="AL88" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM88" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN88" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO88" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP88" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ88" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AR88" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS88" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT88" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="AU88" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AV88" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AW88" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AX88" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY88" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ88" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA88" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB88" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC88" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD88" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE88" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF88" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG88" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH88" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI88" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ88" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK88" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B89" t="n">
+        <v>4933015</v>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>Paraguay Division Profesional</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E89" s="2" t="n">
+        <v>45044.89583333334</v>
+      </c>
+      <c r="F89" t="n">
+        <v>15</v>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>Guaraní</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>Resistencia</t>
+        </is>
+      </c>
+      <c r="I89" t="n">
+        <v>0</v>
+      </c>
+      <c r="J89" t="n">
+        <v>0</v>
+      </c>
+      <c r="K89" t="n">
+        <v>0</v>
+      </c>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="n">
+        <v>0</v>
+      </c>
+      <c r="N89" t="n">
+        <v>1</v>
+      </c>
+      <c r="O89" t="inlineStr">
+        <is>
+          <t>['51']</t>
+        </is>
+      </c>
+      <c r="P89" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q89" t="n">
+        <v>1</v>
+      </c>
+      <c r="R89" t="n">
+        <v>2</v>
+      </c>
+      <c r="S89" t="n">
+        <v>3</v>
+      </c>
+      <c r="T89" t="n">
+        <v>0</v>
+      </c>
+      <c r="U89" t="n">
+        <v>0</v>
+      </c>
+      <c r="V89" t="n">
+        <v>0</v>
+      </c>
+      <c r="W89" t="n">
+        <v>0</v>
+      </c>
+      <c r="X89" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y89" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z89" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA89" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB89" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC89" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AD89" t="n">
+        <v>3.63</v>
+      </c>
+      <c r="AE89" t="n">
+        <v>4.94</v>
+      </c>
+      <c r="AF89" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG89" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH89" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI89" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ89" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AK89" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AL89" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM89" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN89" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO89" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP89" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ89" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AR89" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS89" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AT89" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="AU89" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AV89" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AW89" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="AX89" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY89" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ89" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA89" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB89" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC89" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD89" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE89" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF89" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG89" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH89" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI89" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ89" t="n">
+        <v>8</v>
+      </c>
+      <c r="BK89" t="n">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Paraguay Division Profesional_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Paraguay Division Profesional_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK89"/>
+  <dimension ref="A1:BK90"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -900,7 +900,7 @@
         <v>0</v>
       </c>
       <c r="AS2" t="n">
-        <v>2.71</v>
+        <v>2.75</v>
       </c>
       <c r="AT2" t="n">
         <v>1.71</v>
@@ -1309,7 +1309,7 @@
         <v>0.29</v>
       </c>
       <c r="AT4" t="n">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AU4" t="n">
         <v>0</v>
@@ -3336,7 +3336,7 @@
         <v>0</v>
       </c>
       <c r="AS14" t="n">
-        <v>2.71</v>
+        <v>2.75</v>
       </c>
       <c r="AT14" t="n">
         <v>0.86</v>
@@ -3542,7 +3542,7 @@
         <v>1.13</v>
       </c>
       <c r="AT15" t="n">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AU15" t="n">
         <v>0.85</v>
@@ -5572,7 +5572,7 @@
         <v>0.86</v>
       </c>
       <c r="AT25" t="n">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AU25" t="n">
         <v>1.49</v>
@@ -6178,7 +6178,7 @@
         <v>0</v>
       </c>
       <c r="AS28" t="n">
-        <v>2.71</v>
+        <v>2.75</v>
       </c>
       <c r="AT28" t="n">
         <v>0.38</v>
@@ -8208,7 +8208,7 @@
         <v>2</v>
       </c>
       <c r="AS38" t="n">
-        <v>2.71</v>
+        <v>2.75</v>
       </c>
       <c r="AT38" t="n">
         <v>0.88</v>
@@ -8617,7 +8617,7 @@
         <v>0.71</v>
       </c>
       <c r="AT40" t="n">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AU40" t="n">
         <v>1.31</v>
@@ -11053,7 +11053,7 @@
         <v>2</v>
       </c>
       <c r="AT52" t="n">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AU52" t="n">
         <v>1.35</v>
@@ -11659,7 +11659,7 @@
         <v>1</v>
       </c>
       <c r="AS55" t="n">
-        <v>2.71</v>
+        <v>2.75</v>
       </c>
       <c r="AT55" t="n">
         <v>0.57</v>
@@ -11865,7 +11865,7 @@
         <v>0.71</v>
       </c>
       <c r="AT56" t="n">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AU56" t="n">
         <v>1.36</v>
@@ -12674,7 +12674,7 @@
         <v>2.5</v>
       </c>
       <c r="AS60" t="n">
-        <v>2.71</v>
+        <v>2.75</v>
       </c>
       <c r="AT60" t="n">
         <v>2.29</v>
@@ -15722,7 +15722,7 @@
         <v>1.5</v>
       </c>
       <c r="AT75" t="n">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AU75" t="n">
         <v>1.66</v>
@@ -16328,7 +16328,7 @@
         <v>1.17</v>
       </c>
       <c r="AS78" t="n">
-        <v>2.71</v>
+        <v>2.75</v>
       </c>
       <c r="AT78" t="n">
         <v>0.88</v>
@@ -18477,13 +18477,13 @@
         </is>
       </c>
       <c r="Q89" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R89" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="S89" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="T89" t="n">
         <v>0</v>
@@ -18600,22 +18600,225 @@
         <v>0</v>
       </c>
       <c r="BF89" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG89" t="n">
         <v>5</v>
       </c>
-      <c r="BG89" t="n">
-        <v>0</v>
-      </c>
       <c r="BH89" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI89" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ89" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK89" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B90" t="n">
+        <v>4933013</v>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>Paraguay Division Profesional</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E90" s="2" t="n">
+        <v>45045.75</v>
+      </c>
+      <c r="F90" t="n">
+        <v>15</v>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>Libertad</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>Nacional Asunción</t>
+        </is>
+      </c>
+      <c r="I90" t="n">
+        <v>2</v>
+      </c>
+      <c r="J90" t="n">
+        <v>0</v>
+      </c>
+      <c r="K90" t="n">
+        <v>2</v>
+      </c>
+      <c r="L90" t="n">
+        <v>2</v>
+      </c>
+      <c r="M90" t="n">
+        <v>1</v>
+      </c>
+      <c r="N90" t="n">
         <v>3</v>
       </c>
-      <c r="BI89" t="n">
-        <v>3</v>
-      </c>
-      <c r="BJ89" t="n">
+      <c r="O90" t="inlineStr">
+        <is>
+          <t>['41', '45']</t>
+        </is>
+      </c>
+      <c r="P90" t="inlineStr">
+        <is>
+          <t>['72']</t>
+        </is>
+      </c>
+      <c r="Q90" t="n">
+        <v>6</v>
+      </c>
+      <c r="R90" t="n">
+        <v>4</v>
+      </c>
+      <c r="S90" t="n">
+        <v>10</v>
+      </c>
+      <c r="T90" t="n">
+        <v>0</v>
+      </c>
+      <c r="U90" t="n">
+        <v>0</v>
+      </c>
+      <c r="V90" t="n">
+        <v>0</v>
+      </c>
+      <c r="W90" t="n">
+        <v>0</v>
+      </c>
+      <c r="X90" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y90" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z90" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA90" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB90" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC90" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AD90" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="AE90" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="AF90" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG90" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH90" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI90" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ90" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AK90" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL90" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM90" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN90" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO90" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP90" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ90" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="AR90" t="n">
+        <v>2</v>
+      </c>
+      <c r="AS90" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AT90" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AU90" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AV90" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW90" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="AX90" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY90" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ90" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA90" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB90" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC90" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD90" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE90" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF90" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG90" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH90" t="n">
         <v>8</v>
       </c>
-      <c r="BK89" t="n">
-        <v>3</v>
+      <c r="BI90" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ90" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK90" t="n">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Paraguay Division Profesional_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Paraguay Division Profesional_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK90"/>
+  <dimension ref="A1:BK91"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1918,7 +1918,7 @@
         <v>1.5</v>
       </c>
       <c r="AT7" t="n">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AU7" t="n">
         <v>0</v>
@@ -3133,7 +3133,7 @@
         <v>0</v>
       </c>
       <c r="AS13" t="n">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AT13" t="n">
         <v>0.88</v>
@@ -3339,7 +3339,7 @@
         <v>2.75</v>
       </c>
       <c r="AT14" t="n">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AU14" t="n">
         <v>0</v>
@@ -5569,7 +5569,7 @@
         <v>3</v>
       </c>
       <c r="AS25" t="n">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AT25" t="n">
         <v>1.75</v>
@@ -5978,7 +5978,7 @@
         <v>1.88</v>
       </c>
       <c r="AT27" t="n">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AU27" t="n">
         <v>1.22</v>
@@ -8817,7 +8817,7 @@
         <v>2</v>
       </c>
       <c r="AS41" t="n">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AT41" t="n">
         <v>1.38</v>
@@ -9023,7 +9023,7 @@
         <v>2</v>
       </c>
       <c r="AT42" t="n">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AU42" t="n">
         <v>1.51</v>
@@ -9632,7 +9632,7 @@
         <v>0.71</v>
       </c>
       <c r="AT45" t="n">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AU45" t="n">
         <v>1.06</v>
@@ -10847,7 +10847,7 @@
         <v>1.33</v>
       </c>
       <c r="AS51" t="n">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AT51" t="n">
         <v>1.57</v>
@@ -12271,7 +12271,7 @@
         <v>1.57</v>
       </c>
       <c r="AT58" t="n">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AU58" t="n">
         <v>1.24</v>
@@ -13892,7 +13892,7 @@
         <v>2.25</v>
       </c>
       <c r="AS66" t="n">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AT66" t="n">
         <v>2.29</v>
@@ -14907,7 +14907,7 @@
         <v>2</v>
       </c>
       <c r="AS71" t="n">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AT71" t="n">
         <v>2.29</v>
@@ -16125,7 +16125,7 @@
         <v>1.83</v>
       </c>
       <c r="AS77" t="n">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AT77" t="n">
         <v>1.71</v>
@@ -16534,7 +16534,7 @@
         <v>1.13</v>
       </c>
       <c r="AT79" t="n">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AU79" t="n">
         <v>1.02</v>
@@ -18819,6 +18819,209 @@
       </c>
       <c r="BK90" t="n">
         <v>2</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B91" t="n">
+        <v>4933014</v>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>Paraguay Division Profesional</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E91" s="2" t="n">
+        <v>45047.79166666666</v>
+      </c>
+      <c r="F91" t="n">
+        <v>15</v>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>Sportivo Ameliano</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>Sportivo Luqueño</t>
+        </is>
+      </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>0</v>
+      </c>
+      <c r="K91" t="n">
+        <v>0</v>
+      </c>
+      <c r="L91" t="n">
+        <v>2</v>
+      </c>
+      <c r="M91" t="n">
+        <v>0</v>
+      </c>
+      <c r="N91" t="n">
+        <v>2</v>
+      </c>
+      <c r="O91" t="inlineStr">
+        <is>
+          <t>['66', '89']</t>
+        </is>
+      </c>
+      <c r="P91" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q91" t="n">
+        <v>0</v>
+      </c>
+      <c r="R91" t="n">
+        <v>4</v>
+      </c>
+      <c r="S91" t="n">
+        <v>4</v>
+      </c>
+      <c r="T91" t="n">
+        <v>0</v>
+      </c>
+      <c r="U91" t="n">
+        <v>0</v>
+      </c>
+      <c r="V91" t="n">
+        <v>0</v>
+      </c>
+      <c r="W91" t="n">
+        <v>0</v>
+      </c>
+      <c r="X91" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y91" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z91" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA91" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB91" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC91" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AD91" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AE91" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AF91" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG91" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH91" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI91" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ91" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK91" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AL91" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM91" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN91" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO91" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP91" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ91" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="AR91" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="AS91" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AT91" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AU91" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AV91" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AW91" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="AX91" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY91" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ91" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA91" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB91" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC91" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD91" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE91" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF91" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG91" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH91" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI91" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ91" t="n">
+        <v>7</v>
+      </c>
+      <c r="BK91" t="n">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Paraguay Division Profesional_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Paraguay Division Profesional_2023.xlsx
@@ -18883,13 +18883,13 @@
         </is>
       </c>
       <c r="Q91" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R91" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="S91" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="T91" t="n">
         <v>0</v>
@@ -19009,19 +19009,19 @@
         <v>2</v>
       </c>
       <c r="BG91" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="BH91" t="n">
         <v>5</v>
       </c>
       <c r="BI91" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="BJ91" t="n">
         <v>7</v>
       </c>
       <c r="BK91" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Paraguay Division Profesional_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Paraguay Division Profesional_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK91"/>
+  <dimension ref="A1:BK92"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1715,7 +1715,7 @@
         <v>2</v>
       </c>
       <c r="AT6" t="n">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AU6" t="n">
         <v>0</v>
@@ -2324,7 +2324,7 @@
         <v>1.88</v>
       </c>
       <c r="AT9" t="n">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AU9" t="n">
         <v>0</v>
@@ -4960,7 +4960,7 @@
         <v>3</v>
       </c>
       <c r="AS22" t="n">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AT22" t="n">
         <v>2.29</v>
@@ -5369,7 +5369,7 @@
         <v>1.71</v>
       </c>
       <c r="AT24" t="n">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AU24" t="n">
         <v>1.41</v>
@@ -6790,7 +6790,7 @@
         <v>0.71</v>
       </c>
       <c r="AT31" t="n">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AU31" t="n">
         <v>1.34</v>
@@ -7193,7 +7193,7 @@
         <v>1.33</v>
       </c>
       <c r="AS33" t="n">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AT33" t="n">
         <v>1.71</v>
@@ -8005,7 +8005,7 @@
         <v>0</v>
       </c>
       <c r="AS37" t="n">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AT37" t="n">
         <v>1.57</v>
@@ -9429,7 +9429,7 @@
         <v>0.29</v>
       </c>
       <c r="AT44" t="n">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AU44" t="n">
         <v>0.84</v>
@@ -9629,7 +9629,7 @@
         <v>0.5</v>
       </c>
       <c r="AS45" t="n">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AT45" t="n">
         <v>0.75</v>
@@ -12880,7 +12880,7 @@
         <v>1.13</v>
       </c>
       <c r="AT61" t="n">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AU61" t="n">
         <v>1.02</v>
@@ -13080,7 +13080,7 @@
         <v>1</v>
       </c>
       <c r="AS62" t="n">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AT62" t="n">
         <v>1.38</v>
@@ -14298,7 +14298,7 @@
         <v>1.2</v>
       </c>
       <c r="AS68" t="n">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AT68" t="n">
         <v>0.88</v>
@@ -16940,7 +16940,7 @@
         <v>0.71</v>
       </c>
       <c r="AT81" t="n">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AU81" t="n">
         <v>1.43</v>
@@ -17343,7 +17343,7 @@
         <v>0.67</v>
       </c>
       <c r="AS83" t="n">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AT83" t="n">
         <v>0.57</v>
@@ -19022,6 +19022,209 @@
       </c>
       <c r="BK91" t="n">
         <v>12</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B92" t="n">
+        <v>4933018</v>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>Paraguay Division Profesional</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E92" s="2" t="n">
+        <v>45051.83333333334</v>
+      </c>
+      <c r="F92" t="n">
+        <v>16</v>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>Nacional Asunción</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>Sportivo Ameliano</t>
+        </is>
+      </c>
+      <c r="I92" t="n">
+        <v>1</v>
+      </c>
+      <c r="J92" t="n">
+        <v>0</v>
+      </c>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="n">
+        <v>0</v>
+      </c>
+      <c r="N92" t="n">
+        <v>1</v>
+      </c>
+      <c r="O92" t="inlineStr">
+        <is>
+          <t>['41']</t>
+        </is>
+      </c>
+      <c r="P92" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q92" t="n">
+        <v>5</v>
+      </c>
+      <c r="R92" t="n">
+        <v>5</v>
+      </c>
+      <c r="S92" t="n">
+        <v>10</v>
+      </c>
+      <c r="T92" t="n">
+        <v>0</v>
+      </c>
+      <c r="U92" t="n">
+        <v>0</v>
+      </c>
+      <c r="V92" t="n">
+        <v>0</v>
+      </c>
+      <c r="W92" t="n">
+        <v>0</v>
+      </c>
+      <c r="X92" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y92" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z92" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA92" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB92" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC92" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AD92" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AE92" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AF92" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG92" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH92" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI92" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ92" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AK92" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AL92" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM92" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN92" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO92" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP92" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ92" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="AR92" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AS92" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT92" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AU92" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AV92" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AW92" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AX92" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY92" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ92" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA92" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB92" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC92" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD92" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE92" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF92" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG92" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH92" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI92" t="n">
+        <v>9</v>
+      </c>
+      <c r="BJ92" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK92" t="n">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Paraguay Division Profesional_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Paraguay Division Profesional_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK92"/>
+  <dimension ref="A1:BK94"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -903,7 +903,7 @@
         <v>2.75</v>
       </c>
       <c r="AT2" t="n">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AU2" t="n">
         <v>0</v>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="AS3" t="n">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AT3" t="n">
         <v>0.38</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="AS10" t="n">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AT10" t="n">
         <v>2.29</v>
@@ -2930,10 +2930,10 @@
         <v>0</v>
       </c>
       <c r="AS12" t="n">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AT12" t="n">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AU12" t="n">
         <v>0</v>
@@ -3745,7 +3745,7 @@
         <v>2</v>
       </c>
       <c r="AT16" t="n">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AU16" t="n">
         <v>1.26</v>
@@ -4354,7 +4354,7 @@
         <v>0.71</v>
       </c>
       <c r="AT19" t="n">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AU19" t="n">
         <v>1.16</v>
@@ -4757,7 +4757,7 @@
         <v>0</v>
       </c>
       <c r="AS21" t="n">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AT21" t="n">
         <v>1.57</v>
@@ -5166,7 +5166,7 @@
         <v>0.71</v>
       </c>
       <c r="AT23" t="n">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AU23" t="n">
         <v>1.25</v>
@@ -5366,7 +5366,7 @@
         <v>1</v>
       </c>
       <c r="AS24" t="n">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AT24" t="n">
         <v>1.63</v>
@@ -6993,7 +6993,7 @@
         <v>0.29</v>
       </c>
       <c r="AT32" t="n">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AU32" t="n">
         <v>0.79</v>
@@ -7196,7 +7196,7 @@
         <v>1</v>
       </c>
       <c r="AT33" t="n">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AU33" t="n">
         <v>0.92</v>
@@ -7599,7 +7599,7 @@
         <v>1.33</v>
       </c>
       <c r="AS35" t="n">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AT35" t="n">
         <v>0.88</v>
@@ -7802,7 +7802,7 @@
         <v>3</v>
       </c>
       <c r="AS36" t="n">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AT36" t="n">
         <v>2.29</v>
@@ -10035,10 +10035,10 @@
         <v>1.75</v>
       </c>
       <c r="AS47" t="n">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AT47" t="n">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AU47" t="n">
         <v>1.08</v>
@@ -11253,7 +11253,7 @@
         <v>0</v>
       </c>
       <c r="AS53" t="n">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AT53" t="n">
         <v>0.38</v>
@@ -11662,7 +11662,7 @@
         <v>2.75</v>
       </c>
       <c r="AT55" t="n">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AU55" t="n">
         <v>1.81</v>
@@ -12068,7 +12068,7 @@
         <v>1.5</v>
       </c>
       <c r="AT57" t="n">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AU57" t="n">
         <v>1.68</v>
@@ -12268,7 +12268,7 @@
         <v>1</v>
       </c>
       <c r="AS58" t="n">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AT58" t="n">
         <v>0.75</v>
@@ -13283,7 +13283,7 @@
         <v>1.25</v>
       </c>
       <c r="AS63" t="n">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AT63" t="n">
         <v>0.88</v>
@@ -14098,7 +14098,7 @@
         <v>1.88</v>
       </c>
       <c r="AT67" t="n">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AU67" t="n">
         <v>1.59</v>
@@ -14501,7 +14501,7 @@
         <v>1.6</v>
       </c>
       <c r="AS69" t="n">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AT69" t="n">
         <v>1.57</v>
@@ -15316,7 +15316,7 @@
         <v>0.71</v>
       </c>
       <c r="AT73" t="n">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AU73" t="n">
         <v>1.41</v>
@@ -16128,7 +16128,7 @@
         <v>1.13</v>
       </c>
       <c r="AT77" t="n">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AU77" t="n">
         <v>1.33</v>
@@ -16734,7 +16734,7 @@
         <v>1.17</v>
       </c>
       <c r="AS80" t="n">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AT80" t="n">
         <v>0.88</v>
@@ -17346,7 +17346,7 @@
         <v>1</v>
       </c>
       <c r="AT83" t="n">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AU83" t="n">
         <v>1.36</v>
@@ -17546,7 +17546,7 @@
         <v>2.17</v>
       </c>
       <c r="AS84" t="n">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AT84" t="n">
         <v>2.29</v>
@@ -19225,6 +19225,412 @@
       </c>
       <c r="BK92" t="n">
         <v>14</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B93" t="n">
+        <v>4933017</v>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>Paraguay Division Profesional</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E93" s="2" t="n">
+        <v>45052.75</v>
+      </c>
+      <c r="F93" t="n">
+        <v>16</v>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>Sportivo Luqueño</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>Guaraní</t>
+        </is>
+      </c>
+      <c r="I93" t="n">
+        <v>1</v>
+      </c>
+      <c r="J93" t="n">
+        <v>0</v>
+      </c>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="n">
+        <v>3</v>
+      </c>
+      <c r="M93" t="n">
+        <v>0</v>
+      </c>
+      <c r="N93" t="n">
+        <v>3</v>
+      </c>
+      <c r="O93" t="inlineStr">
+        <is>
+          <t>['28', '53', '76']</t>
+        </is>
+      </c>
+      <c r="P93" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q93" t="n">
+        <v>1</v>
+      </c>
+      <c r="R93" t="n">
+        <v>6</v>
+      </c>
+      <c r="S93" t="n">
+        <v>7</v>
+      </c>
+      <c r="T93" t="n">
+        <v>0</v>
+      </c>
+      <c r="U93" t="n">
+        <v>0</v>
+      </c>
+      <c r="V93" t="n">
+        <v>0</v>
+      </c>
+      <c r="W93" t="n">
+        <v>0</v>
+      </c>
+      <c r="X93" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y93" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z93" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA93" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB93" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC93" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AD93" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AE93" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AF93" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG93" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH93" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI93" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ93" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AK93" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AL93" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM93" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN93" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO93" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP93" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ93" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AR93" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AS93" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AT93" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AU93" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AV93" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AW93" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="AX93" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY93" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ93" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA93" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB93" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC93" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD93" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE93" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF93" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG93" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH93" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI93" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ93" t="n">
+        <v>8</v>
+      </c>
+      <c r="BK93" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B94" t="n">
+        <v>4933020</v>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>Paraguay Division Profesional</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E94" s="2" t="n">
+        <v>45052.85416666666</v>
+      </c>
+      <c r="F94" t="n">
+        <v>16</v>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>Sportivo Trinidense</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>General Caballero JLM</t>
+        </is>
+      </c>
+      <c r="I94" t="n">
+        <v>1</v>
+      </c>
+      <c r="J94" t="n">
+        <v>0</v>
+      </c>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="n">
+        <v>2</v>
+      </c>
+      <c r="M94" t="n">
+        <v>0</v>
+      </c>
+      <c r="N94" t="n">
+        <v>2</v>
+      </c>
+      <c r="O94" t="inlineStr">
+        <is>
+          <t>['13', '90']</t>
+        </is>
+      </c>
+      <c r="P94" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q94" t="n">
+        <v>5</v>
+      </c>
+      <c r="R94" t="n">
+        <v>7</v>
+      </c>
+      <c r="S94" t="n">
+        <v>12</v>
+      </c>
+      <c r="T94" t="n">
+        <v>0</v>
+      </c>
+      <c r="U94" t="n">
+        <v>0</v>
+      </c>
+      <c r="V94" t="n">
+        <v>0</v>
+      </c>
+      <c r="W94" t="n">
+        <v>0</v>
+      </c>
+      <c r="X94" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y94" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z94" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA94" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB94" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC94" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AD94" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AE94" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="AF94" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG94" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH94" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI94" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ94" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AK94" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AL94" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM94" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN94" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO94" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP94" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ94" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AR94" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="AS94" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AT94" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AU94" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AV94" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AW94" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AX94" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY94" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ94" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA94" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB94" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC94" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD94" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE94" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF94" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG94" t="n">
+        <v>9</v>
+      </c>
+      <c r="BH94" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI94" t="n">
+        <v>9</v>
+      </c>
+      <c r="BJ94" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK94" t="n">
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Paraguay Division Profesional_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Paraguay Division Profesional_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK94"/>
+  <dimension ref="A1:BK97"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="AS4" t="n">
-        <v>0.29</v>
+        <v>0.63</v>
       </c>
       <c r="AT4" t="n">
         <v>1.75</v>
@@ -2118,7 +2118,7 @@
         <v>0</v>
       </c>
       <c r="AS8" t="n">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AT8" t="n">
         <v>0.88</v>
@@ -2527,7 +2527,7 @@
         <v>1.75</v>
       </c>
       <c r="AT10" t="n">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AU10" t="n">
         <v>1.03</v>
@@ -2727,10 +2727,10 @@
         <v>0</v>
       </c>
       <c r="AS11" t="n">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AT11" t="n">
-        <v>2.29</v>
+        <v>2</v>
       </c>
       <c r="AU11" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="AS17" t="n">
-        <v>0.29</v>
+        <v>0.63</v>
       </c>
       <c r="AT17" t="n">
         <v>1.38</v>
@@ -4351,7 +4351,7 @@
         <v>0.5</v>
       </c>
       <c r="AS19" t="n">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AT19" t="n">
         <v>1.5</v>
@@ -4554,10 +4554,10 @@
         <v>3</v>
       </c>
       <c r="AS20" t="n">
-        <v>0.29</v>
+        <v>0.63</v>
       </c>
       <c r="AT20" t="n">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AU20" t="n">
         <v>0.8</v>
@@ -4760,7 +4760,7 @@
         <v>1.75</v>
       </c>
       <c r="AT21" t="n">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AU21" t="n">
         <v>1.16</v>
@@ -4963,7 +4963,7 @@
         <v>1</v>
       </c>
       <c r="AT22" t="n">
-        <v>2.29</v>
+        <v>2</v>
       </c>
       <c r="AU22" t="n">
         <v>0</v>
@@ -5163,7 +5163,7 @@
         <v>1</v>
       </c>
       <c r="AS23" t="n">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AT23" t="n">
         <v>0.5</v>
@@ -6787,7 +6787,7 @@
         <v>1</v>
       </c>
       <c r="AS31" t="n">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AT31" t="n">
         <v>1.63</v>
@@ -6990,7 +6990,7 @@
         <v>1</v>
       </c>
       <c r="AS32" t="n">
-        <v>0.29</v>
+        <v>0.63</v>
       </c>
       <c r="AT32" t="n">
         <v>0.5</v>
@@ -7399,7 +7399,7 @@
         <v>1.5</v>
       </c>
       <c r="AT34" t="n">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AU34" t="n">
         <v>1.92</v>
@@ -7805,7 +7805,7 @@
         <v>1.75</v>
       </c>
       <c r="AT36" t="n">
-        <v>2.29</v>
+        <v>2</v>
       </c>
       <c r="AU36" t="n">
         <v>1.14</v>
@@ -8008,7 +8008,7 @@
         <v>1</v>
       </c>
       <c r="AT37" t="n">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AU37" t="n">
         <v>1.18</v>
@@ -8414,7 +8414,7 @@
         <v>1.13</v>
       </c>
       <c r="AT39" t="n">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AU39" t="n">
         <v>1.14</v>
@@ -8614,7 +8614,7 @@
         <v>2.33</v>
       </c>
       <c r="AS40" t="n">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AT40" t="n">
         <v>1.75</v>
@@ -9426,7 +9426,7 @@
         <v>1.5</v>
       </c>
       <c r="AS44" t="n">
-        <v>0.29</v>
+        <v>0.63</v>
       </c>
       <c r="AT44" t="n">
         <v>1.63</v>
@@ -9835,7 +9835,7 @@
         <v>1.5</v>
       </c>
       <c r="AT46" t="n">
-        <v>2.29</v>
+        <v>2</v>
       </c>
       <c r="AU46" t="n">
         <v>1.81</v>
@@ -10241,7 +10241,7 @@
         <v>1.13</v>
       </c>
       <c r="AT48" t="n">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AU48" t="n">
         <v>1.06</v>
@@ -10441,7 +10441,7 @@
         <v>1</v>
       </c>
       <c r="AS49" t="n">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AT49" t="n">
         <v>0.88</v>
@@ -10850,7 +10850,7 @@
         <v>1.13</v>
       </c>
       <c r="AT51" t="n">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AU51" t="n">
         <v>1.46</v>
@@ -11456,7 +11456,7 @@
         <v>1.33</v>
       </c>
       <c r="AS54" t="n">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AT54" t="n">
         <v>1.38</v>
@@ -11862,7 +11862,7 @@
         <v>2</v>
       </c>
       <c r="AS56" t="n">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AT56" t="n">
         <v>1.75</v>
@@ -12471,7 +12471,7 @@
         <v>0.8</v>
       </c>
       <c r="AS59" t="n">
-        <v>0.29</v>
+        <v>0.63</v>
       </c>
       <c r="AT59" t="n">
         <v>0.88</v>
@@ -12677,7 +12677,7 @@
         <v>2.75</v>
       </c>
       <c r="AT60" t="n">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AU60" t="n">
         <v>1.98</v>
@@ -13486,10 +13486,10 @@
         <v>1.25</v>
       </c>
       <c r="AS64" t="n">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AT64" t="n">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AU64" t="n">
         <v>1.5</v>
@@ -13895,7 +13895,7 @@
         <v>1.13</v>
       </c>
       <c r="AT66" t="n">
-        <v>2.29</v>
+        <v>2</v>
       </c>
       <c r="AU66" t="n">
         <v>1.37</v>
@@ -14504,7 +14504,7 @@
         <v>1.88</v>
       </c>
       <c r="AT69" t="n">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AU69" t="n">
         <v>1.46</v>
@@ -14704,7 +14704,7 @@
         <v>1.4</v>
       </c>
       <c r="AS70" t="n">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AT70" t="n">
         <v>1.38</v>
@@ -14910,7 +14910,7 @@
         <v>1.13</v>
       </c>
       <c r="AT71" t="n">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AU71" t="n">
         <v>1.27</v>
@@ -15113,7 +15113,7 @@
         <v>1.88</v>
       </c>
       <c r="AT72" t="n">
-        <v>2.29</v>
+        <v>2</v>
       </c>
       <c r="AU72" t="n">
         <v>1.46</v>
@@ -15313,7 +15313,7 @@
         <v>0.6</v>
       </c>
       <c r="AS73" t="n">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AT73" t="n">
         <v>0.5</v>
@@ -15516,7 +15516,7 @@
         <v>0</v>
       </c>
       <c r="AS74" t="n">
-        <v>0.29</v>
+        <v>0.63</v>
       </c>
       <c r="AT74" t="n">
         <v>0.38</v>
@@ -16937,7 +16937,7 @@
         <v>2</v>
       </c>
       <c r="AS81" t="n">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AT81" t="n">
         <v>1.63</v>
@@ -17140,10 +17140,10 @@
         <v>1.33</v>
       </c>
       <c r="AS82" t="n">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AT82" t="n">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AU82" t="n">
         <v>1.26</v>
@@ -17549,7 +17549,7 @@
         <v>1.88</v>
       </c>
       <c r="AT84" t="n">
-        <v>2.29</v>
+        <v>2</v>
       </c>
       <c r="AU84" t="n">
         <v>1.4</v>
@@ -17752,7 +17752,7 @@
         <v>1.88</v>
       </c>
       <c r="AT85" t="n">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AU85" t="n">
         <v>1.37</v>
@@ -19289,13 +19289,13 @@
         </is>
       </c>
       <c r="Q93" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R93" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="S93" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="T93" t="n">
         <v>0</v>
@@ -19418,16 +19418,16 @@
         <v>4</v>
       </c>
       <c r="BH93" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="BI93" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="BJ93" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK93" t="n">
         <v>8</v>
-      </c>
-      <c r="BK93" t="n">
-        <v>5</v>
       </c>
     </row>
     <row r="94">
@@ -19631,6 +19631,615 @@
       </c>
       <c r="BK94" t="n">
         <v>18</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B95" t="n">
+        <v>4933016</v>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>Paraguay Division Profesional</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E95" s="2" t="n">
+        <v>45053.75</v>
+      </c>
+      <c r="F95" t="n">
+        <v>16</v>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>Resistencia</t>
+        </is>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>Cerro Porteño</t>
+        </is>
+      </c>
+      <c r="I95" t="n">
+        <v>1</v>
+      </c>
+      <c r="J95" t="n">
+        <v>2</v>
+      </c>
+      <c r="K95" t="n">
+        <v>3</v>
+      </c>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="n">
+        <v>2</v>
+      </c>
+      <c r="N95" t="n">
+        <v>3</v>
+      </c>
+      <c r="O95" t="inlineStr">
+        <is>
+          <t>['37']</t>
+        </is>
+      </c>
+      <c r="P95" t="inlineStr">
+        <is>
+          <t>['32', '44']</t>
+        </is>
+      </c>
+      <c r="Q95" t="n">
+        <v>7</v>
+      </c>
+      <c r="R95" t="n">
+        <v>5</v>
+      </c>
+      <c r="S95" t="n">
+        <v>12</v>
+      </c>
+      <c r="T95" t="n">
+        <v>0</v>
+      </c>
+      <c r="U95" t="n">
+        <v>0</v>
+      </c>
+      <c r="V95" t="n">
+        <v>0</v>
+      </c>
+      <c r="W95" t="n">
+        <v>0</v>
+      </c>
+      <c r="X95" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y95" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z95" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA95" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB95" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC95" t="n">
+        <v>6</v>
+      </c>
+      <c r="AD95" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AE95" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AF95" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG95" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH95" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI95" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ95" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AK95" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL95" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM95" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN95" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO95" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP95" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ95" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="AR95" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="AS95" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="AT95" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AU95" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AV95" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AW95" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="AX95" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY95" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ95" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA95" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB95" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC95" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD95" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE95" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF95" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG95" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH95" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI95" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ95" t="n">
+        <v>7</v>
+      </c>
+      <c r="BK95" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B96" t="n">
+        <v>4933021</v>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>Paraguay Division Profesional</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E96" s="2" t="n">
+        <v>45053.85416666666</v>
+      </c>
+      <c r="F96" t="n">
+        <v>16</v>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>Guaireña</t>
+        </is>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>Olimpia</t>
+        </is>
+      </c>
+      <c r="I96" t="n">
+        <v>1</v>
+      </c>
+      <c r="J96" t="n">
+        <v>0</v>
+      </c>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="n">
+        <v>0</v>
+      </c>
+      <c r="N96" t="n">
+        <v>1</v>
+      </c>
+      <c r="O96" t="inlineStr">
+        <is>
+          <t>['16']</t>
+        </is>
+      </c>
+      <c r="P96" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q96" t="n">
+        <v>2</v>
+      </c>
+      <c r="R96" t="n">
+        <v>7</v>
+      </c>
+      <c r="S96" t="n">
+        <v>9</v>
+      </c>
+      <c r="T96" t="n">
+        <v>0</v>
+      </c>
+      <c r="U96" t="n">
+        <v>0</v>
+      </c>
+      <c r="V96" t="n">
+        <v>0</v>
+      </c>
+      <c r="W96" t="n">
+        <v>0</v>
+      </c>
+      <c r="X96" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y96" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z96" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA96" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB96" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC96" t="n">
+        <v>5</v>
+      </c>
+      <c r="AD96" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AE96" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AF96" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG96" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH96" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI96" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ96" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AK96" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AL96" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM96" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN96" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO96" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP96" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ96" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="AR96" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AS96" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="AT96" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AU96" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AV96" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AW96" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="AX96" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY96" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ96" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA96" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB96" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC96" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD96" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE96" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF96" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG96" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH96" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI96" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ96" t="n">
+        <v>7</v>
+      </c>
+      <c r="BK96" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B97" t="n">
+        <v>4933019</v>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>Paraguay Division Profesional</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E97" s="2" t="n">
+        <v>45054.83333333334</v>
+      </c>
+      <c r="F97" t="n">
+        <v>16</v>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>Tacuary</t>
+        </is>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>Libertad</t>
+        </is>
+      </c>
+      <c r="I97" t="n">
+        <v>1</v>
+      </c>
+      <c r="J97" t="n">
+        <v>0</v>
+      </c>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="n">
+        <v>3</v>
+      </c>
+      <c r="M97" t="n">
+        <v>0</v>
+      </c>
+      <c r="N97" t="n">
+        <v>3</v>
+      </c>
+      <c r="O97" t="inlineStr">
+        <is>
+          <t>['45+3', '51', '65']</t>
+        </is>
+      </c>
+      <c r="P97" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q97" t="n">
+        <v>8</v>
+      </c>
+      <c r="R97" t="n">
+        <v>9</v>
+      </c>
+      <c r="S97" t="n">
+        <v>17</v>
+      </c>
+      <c r="T97" t="n">
+        <v>0</v>
+      </c>
+      <c r="U97" t="n">
+        <v>0</v>
+      </c>
+      <c r="V97" t="n">
+        <v>0</v>
+      </c>
+      <c r="W97" t="n">
+        <v>0</v>
+      </c>
+      <c r="X97" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y97" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z97" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA97" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB97" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC97" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="AD97" t="n">
+        <v>5</v>
+      </c>
+      <c r="AE97" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AF97" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG97" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH97" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI97" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ97" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AK97" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AL97" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM97" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN97" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO97" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP97" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ97" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="AR97" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="AS97" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT97" t="n">
+        <v>2</v>
+      </c>
+      <c r="AU97" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AV97" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AW97" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="AX97" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY97" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ97" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA97" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB97" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC97" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD97" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE97" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF97" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG97" t="n">
+        <v>8</v>
+      </c>
+      <c r="BH97" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI97" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ97" t="n">
+        <v>6</v>
+      </c>
+      <c r="BK97" t="n">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Paraguay Division Profesional_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Paraguay Division Profesional_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK97"/>
+  <dimension ref="A1:BK100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -900,7 +900,7 @@
         <v>0</v>
       </c>
       <c r="AS2" t="n">
-        <v>2.75</v>
+        <v>2.78</v>
       </c>
       <c r="AT2" t="n">
         <v>1.5</v>
@@ -1106,7 +1106,7 @@
         <v>1.75</v>
       </c>
       <c r="AT3" t="n">
-        <v>0.38</v>
+        <v>0.33</v>
       </c>
       <c r="AU3" t="n">
         <v>0</v>
@@ -1509,7 +1509,7 @@
         <v>0</v>
       </c>
       <c r="AS5" t="n">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AT5" t="n">
         <v>0.88</v>
@@ -2121,7 +2121,7 @@
         <v>1</v>
       </c>
       <c r="AT8" t="n">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AU8" t="n">
         <v>0</v>
@@ -3133,7 +3133,7 @@
         <v>0</v>
       </c>
       <c r="AS13" t="n">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AT13" t="n">
         <v>0.88</v>
@@ -3336,7 +3336,7 @@
         <v>0</v>
       </c>
       <c r="AS14" t="n">
-        <v>2.75</v>
+        <v>2.78</v>
       </c>
       <c r="AT14" t="n">
         <v>0.75</v>
@@ -3539,7 +3539,7 @@
         <v>3</v>
       </c>
       <c r="AS15" t="n">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AT15" t="n">
         <v>1.75</v>
@@ -3948,7 +3948,7 @@
         <v>0.63</v>
       </c>
       <c r="AT17" t="n">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AU17" t="n">
         <v>0.9</v>
@@ -4151,7 +4151,7 @@
         <v>1.5</v>
       </c>
       <c r="AT18" t="n">
-        <v>0.38</v>
+        <v>0.33</v>
       </c>
       <c r="AU18" t="n">
         <v>1.41</v>
@@ -5569,7 +5569,7 @@
         <v>3</v>
       </c>
       <c r="AS25" t="n">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AT25" t="n">
         <v>1.75</v>
@@ -6178,10 +6178,10 @@
         <v>0</v>
       </c>
       <c r="AS28" t="n">
-        <v>2.75</v>
+        <v>2.78</v>
       </c>
       <c r="AT28" t="n">
-        <v>0.38</v>
+        <v>0.33</v>
       </c>
       <c r="AU28" t="n">
         <v>1.25</v>
@@ -6381,10 +6381,10 @@
         <v>1</v>
       </c>
       <c r="AS29" t="n">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AT29" t="n">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AU29" t="n">
         <v>1.02</v>
@@ -6587,7 +6587,7 @@
         <v>1.5</v>
       </c>
       <c r="AT30" t="n">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AU30" t="n">
         <v>1.8</v>
@@ -8208,10 +8208,10 @@
         <v>2</v>
       </c>
       <c r="AS38" t="n">
-        <v>2.75</v>
+        <v>2.78</v>
       </c>
       <c r="AT38" t="n">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AU38" t="n">
         <v>1.61</v>
@@ -8411,7 +8411,7 @@
         <v>0.5</v>
       </c>
       <c r="AS39" t="n">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AT39" t="n">
         <v>1.38</v>
@@ -8817,10 +8817,10 @@
         <v>2</v>
       </c>
       <c r="AS41" t="n">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AT41" t="n">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AU41" t="n">
         <v>1.4</v>
@@ -9226,7 +9226,7 @@
         <v>1.88</v>
       </c>
       <c r="AT43" t="n">
-        <v>0.38</v>
+        <v>0.33</v>
       </c>
       <c r="AU43" t="n">
         <v>1.73</v>
@@ -10238,7 +10238,7 @@
         <v>2.33</v>
       </c>
       <c r="AS48" t="n">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AT48" t="n">
         <v>2.38</v>
@@ -10647,7 +10647,7 @@
         <v>1.88</v>
       </c>
       <c r="AT50" t="n">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AU50" t="n">
         <v>1.54</v>
@@ -10847,7 +10847,7 @@
         <v>1.33</v>
       </c>
       <c r="AS51" t="n">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AT51" t="n">
         <v>1.38</v>
@@ -11256,7 +11256,7 @@
         <v>1.88</v>
       </c>
       <c r="AT53" t="n">
-        <v>0.38</v>
+        <v>0.33</v>
       </c>
       <c r="AU53" t="n">
         <v>1.25</v>
@@ -11459,7 +11459,7 @@
         <v>0.63</v>
       </c>
       <c r="AT54" t="n">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AU54" t="n">
         <v>1.51</v>
@@ -11659,7 +11659,7 @@
         <v>1</v>
       </c>
       <c r="AS55" t="n">
-        <v>2.75</v>
+        <v>2.78</v>
       </c>
       <c r="AT55" t="n">
         <v>0.5</v>
@@ -12674,7 +12674,7 @@
         <v>2.5</v>
       </c>
       <c r="AS60" t="n">
-        <v>2.75</v>
+        <v>2.78</v>
       </c>
       <c r="AT60" t="n">
         <v>2.38</v>
@@ -12877,7 +12877,7 @@
         <v>1.8</v>
       </c>
       <c r="AS61" t="n">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AT61" t="n">
         <v>1.63</v>
@@ -13083,7 +13083,7 @@
         <v>1</v>
       </c>
       <c r="AT62" t="n">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AU62" t="n">
         <v>1.09</v>
@@ -13286,7 +13286,7 @@
         <v>1.88</v>
       </c>
       <c r="AT63" t="n">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AU63" t="n">
         <v>1.27</v>
@@ -13692,7 +13692,7 @@
         <v>2</v>
       </c>
       <c r="AT65" t="n">
-        <v>0.38</v>
+        <v>0.33</v>
       </c>
       <c r="AU65" t="n">
         <v>1.36</v>
@@ -13892,7 +13892,7 @@
         <v>2.25</v>
       </c>
       <c r="AS66" t="n">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AT66" t="n">
         <v>2</v>
@@ -14301,7 +14301,7 @@
         <v>1</v>
       </c>
       <c r="AT68" t="n">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AU68" t="n">
         <v>1.26</v>
@@ -14707,7 +14707,7 @@
         <v>1</v>
       </c>
       <c r="AT70" t="n">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AU70" t="n">
         <v>1.31</v>
@@ -14907,7 +14907,7 @@
         <v>2</v>
       </c>
       <c r="AS71" t="n">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AT71" t="n">
         <v>2.38</v>
@@ -15519,7 +15519,7 @@
         <v>0.63</v>
       </c>
       <c r="AT74" t="n">
-        <v>0.38</v>
+        <v>0.33</v>
       </c>
       <c r="AU74" t="n">
         <v>1.09</v>
@@ -15925,7 +15925,7 @@
         <v>2</v>
       </c>
       <c r="AT76" t="n">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AU76" t="n">
         <v>1.48</v>
@@ -16125,7 +16125,7 @@
         <v>1.83</v>
       </c>
       <c r="AS77" t="n">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AT77" t="n">
         <v>1.5</v>
@@ -16328,7 +16328,7 @@
         <v>1.17</v>
       </c>
       <c r="AS78" t="n">
-        <v>2.75</v>
+        <v>2.78</v>
       </c>
       <c r="AT78" t="n">
         <v>0.88</v>
@@ -16531,7 +16531,7 @@
         <v>1</v>
       </c>
       <c r="AS79" t="n">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AT79" t="n">
         <v>0.75</v>
@@ -16737,7 +16737,7 @@
         <v>1.75</v>
       </c>
       <c r="AT80" t="n">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AU80" t="n">
         <v>1.21</v>
@@ -17952,10 +17952,10 @@
         <v>0.43</v>
       </c>
       <c r="AS86" t="n">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AT86" t="n">
-        <v>0.38</v>
+        <v>0.33</v>
       </c>
       <c r="AU86" t="n">
         <v>1.08</v>
@@ -18158,7 +18158,7 @@
         <v>1.5</v>
       </c>
       <c r="AT87" t="n">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AU87" t="n">
         <v>1.68</v>
@@ -18361,7 +18361,7 @@
         <v>2</v>
       </c>
       <c r="AT88" t="n">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AU88" t="n">
         <v>1.41</v>
@@ -18764,7 +18764,7 @@
         <v>2</v>
       </c>
       <c r="AS90" t="n">
-        <v>2.75</v>
+        <v>2.78</v>
       </c>
       <c r="AT90" t="n">
         <v>1.75</v>
@@ -18967,7 +18967,7 @@
         <v>0.86</v>
       </c>
       <c r="AS91" t="n">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AT91" t="n">
         <v>0.75</v>
@@ -20240,6 +20240,615 @@
       </c>
       <c r="BK97" t="n">
         <v>14</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B98" t="n">
+        <v>4933023</v>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>Paraguay Division Profesional</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E98" s="2" t="n">
+        <v>45057.83333333334</v>
+      </c>
+      <c r="F98" t="n">
+        <v>17</v>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>General Caballero JLM</t>
+        </is>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>Guaireña</t>
+        </is>
+      </c>
+      <c r="I98" t="n">
+        <v>0</v>
+      </c>
+      <c r="J98" t="n">
+        <v>0</v>
+      </c>
+      <c r="K98" t="n">
+        <v>0</v>
+      </c>
+      <c r="L98" t="n">
+        <v>3</v>
+      </c>
+      <c r="M98" t="n">
+        <v>0</v>
+      </c>
+      <c r="N98" t="n">
+        <v>3</v>
+      </c>
+      <c r="O98" t="inlineStr">
+        <is>
+          <t>['54', '71', '90+2']</t>
+        </is>
+      </c>
+      <c r="P98" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q98" t="n">
+        <v>5</v>
+      </c>
+      <c r="R98" t="n">
+        <v>5</v>
+      </c>
+      <c r="S98" t="n">
+        <v>10</v>
+      </c>
+      <c r="T98" t="n">
+        <v>0</v>
+      </c>
+      <c r="U98" t="n">
+        <v>0</v>
+      </c>
+      <c r="V98" t="n">
+        <v>0</v>
+      </c>
+      <c r="W98" t="n">
+        <v>0</v>
+      </c>
+      <c r="X98" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y98" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z98" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA98" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB98" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC98" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AD98" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AE98" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AF98" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG98" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH98" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI98" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ98" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="AK98" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AL98" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM98" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN98" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO98" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP98" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ98" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AR98" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="AS98" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AT98" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="AU98" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AV98" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AW98" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="AX98" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY98" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ98" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA98" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB98" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC98" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD98" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE98" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF98" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG98" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH98" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI98" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ98" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK98" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B99" t="n">
+        <v>4933025</v>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>Paraguay Division Profesional</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E99" s="2" t="n">
+        <v>45058.77083333334</v>
+      </c>
+      <c r="F99" t="n">
+        <v>17</v>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>Sportivo Ameliano</t>
+        </is>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>Tacuary</t>
+        </is>
+      </c>
+      <c r="I99" t="n">
+        <v>1</v>
+      </c>
+      <c r="J99" t="n">
+        <v>0</v>
+      </c>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="n">
+        <v>2</v>
+      </c>
+      <c r="M99" t="n">
+        <v>1</v>
+      </c>
+      <c r="N99" t="n">
+        <v>3</v>
+      </c>
+      <c r="O99" t="inlineStr">
+        <is>
+          <t>['1', '70']</t>
+        </is>
+      </c>
+      <c r="P99" t="inlineStr">
+        <is>
+          <t>['78']</t>
+        </is>
+      </c>
+      <c r="Q99" t="n">
+        <v>1</v>
+      </c>
+      <c r="R99" t="n">
+        <v>2</v>
+      </c>
+      <c r="S99" t="n">
+        <v>3</v>
+      </c>
+      <c r="T99" t="n">
+        <v>0</v>
+      </c>
+      <c r="U99" t="n">
+        <v>0</v>
+      </c>
+      <c r="V99" t="n">
+        <v>0</v>
+      </c>
+      <c r="W99" t="n">
+        <v>0</v>
+      </c>
+      <c r="X99" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y99" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z99" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA99" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB99" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC99" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AD99" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="AE99" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="AF99" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG99" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH99" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI99" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ99" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AK99" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AL99" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM99" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN99" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO99" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP99" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ99" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AR99" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="AS99" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AT99" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AU99" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AV99" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AW99" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="AX99" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY99" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ99" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA99" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB99" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC99" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD99" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE99" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF99" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG99" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH99" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI99" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ99" t="n">
+        <v>6</v>
+      </c>
+      <c r="BK99" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B100" t="n">
+        <v>4933024</v>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>Paraguay Division Profesional</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E100" s="2" t="n">
+        <v>45058.875</v>
+      </c>
+      <c r="F100" t="n">
+        <v>17</v>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>Libertad</t>
+        </is>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>Sportivo Trinidense</t>
+        </is>
+      </c>
+      <c r="I100" t="n">
+        <v>1</v>
+      </c>
+      <c r="J100" t="n">
+        <v>0</v>
+      </c>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="n">
+        <v>2</v>
+      </c>
+      <c r="M100" t="n">
+        <v>1</v>
+      </c>
+      <c r="N100" t="n">
+        <v>3</v>
+      </c>
+      <c r="O100" t="inlineStr">
+        <is>
+          <t>['33', '57']</t>
+        </is>
+      </c>
+      <c r="P100" t="inlineStr">
+        <is>
+          <t>['69']</t>
+        </is>
+      </c>
+      <c r="Q100" t="n">
+        <v>0</v>
+      </c>
+      <c r="R100" t="n">
+        <v>3</v>
+      </c>
+      <c r="S100" t="n">
+        <v>3</v>
+      </c>
+      <c r="T100" t="n">
+        <v>0</v>
+      </c>
+      <c r="U100" t="n">
+        <v>0</v>
+      </c>
+      <c r="V100" t="n">
+        <v>0</v>
+      </c>
+      <c r="W100" t="n">
+        <v>0</v>
+      </c>
+      <c r="X100" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y100" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z100" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA100" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB100" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC100" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AD100" t="n">
+        <v>4.16</v>
+      </c>
+      <c r="AE100" t="n">
+        <v>6.38</v>
+      </c>
+      <c r="AF100" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG100" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH100" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI100" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ100" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AK100" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AL100" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM100" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN100" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO100" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP100" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ100" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AR100" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AS100" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="AT100" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AU100" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AV100" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AW100" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="AX100" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY100" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ100" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA100" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB100" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC100" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD100" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE100" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF100" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG100" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH100" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI100" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ100" t="n">
+        <v>5</v>
+      </c>
+      <c r="BK100" t="n">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Paraguay Division Profesional_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Paraguay Division Profesional_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK100"/>
+  <dimension ref="A1:BK103"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1309,7 +1309,7 @@
         <v>0.63</v>
       </c>
       <c r="AT4" t="n">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AU4" t="n">
         <v>0</v>
@@ -1712,7 +1712,7 @@
         <v>0</v>
       </c>
       <c r="AS6" t="n">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AT6" t="n">
         <v>1.63</v>
@@ -1918,7 +1918,7 @@
         <v>1.5</v>
       </c>
       <c r="AT7" t="n">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AU7" t="n">
         <v>0</v>
@@ -2321,7 +2321,7 @@
         <v>1</v>
       </c>
       <c r="AS9" t="n">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AT9" t="n">
         <v>1.63</v>
@@ -2727,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="AS11" t="n">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="AT11" t="n">
         <v>2</v>
@@ -3339,7 +3339,7 @@
         <v>2.78</v>
       </c>
       <c r="AT14" t="n">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AU14" t="n">
         <v>0</v>
@@ -3542,7 +3542,7 @@
         <v>1.33</v>
       </c>
       <c r="AT15" t="n">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AU15" t="n">
         <v>0.85</v>
@@ -3742,7 +3742,7 @@
         <v>0</v>
       </c>
       <c r="AS16" t="n">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AT16" t="n">
         <v>1.5</v>
@@ -4351,7 +4351,7 @@
         <v>0.5</v>
       </c>
       <c r="AS19" t="n">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="AT19" t="n">
         <v>1.5</v>
@@ -4760,7 +4760,7 @@
         <v>1.75</v>
       </c>
       <c r="AT21" t="n">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AU21" t="n">
         <v>1.16</v>
@@ -5572,7 +5572,7 @@
         <v>1.33</v>
       </c>
       <c r="AT25" t="n">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AU25" t="n">
         <v>1.49</v>
@@ -5772,7 +5772,7 @@
         <v>1.5</v>
       </c>
       <c r="AS26" t="n">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AT26" t="n">
         <v>0.88</v>
@@ -5975,10 +5975,10 @@
         <v>0.5</v>
       </c>
       <c r="AS27" t="n">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AT27" t="n">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AU27" t="n">
         <v>1.22</v>
@@ -8008,7 +8008,7 @@
         <v>1</v>
       </c>
       <c r="AT37" t="n">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AU37" t="n">
         <v>1.18</v>
@@ -8414,7 +8414,7 @@
         <v>1.33</v>
       </c>
       <c r="AT39" t="n">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AU39" t="n">
         <v>1.14</v>
@@ -8614,10 +8614,10 @@
         <v>2.33</v>
       </c>
       <c r="AS40" t="n">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="AT40" t="n">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AU40" t="n">
         <v>1.31</v>
@@ -9020,10 +9020,10 @@
         <v>0.33</v>
       </c>
       <c r="AS42" t="n">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AT42" t="n">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AU42" t="n">
         <v>1.51</v>
@@ -9223,7 +9223,7 @@
         <v>0</v>
       </c>
       <c r="AS43" t="n">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AT43" t="n">
         <v>0.33</v>
@@ -9632,7 +9632,7 @@
         <v>1</v>
       </c>
       <c r="AT45" t="n">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AU45" t="n">
         <v>1.06</v>
@@ -10644,7 +10644,7 @@
         <v>1.33</v>
       </c>
       <c r="AS50" t="n">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AT50" t="n">
         <v>0.78</v>
@@ -10850,7 +10850,7 @@
         <v>1.33</v>
       </c>
       <c r="AT51" t="n">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AU51" t="n">
         <v>1.46</v>
@@ -11050,10 +11050,10 @@
         <v>2.5</v>
       </c>
       <c r="AS52" t="n">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AT52" t="n">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AU52" t="n">
         <v>1.35</v>
@@ -11456,7 +11456,7 @@
         <v>1.33</v>
       </c>
       <c r="AS54" t="n">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="AT54" t="n">
         <v>1.22</v>
@@ -11865,7 +11865,7 @@
         <v>1</v>
       </c>
       <c r="AT56" t="n">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AU56" t="n">
         <v>1.36</v>
@@ -12271,7 +12271,7 @@
         <v>1.75</v>
       </c>
       <c r="AT58" t="n">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AU58" t="n">
         <v>1.24</v>
@@ -13486,10 +13486,10 @@
         <v>1.25</v>
       </c>
       <c r="AS64" t="n">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="AT64" t="n">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AU64" t="n">
         <v>1.5</v>
@@ -13689,7 +13689,7 @@
         <v>0</v>
       </c>
       <c r="AS65" t="n">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AT65" t="n">
         <v>0.33</v>
@@ -14095,7 +14095,7 @@
         <v>0.75</v>
       </c>
       <c r="AS67" t="n">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AT67" t="n">
         <v>0.5</v>
@@ -14504,7 +14504,7 @@
         <v>1.88</v>
       </c>
       <c r="AT69" t="n">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AU69" t="n">
         <v>1.46</v>
@@ -15110,7 +15110,7 @@
         <v>2.4</v>
       </c>
       <c r="AS72" t="n">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AT72" t="n">
         <v>2</v>
@@ -15313,7 +15313,7 @@
         <v>0.6</v>
       </c>
       <c r="AS73" t="n">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="AT73" t="n">
         <v>0.5</v>
@@ -15722,7 +15722,7 @@
         <v>1.5</v>
       </c>
       <c r="AT75" t="n">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AU75" t="n">
         <v>1.66</v>
@@ -15922,7 +15922,7 @@
         <v>1.67</v>
       </c>
       <c r="AS76" t="n">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AT76" t="n">
         <v>1.22</v>
@@ -16534,7 +16534,7 @@
         <v>1.33</v>
       </c>
       <c r="AT79" t="n">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AU79" t="n">
         <v>1.02</v>
@@ -16937,7 +16937,7 @@
         <v>2</v>
       </c>
       <c r="AS81" t="n">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="AT81" t="n">
         <v>1.63</v>
@@ -17143,7 +17143,7 @@
         <v>1</v>
       </c>
       <c r="AT82" t="n">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AU82" t="n">
         <v>1.26</v>
@@ -17749,7 +17749,7 @@
         <v>2.17</v>
       </c>
       <c r="AS85" t="n">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AT85" t="n">
         <v>2.38</v>
@@ -18358,7 +18358,7 @@
         <v>1</v>
       </c>
       <c r="AS88" t="n">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AT88" t="n">
         <v>0.78</v>
@@ -18561,7 +18561,7 @@
         <v>1</v>
       </c>
       <c r="AS89" t="n">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AT89" t="n">
         <v>0.88</v>
@@ -18767,7 +18767,7 @@
         <v>2.78</v>
       </c>
       <c r="AT90" t="n">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AU90" t="n">
         <v>1.83</v>
@@ -18970,7 +18970,7 @@
         <v>1.33</v>
       </c>
       <c r="AT91" t="n">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AU91" t="n">
         <v>1.47</v>
@@ -19779,7 +19779,7 @@
         <v>2.29</v>
       </c>
       <c r="AS95" t="n">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="AT95" t="n">
         <v>2.38</v>
@@ -19985,7 +19985,7 @@
         <v>0.63</v>
       </c>
       <c r="AT96" t="n">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AU96" t="n">
         <v>1.12</v>
@@ -20507,13 +20507,13 @@
         </is>
       </c>
       <c r="Q99" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="R99" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S99" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="T99" t="n">
         <v>0</v>
@@ -20630,22 +20630,22 @@
         <v>0</v>
       </c>
       <c r="BF99" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="BG99" t="n">
         <v>2</v>
       </c>
       <c r="BH99" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI99" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ99" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK99" t="n">
         <v>4</v>
-      </c>
-      <c r="BI99" t="n">
-        <v>1</v>
-      </c>
-      <c r="BJ99" t="n">
-        <v>6</v>
-      </c>
-      <c r="BK99" t="n">
-        <v>3</v>
       </c>
     </row>
     <row r="100">
@@ -20710,13 +20710,13 @@
         </is>
       </c>
       <c r="Q100" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R100" t="n">
         <v>3</v>
       </c>
       <c r="S100" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="T100" t="n">
         <v>0</v>
@@ -20833,22 +20833,631 @@
         <v>0</v>
       </c>
       <c r="BF100" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="BG100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BH100" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="BI100" t="n">
         <v>2</v>
       </c>
       <c r="BJ100" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK100" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B101" t="n">
+        <v>4933022</v>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>Paraguay Division Profesional</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E101" s="2" t="n">
+        <v>45059.75</v>
+      </c>
+      <c r="F101" t="n">
+        <v>17</v>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>Cerro Porteño</t>
+        </is>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>Olimpia</t>
+        </is>
+      </c>
+      <c r="I101" t="n">
+        <v>2</v>
+      </c>
+      <c r="J101" t="n">
+        <v>1</v>
+      </c>
+      <c r="K101" t="n">
+        <v>3</v>
+      </c>
+      <c r="L101" t="n">
+        <v>2</v>
+      </c>
+      <c r="M101" t="n">
+        <v>2</v>
+      </c>
+      <c r="N101" t="n">
+        <v>4</v>
+      </c>
+      <c r="O101" t="inlineStr">
+        <is>
+          <t>['14', '36']</t>
+        </is>
+      </c>
+      <c r="P101" t="inlineStr">
+        <is>
+          <t>['22', '90+4']</t>
+        </is>
+      </c>
+      <c r="Q101" t="n">
+        <v>6</v>
+      </c>
+      <c r="R101" t="n">
+        <v>8</v>
+      </c>
+      <c r="S101" t="n">
+        <v>14</v>
+      </c>
+      <c r="T101" t="n">
+        <v>0</v>
+      </c>
+      <c r="U101" t="n">
+        <v>0</v>
+      </c>
+      <c r="V101" t="n">
+        <v>0</v>
+      </c>
+      <c r="W101" t="n">
+        <v>0</v>
+      </c>
+      <c r="X101" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y101" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z101" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA101" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB101" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC101" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AD101" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AE101" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF101" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG101" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH101" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI101" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ101" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AK101" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AL101" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM101" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN101" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO101" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP101" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ101" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR101" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AS101" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AT101" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AU101" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AV101" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AW101" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="AX101" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY101" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ101" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA101" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB101" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC101" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD101" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE101" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF101" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG101" t="n">
+        <v>9</v>
+      </c>
+      <c r="BH101" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI101" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ101" t="n">
+        <v>6</v>
+      </c>
+      <c r="BK101" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B102" t="n">
+        <v>4933026</v>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>Paraguay Division Profesional</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E102" s="2" t="n">
+        <v>45060.75</v>
+      </c>
+      <c r="F102" t="n">
+        <v>17</v>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>Guaraní</t>
+        </is>
+      </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>Nacional Asunción</t>
+        </is>
+      </c>
+      <c r="I102" t="n">
+        <v>0</v>
+      </c>
+      <c r="J102" t="n">
+        <v>0</v>
+      </c>
+      <c r="K102" t="n">
+        <v>0</v>
+      </c>
+      <c r="L102" t="n">
+        <v>2</v>
+      </c>
+      <c r="M102" t="n">
+        <v>2</v>
+      </c>
+      <c r="N102" t="n">
+        <v>4</v>
+      </c>
+      <c r="O102" t="inlineStr">
+        <is>
+          <t>['71', '84']</t>
+        </is>
+      </c>
+      <c r="P102" t="inlineStr">
+        <is>
+          <t>['67', '79']</t>
+        </is>
+      </c>
+      <c r="Q102" t="n">
+        <v>0</v>
+      </c>
+      <c r="R102" t="n">
+        <v>13</v>
+      </c>
+      <c r="S102" t="n">
+        <v>13</v>
+      </c>
+      <c r="T102" t="n">
+        <v>0</v>
+      </c>
+      <c r="U102" t="n">
+        <v>0</v>
+      </c>
+      <c r="V102" t="n">
+        <v>0</v>
+      </c>
+      <c r="W102" t="n">
+        <v>0</v>
+      </c>
+      <c r="X102" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y102" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z102" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA102" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB102" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC102" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AD102" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE102" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF102" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG102" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH102" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI102" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ102" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AK102" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AL102" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM102" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN102" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO102" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP102" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ102" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AR102" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AS102" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AT102" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AU102" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AV102" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="AW102" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="AX102" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY102" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ102" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA102" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB102" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC102" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD102" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE102" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF102" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG102" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH102" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI102" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ102" t="n">
+        <v>4</v>
+      </c>
+      <c r="BK102" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B103" t="n">
+        <v>4933027</v>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>Paraguay Division Profesional</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E103" s="2" t="n">
+        <v>45060.85416666666</v>
+      </c>
+      <c r="F103" t="n">
+        <v>17</v>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>Resistencia</t>
+        </is>
+      </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>Sportivo Luqueño</t>
+        </is>
+      </c>
+      <c r="I103" t="n">
+        <v>0</v>
+      </c>
+      <c r="J103" t="n">
+        <v>1</v>
+      </c>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="n">
+        <v>1</v>
+      </c>
+      <c r="N103" t="n">
+        <v>2</v>
+      </c>
+      <c r="O103" t="inlineStr">
+        <is>
+          <t>['90+6']</t>
+        </is>
+      </c>
+      <c r="P103" t="inlineStr">
+        <is>
+          <t>['22']</t>
+        </is>
+      </c>
+      <c r="Q103" t="n">
+        <v>8</v>
+      </c>
+      <c r="R103" t="n">
+        <v>4</v>
+      </c>
+      <c r="S103" t="n">
+        <v>12</v>
+      </c>
+      <c r="T103" t="n">
+        <v>0</v>
+      </c>
+      <c r="U103" t="n">
+        <v>0</v>
+      </c>
+      <c r="V103" t="n">
+        <v>0</v>
+      </c>
+      <c r="W103" t="n">
+        <v>0</v>
+      </c>
+      <c r="X103" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y103" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z103" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA103" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB103" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC103" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AD103" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AE103" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AF103" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG103" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH103" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI103" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ103" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AK103" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AL103" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM103" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN103" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO103" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP103" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ103" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="AR103" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AS103" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AT103" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="AU103" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AV103" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AW103" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="AX103" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY103" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ103" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA103" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB103" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC103" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD103" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE103" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF103" t="n">
         <v>5</v>
       </c>
-      <c r="BK100" t="n">
-        <v>2</v>
+      <c r="BG103" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH103" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI103" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ103" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK103" t="n">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Paraguay Division Profesional_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Paraguay Division Profesional_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK103"/>
+  <dimension ref="A1:BK107"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -903,7 +903,7 @@
         <v>2.78</v>
       </c>
       <c r="AT2" t="n">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AU2" t="n">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="AS4" t="n">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AT4" t="n">
         <v>1.67</v>
@@ -1915,7 +1915,7 @@
         <v>0</v>
       </c>
       <c r="AS7" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AT7" t="n">
         <v>0.78</v>
@@ -2118,7 +2118,7 @@
         <v>0</v>
       </c>
       <c r="AS8" t="n">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AT8" t="n">
         <v>0.78</v>
@@ -2527,7 +2527,7 @@
         <v>1.75</v>
       </c>
       <c r="AT10" t="n">
-        <v>2.38</v>
+        <v>2.22</v>
       </c>
       <c r="AU10" t="n">
         <v>1.03</v>
@@ -2730,7 +2730,7 @@
         <v>0.67</v>
       </c>
       <c r="AT11" t="n">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AU11" t="n">
         <v>0</v>
@@ -2930,10 +2930,10 @@
         <v>0</v>
       </c>
       <c r="AS12" t="n">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AT12" t="n">
-        <v>0.5</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU12" t="n">
         <v>0</v>
@@ -3745,7 +3745,7 @@
         <v>1.89</v>
       </c>
       <c r="AT16" t="n">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AU16" t="n">
         <v>1.26</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="AS17" t="n">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AT17" t="n">
         <v>1.22</v>
@@ -4148,7 +4148,7 @@
         <v>0</v>
       </c>
       <c r="AS18" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AT18" t="n">
         <v>0.33</v>
@@ -4354,7 +4354,7 @@
         <v>0.67</v>
       </c>
       <c r="AT19" t="n">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AU19" t="n">
         <v>1.16</v>
@@ -4554,10 +4554,10 @@
         <v>3</v>
       </c>
       <c r="AS20" t="n">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AT20" t="n">
-        <v>2.38</v>
+        <v>2.22</v>
       </c>
       <c r="AU20" t="n">
         <v>0.8</v>
@@ -4963,7 +4963,7 @@
         <v>1</v>
       </c>
       <c r="AT22" t="n">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AU22" t="n">
         <v>0</v>
@@ -5163,10 +5163,10 @@
         <v>1</v>
       </c>
       <c r="AS23" t="n">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AT23" t="n">
-        <v>0.5</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU23" t="n">
         <v>1.25</v>
@@ -5366,7 +5366,7 @@
         <v>1</v>
       </c>
       <c r="AS24" t="n">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AT24" t="n">
         <v>1.63</v>
@@ -6584,7 +6584,7 @@
         <v>3</v>
       </c>
       <c r="AS30" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AT30" t="n">
         <v>0.78</v>
@@ -6787,7 +6787,7 @@
         <v>1</v>
       </c>
       <c r="AS31" t="n">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AT31" t="n">
         <v>1.63</v>
@@ -6990,10 +6990,10 @@
         <v>1</v>
       </c>
       <c r="AS32" t="n">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AT32" t="n">
-        <v>0.5</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU32" t="n">
         <v>0.79</v>
@@ -7196,7 +7196,7 @@
         <v>1</v>
       </c>
       <c r="AT33" t="n">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AU33" t="n">
         <v>0.92</v>
@@ -7396,10 +7396,10 @@
         <v>3</v>
       </c>
       <c r="AS34" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AT34" t="n">
-        <v>2.38</v>
+        <v>2.22</v>
       </c>
       <c r="AU34" t="n">
         <v>1.92</v>
@@ -7599,7 +7599,7 @@
         <v>1.33</v>
       </c>
       <c r="AS35" t="n">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AT35" t="n">
         <v>0.88</v>
@@ -7805,7 +7805,7 @@
         <v>1.75</v>
       </c>
       <c r="AT36" t="n">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AU36" t="n">
         <v>1.14</v>
@@ -9426,7 +9426,7 @@
         <v>1.5</v>
       </c>
       <c r="AS44" t="n">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AT44" t="n">
         <v>1.63</v>
@@ -9832,10 +9832,10 @@
         <v>3</v>
       </c>
       <c r="AS46" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AT46" t="n">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AU46" t="n">
         <v>1.81</v>
@@ -10038,7 +10038,7 @@
         <v>1.75</v>
       </c>
       <c r="AT47" t="n">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AU47" t="n">
         <v>1.08</v>
@@ -10241,7 +10241,7 @@
         <v>1.33</v>
       </c>
       <c r="AT48" t="n">
-        <v>2.38</v>
+        <v>2.22</v>
       </c>
       <c r="AU48" t="n">
         <v>1.06</v>
@@ -10441,7 +10441,7 @@
         <v>1</v>
       </c>
       <c r="AS49" t="n">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AT49" t="n">
         <v>0.88</v>
@@ -11253,7 +11253,7 @@
         <v>0</v>
       </c>
       <c r="AS53" t="n">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AT53" t="n">
         <v>0.33</v>
@@ -11662,7 +11662,7 @@
         <v>2.78</v>
       </c>
       <c r="AT55" t="n">
-        <v>0.5</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU55" t="n">
         <v>1.81</v>
@@ -11862,7 +11862,7 @@
         <v>2</v>
       </c>
       <c r="AS56" t="n">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AT56" t="n">
         <v>1.67</v>
@@ -12065,10 +12065,10 @@
         <v>1.6</v>
       </c>
       <c r="AS57" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AT57" t="n">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AU57" t="n">
         <v>1.68</v>
@@ -12471,7 +12471,7 @@
         <v>0.8</v>
       </c>
       <c r="AS59" t="n">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AT59" t="n">
         <v>0.88</v>
@@ -12677,7 +12677,7 @@
         <v>2.78</v>
       </c>
       <c r="AT60" t="n">
-        <v>2.38</v>
+        <v>2.22</v>
       </c>
       <c r="AU60" t="n">
         <v>1.98</v>
@@ -13283,7 +13283,7 @@
         <v>1.25</v>
       </c>
       <c r="AS63" t="n">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AT63" t="n">
         <v>0.78</v>
@@ -13895,7 +13895,7 @@
         <v>1.33</v>
       </c>
       <c r="AT66" t="n">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AU66" t="n">
         <v>1.37</v>
@@ -14098,7 +14098,7 @@
         <v>1.78</v>
       </c>
       <c r="AT67" t="n">
-        <v>0.5</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU67" t="n">
         <v>1.59</v>
@@ -14501,7 +14501,7 @@
         <v>1.6</v>
       </c>
       <c r="AS69" t="n">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AT69" t="n">
         <v>1.33</v>
@@ -14704,7 +14704,7 @@
         <v>1.4</v>
       </c>
       <c r="AS70" t="n">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AT70" t="n">
         <v>1.22</v>
@@ -14910,7 +14910,7 @@
         <v>1.33</v>
       </c>
       <c r="AT71" t="n">
-        <v>2.38</v>
+        <v>2.22</v>
       </c>
       <c r="AU71" t="n">
         <v>1.27</v>
@@ -15113,7 +15113,7 @@
         <v>1.78</v>
       </c>
       <c r="AT72" t="n">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AU72" t="n">
         <v>1.46</v>
@@ -15316,7 +15316,7 @@
         <v>0.67</v>
       </c>
       <c r="AT73" t="n">
-        <v>0.5</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU73" t="n">
         <v>1.41</v>
@@ -15516,7 +15516,7 @@
         <v>0</v>
       </c>
       <c r="AS74" t="n">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AT74" t="n">
         <v>0.33</v>
@@ -15719,7 +15719,7 @@
         <v>1.83</v>
       </c>
       <c r="AS75" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AT75" t="n">
         <v>1.67</v>
@@ -16128,7 +16128,7 @@
         <v>1.33</v>
       </c>
       <c r="AT77" t="n">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AU77" t="n">
         <v>1.33</v>
@@ -17140,7 +17140,7 @@
         <v>1.33</v>
       </c>
       <c r="AS82" t="n">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AT82" t="n">
         <v>1.33</v>
@@ -17346,7 +17346,7 @@
         <v>1</v>
       </c>
       <c r="AT83" t="n">
-        <v>0.5</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU83" t="n">
         <v>1.36</v>
@@ -17546,10 +17546,10 @@
         <v>2.17</v>
       </c>
       <c r="AS84" t="n">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AT84" t="n">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AU84" t="n">
         <v>1.4</v>
@@ -17752,7 +17752,7 @@
         <v>1.78</v>
       </c>
       <c r="AT85" t="n">
-        <v>2.38</v>
+        <v>2.22</v>
       </c>
       <c r="AU85" t="n">
         <v>1.37</v>
@@ -18155,7 +18155,7 @@
         <v>1.43</v>
       </c>
       <c r="AS87" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AT87" t="n">
         <v>1.22</v>
@@ -19373,10 +19373,10 @@
         <v>1.71</v>
       </c>
       <c r="AS93" t="n">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AT93" t="n">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AU93" t="n">
         <v>1.42</v>
@@ -19579,7 +19579,7 @@
         <v>1.75</v>
       </c>
       <c r="AT94" t="n">
-        <v>0.5</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU94" t="n">
         <v>1.26</v>
@@ -19782,7 +19782,7 @@
         <v>0.67</v>
       </c>
       <c r="AT95" t="n">
-        <v>2.38</v>
+        <v>2.22</v>
       </c>
       <c r="AU95" t="n">
         <v>1.38</v>
@@ -19982,7 +19982,7 @@
         <v>1.57</v>
       </c>
       <c r="AS96" t="n">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AT96" t="n">
         <v>1.33</v>
@@ -20185,10 +20185,10 @@
         <v>2.29</v>
       </c>
       <c r="AS97" t="n">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AT97" t="n">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AU97" t="n">
         <v>1.27</v>
@@ -21458,6 +21458,818 @@
       </c>
       <c r="BK103" t="n">
         <v>12</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B104" t="n">
+        <v>4933032</v>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>Paraguay Division Profesional</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E104" s="2" t="n">
+        <v>45062.79166666666</v>
+      </c>
+      <c r="F104" t="n">
+        <v>18</v>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>Guaireña</t>
+        </is>
+      </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>Libertad</t>
+        </is>
+      </c>
+      <c r="I104" t="n">
+        <v>0</v>
+      </c>
+      <c r="J104" t="n">
+        <v>1</v>
+      </c>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="n">
+        <v>0</v>
+      </c>
+      <c r="M104" t="n">
+        <v>2</v>
+      </c>
+      <c r="N104" t="n">
+        <v>2</v>
+      </c>
+      <c r="O104" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P104" t="inlineStr">
+        <is>
+          <t>['3', '52']</t>
+        </is>
+      </c>
+      <c r="Q104" t="n">
+        <v>1</v>
+      </c>
+      <c r="R104" t="n">
+        <v>5</v>
+      </c>
+      <c r="S104" t="n">
+        <v>6</v>
+      </c>
+      <c r="T104" t="n">
+        <v>0</v>
+      </c>
+      <c r="U104" t="n">
+        <v>0</v>
+      </c>
+      <c r="V104" t="n">
+        <v>0</v>
+      </c>
+      <c r="W104" t="n">
+        <v>0</v>
+      </c>
+      <c r="X104" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y104" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z104" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA104" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB104" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC104" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AD104" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AE104" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AF104" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG104" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH104" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI104" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ104" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AK104" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="AL104" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM104" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN104" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO104" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP104" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ104" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="AR104" t="n">
+        <v>2</v>
+      </c>
+      <c r="AS104" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AT104" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="AU104" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AV104" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AW104" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="AX104" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY104" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ104" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA104" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB104" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC104" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD104" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE104" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF104" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG104" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH104" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI104" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ104" t="n">
+        <v>6</v>
+      </c>
+      <c r="BK104" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B105" t="n">
+        <v>4933033</v>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>Paraguay Division Profesional</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E105" s="2" t="n">
+        <v>45062.89583333334</v>
+      </c>
+      <c r="F105" t="n">
+        <v>18</v>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>Olimpia</t>
+        </is>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>General Caballero JLM</t>
+        </is>
+      </c>
+      <c r="I105" t="n">
+        <v>1</v>
+      </c>
+      <c r="J105" t="n">
+        <v>0</v>
+      </c>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="n">
+        <v>1</v>
+      </c>
+      <c r="N105" t="n">
+        <v>2</v>
+      </c>
+      <c r="O105" t="inlineStr">
+        <is>
+          <t>['12']</t>
+        </is>
+      </c>
+      <c r="P105" t="inlineStr">
+        <is>
+          <t>['75']</t>
+        </is>
+      </c>
+      <c r="Q105" t="n">
+        <v>8</v>
+      </c>
+      <c r="R105" t="n">
+        <v>10</v>
+      </c>
+      <c r="S105" t="n">
+        <v>18</v>
+      </c>
+      <c r="T105" t="n">
+        <v>0</v>
+      </c>
+      <c r="U105" t="n">
+        <v>0</v>
+      </c>
+      <c r="V105" t="n">
+        <v>0</v>
+      </c>
+      <c r="W105" t="n">
+        <v>0</v>
+      </c>
+      <c r="X105" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y105" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z105" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA105" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB105" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC105" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AD105" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AE105" t="n">
+        <v>6</v>
+      </c>
+      <c r="AF105" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG105" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH105" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI105" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ105" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AK105" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="AL105" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM105" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN105" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO105" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP105" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ105" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AR105" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AS105" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AT105" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AU105" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AV105" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AW105" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="AX105" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY105" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ105" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA105" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB105" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC105" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD105" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE105" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF105" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG105" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH105" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI105" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ105" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK105" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B106" t="n">
+        <v>4933028</v>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>Paraguay Division Profesional</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E106" s="2" t="n">
+        <v>45063.79166666666</v>
+      </c>
+      <c r="F106" t="n">
+        <v>18</v>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>Sportivo Luqueño</t>
+        </is>
+      </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>Cerro Porteño</t>
+        </is>
+      </c>
+      <c r="I106" t="n">
+        <v>0</v>
+      </c>
+      <c r="J106" t="n">
+        <v>1</v>
+      </c>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="n">
+        <v>1</v>
+      </c>
+      <c r="N106" t="n">
+        <v>2</v>
+      </c>
+      <c r="O106" t="inlineStr">
+        <is>
+          <t>['65']</t>
+        </is>
+      </c>
+      <c r="P106" t="inlineStr">
+        <is>
+          <t>['41']</t>
+        </is>
+      </c>
+      <c r="Q106" t="n">
+        <v>1</v>
+      </c>
+      <c r="R106" t="n">
+        <v>2</v>
+      </c>
+      <c r="S106" t="n">
+        <v>3</v>
+      </c>
+      <c r="T106" t="n">
+        <v>0</v>
+      </c>
+      <c r="U106" t="n">
+        <v>0</v>
+      </c>
+      <c r="V106" t="n">
+        <v>0</v>
+      </c>
+      <c r="W106" t="n">
+        <v>0</v>
+      </c>
+      <c r="X106" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y106" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z106" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA106" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB106" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC106" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AD106" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AE106" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AF106" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG106" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH106" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI106" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ106" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AK106" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AL106" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM106" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN106" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO106" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP106" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ106" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AR106" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AS106" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AT106" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="AU106" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AV106" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AW106" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AX106" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY106" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ106" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA106" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB106" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC106" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD106" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE106" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF106" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG106" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH106" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI106" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ106" t="n">
+        <v>5</v>
+      </c>
+      <c r="BK106" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B107" t="n">
+        <v>4933030</v>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>Paraguay Division Profesional</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E107" s="2" t="n">
+        <v>45063.89583333334</v>
+      </c>
+      <c r="F107" t="n">
+        <v>18</v>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>Tacuary</t>
+        </is>
+      </c>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>Guaraní</t>
+        </is>
+      </c>
+      <c r="I107" t="n">
+        <v>0</v>
+      </c>
+      <c r="J107" t="n">
+        <v>2</v>
+      </c>
+      <c r="K107" t="n">
+        <v>2</v>
+      </c>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="n">
+        <v>3</v>
+      </c>
+      <c r="N107" t="n">
+        <v>4</v>
+      </c>
+      <c r="O107" t="inlineStr">
+        <is>
+          <t>['59']</t>
+        </is>
+      </c>
+      <c r="P107" t="inlineStr">
+        <is>
+          <t>['39', '45+1', '90+1']</t>
+        </is>
+      </c>
+      <c r="Q107" t="n">
+        <v>3</v>
+      </c>
+      <c r="R107" t="n">
+        <v>2</v>
+      </c>
+      <c r="S107" t="n">
+        <v>5</v>
+      </c>
+      <c r="T107" t="n">
+        <v>0</v>
+      </c>
+      <c r="U107" t="n">
+        <v>0</v>
+      </c>
+      <c r="V107" t="n">
+        <v>0</v>
+      </c>
+      <c r="W107" t="n">
+        <v>0</v>
+      </c>
+      <c r="X107" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y107" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z107" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA107" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB107" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC107" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AD107" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AE107" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AF107" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG107" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH107" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI107" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ107" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AK107" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AL107" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM107" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN107" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO107" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP107" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ107" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR107" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AS107" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="AT107" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AU107" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AV107" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AW107" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="AX107" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY107" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ107" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA107" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB107" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC107" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD107" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE107" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF107" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG107" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH107" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI107" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ107" t="n">
+        <v>7</v>
+      </c>
+      <c r="BK107" t="n">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Paraguay Division Profesional_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Paraguay Division Profesional_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK107"/>
+  <dimension ref="A1:BK111"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -900,7 +900,7 @@
         <v>0</v>
       </c>
       <c r="AS2" t="n">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="AT2" t="n">
         <v>1.67</v>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="AS3" t="n">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AT3" t="n">
         <v>0.33</v>
@@ -1512,7 +1512,7 @@
         <v>1.33</v>
       </c>
       <c r="AT5" t="n">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AU5" t="n">
         <v>0</v>
@@ -1712,10 +1712,10 @@
         <v>0</v>
       </c>
       <c r="AS6" t="n">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AT6" t="n">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AU6" t="n">
         <v>0</v>
@@ -2324,7 +2324,7 @@
         <v>1.78</v>
       </c>
       <c r="AT9" t="n">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AU9" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="AS10" t="n">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AT10" t="n">
         <v>2.22</v>
@@ -2933,7 +2933,7 @@
         <v>1.78</v>
       </c>
       <c r="AT12" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AU12" t="n">
         <v>0</v>
@@ -3136,7 +3136,7 @@
         <v>1.33</v>
       </c>
       <c r="AT13" t="n">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AU13" t="n">
         <v>0</v>
@@ -3336,7 +3336,7 @@
         <v>0</v>
       </c>
       <c r="AS14" t="n">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="AT14" t="n">
         <v>0.78</v>
@@ -3742,7 +3742,7 @@
         <v>0</v>
       </c>
       <c r="AS16" t="n">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AT16" t="n">
         <v>1.67</v>
@@ -4757,10 +4757,10 @@
         <v>0</v>
       </c>
       <c r="AS21" t="n">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AT21" t="n">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AU21" t="n">
         <v>1.16</v>
@@ -5166,7 +5166,7 @@
         <v>0.89</v>
       </c>
       <c r="AT23" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AU23" t="n">
         <v>1.25</v>
@@ -5369,7 +5369,7 @@
         <v>1.78</v>
       </c>
       <c r="AT24" t="n">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AU24" t="n">
         <v>1.41</v>
@@ -5772,10 +5772,10 @@
         <v>1.5</v>
       </c>
       <c r="AS26" t="n">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AT26" t="n">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AU26" t="n">
         <v>1.32</v>
@@ -6178,7 +6178,7 @@
         <v>0</v>
       </c>
       <c r="AS28" t="n">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="AT28" t="n">
         <v>0.33</v>
@@ -6790,7 +6790,7 @@
         <v>0.89</v>
       </c>
       <c r="AT31" t="n">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AU31" t="n">
         <v>1.34</v>
@@ -6993,7 +6993,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AT32" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AU32" t="n">
         <v>0.79</v>
@@ -7602,7 +7602,7 @@
         <v>1.78</v>
       </c>
       <c r="AT35" t="n">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AU35" t="n">
         <v>1.35</v>
@@ -7802,7 +7802,7 @@
         <v>3</v>
       </c>
       <c r="AS36" t="n">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AT36" t="n">
         <v>2.11</v>
@@ -8008,7 +8008,7 @@
         <v>1</v>
       </c>
       <c r="AT37" t="n">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AU37" t="n">
         <v>1.18</v>
@@ -8208,7 +8208,7 @@
         <v>2</v>
       </c>
       <c r="AS38" t="n">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="AT38" t="n">
         <v>0.78</v>
@@ -8414,7 +8414,7 @@
         <v>1.33</v>
       </c>
       <c r="AT39" t="n">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AU39" t="n">
         <v>1.14</v>
@@ -9020,7 +9020,7 @@
         <v>0.33</v>
       </c>
       <c r="AS42" t="n">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AT42" t="n">
         <v>0.78</v>
@@ -9429,7 +9429,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AT44" t="n">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AU44" t="n">
         <v>0.84</v>
@@ -10035,7 +10035,7 @@
         <v>1.75</v>
       </c>
       <c r="AS47" t="n">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AT47" t="n">
         <v>1.67</v>
@@ -10444,7 +10444,7 @@
         <v>0.89</v>
       </c>
       <c r="AT49" t="n">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AU49" t="n">
         <v>1.44</v>
@@ -10850,7 +10850,7 @@
         <v>1.33</v>
       </c>
       <c r="AT51" t="n">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AU51" t="n">
         <v>1.46</v>
@@ -11050,7 +11050,7 @@
         <v>2.5</v>
       </c>
       <c r="AS52" t="n">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AT52" t="n">
         <v>1.67</v>
@@ -11659,10 +11659,10 @@
         <v>1</v>
       </c>
       <c r="AS55" t="n">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="AT55" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AU55" t="n">
         <v>1.81</v>
@@ -12268,7 +12268,7 @@
         <v>1</v>
       </c>
       <c r="AS58" t="n">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AT58" t="n">
         <v>0.78</v>
@@ -12474,7 +12474,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AT59" t="n">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AU59" t="n">
         <v>1</v>
@@ -12674,7 +12674,7 @@
         <v>2.5</v>
       </c>
       <c r="AS60" t="n">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="AT60" t="n">
         <v>2.22</v>
@@ -12880,7 +12880,7 @@
         <v>1.33</v>
       </c>
       <c r="AT61" t="n">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AU61" t="n">
         <v>1.02</v>
@@ -13489,7 +13489,7 @@
         <v>0.67</v>
       </c>
       <c r="AT64" t="n">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AU64" t="n">
         <v>1.5</v>
@@ -13689,7 +13689,7 @@
         <v>0</v>
       </c>
       <c r="AS65" t="n">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AT65" t="n">
         <v>0.33</v>
@@ -14098,7 +14098,7 @@
         <v>1.78</v>
       </c>
       <c r="AT67" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AU67" t="n">
         <v>1.59</v>
@@ -14504,7 +14504,7 @@
         <v>1.78</v>
       </c>
       <c r="AT69" t="n">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AU69" t="n">
         <v>1.46</v>
@@ -15316,7 +15316,7 @@
         <v>0.67</v>
       </c>
       <c r="AT73" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AU73" t="n">
         <v>1.41</v>
@@ -15922,7 +15922,7 @@
         <v>1.67</v>
       </c>
       <c r="AS76" t="n">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AT76" t="n">
         <v>1.22</v>
@@ -16328,10 +16328,10 @@
         <v>1.17</v>
       </c>
       <c r="AS78" t="n">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="AT78" t="n">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AU78" t="n">
         <v>1.9</v>
@@ -16734,7 +16734,7 @@
         <v>1.17</v>
       </c>
       <c r="AS80" t="n">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AT80" t="n">
         <v>0.78</v>
@@ -16940,7 +16940,7 @@
         <v>0.67</v>
       </c>
       <c r="AT81" t="n">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AU81" t="n">
         <v>1.43</v>
@@ -17143,7 +17143,7 @@
         <v>0.89</v>
       </c>
       <c r="AT82" t="n">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AU82" t="n">
         <v>1.26</v>
@@ -17346,7 +17346,7 @@
         <v>1</v>
       </c>
       <c r="AT83" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AU83" t="n">
         <v>1.36</v>
@@ -18358,7 +18358,7 @@
         <v>1</v>
       </c>
       <c r="AS88" t="n">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AT88" t="n">
         <v>0.78</v>
@@ -18564,7 +18564,7 @@
         <v>1.78</v>
       </c>
       <c r="AT89" t="n">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AU89" t="n">
         <v>1.37</v>
@@ -18764,7 +18764,7 @@
         <v>2</v>
       </c>
       <c r="AS90" t="n">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="AT90" t="n">
         <v>1.67</v>
@@ -19173,7 +19173,7 @@
         <v>1</v>
       </c>
       <c r="AT92" t="n">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AU92" t="n">
         <v>1.44</v>
@@ -19576,10 +19576,10 @@
         <v>0.57</v>
       </c>
       <c r="AS94" t="n">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AT94" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AU94" t="n">
         <v>1.26</v>
@@ -19985,7 +19985,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AT96" t="n">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AU96" t="n">
         <v>1.12</v>
@@ -20794,7 +20794,7 @@
         <v>1.38</v>
       </c>
       <c r="AS100" t="n">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="AT100" t="n">
         <v>1.22</v>
@@ -20997,10 +20997,10 @@
         <v>1.38</v>
       </c>
       <c r="AS101" t="n">
-        <v>1.89</v>
+        <v>1.7</v>
       </c>
       <c r="AT101" t="n">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AU101" t="n">
         <v>1.45</v>
@@ -21812,7 +21812,7 @@
         <v>1.44</v>
       </c>
       <c r="AT105" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AU105" t="n">
         <v>1.66</v>
@@ -21928,13 +21928,13 @@
         </is>
       </c>
       <c r="Q106" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="R106" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="S106" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="T106" t="n">
         <v>0</v>
@@ -22051,7 +22051,7 @@
         <v>0</v>
       </c>
       <c r="BF106" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BG106" t="n">
         <v>5</v>
@@ -22060,13 +22060,13 @@
         <v>2</v>
       </c>
       <c r="BI106" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BJ106" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="BK106" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="107">
@@ -22131,13 +22131,13 @@
         </is>
       </c>
       <c r="Q107" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R107" t="n">
         <v>2</v>
       </c>
       <c r="S107" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="T107" t="n">
         <v>0</v>
@@ -22257,19 +22257,831 @@
         <v>4</v>
       </c>
       <c r="BG107" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH107" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI107" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ107" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK107" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B108" t="n">
+        <v>4933031</v>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>Paraguay Division Profesional</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E108" s="2" t="n">
+        <v>45064.79166666666</v>
+      </c>
+      <c r="F108" t="n">
+        <v>18</v>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>Sportivo Trinidense</t>
+        </is>
+      </c>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>Sportivo Ameliano</t>
+        </is>
+      </c>
+      <c r="I108" t="n">
+        <v>1</v>
+      </c>
+      <c r="J108" t="n">
+        <v>0</v>
+      </c>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="n">
         <v>2</v>
       </c>
-      <c r="BH107" t="n">
+      <c r="M108" t="n">
+        <v>0</v>
+      </c>
+      <c r="N108" t="n">
+        <v>2</v>
+      </c>
+      <c r="O108" t="inlineStr">
+        <is>
+          <t>['32', '86']</t>
+        </is>
+      </c>
+      <c r="P108" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q108" t="n">
+        <v>5</v>
+      </c>
+      <c r="R108" t="n">
+        <v>5</v>
+      </c>
+      <c r="S108" t="n">
+        <v>10</v>
+      </c>
+      <c r="T108" t="n">
+        <v>0</v>
+      </c>
+      <c r="U108" t="n">
+        <v>0</v>
+      </c>
+      <c r="V108" t="n">
+        <v>0</v>
+      </c>
+      <c r="W108" t="n">
+        <v>0</v>
+      </c>
+      <c r="X108" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y108" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z108" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA108" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB108" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC108" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AD108" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AE108" t="n">
         <v>3</v>
       </c>
-      <c r="BI107" t="n">
+      <c r="AF108" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG108" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH108" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI108" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ108" t="n">
         <v>2</v>
       </c>
-      <c r="BJ107" t="n">
+      <c r="AK108" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AL108" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM108" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN108" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO108" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP108" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ108" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AR108" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AS108" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AT108" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AU108" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AV108" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AW108" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="AX108" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY108" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ108" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA108" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB108" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC108" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD108" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE108" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF108" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG108" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH108" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI108" t="n">
+        <v>9</v>
+      </c>
+      <c r="BJ108" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK108" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B109" t="n">
+        <v>4933029</v>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>Paraguay Division Profesional</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E109" s="2" t="n">
+        <v>45064.89583333334</v>
+      </c>
+      <c r="F109" t="n">
+        <v>18</v>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>Nacional Asunción</t>
+        </is>
+      </c>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>Resistencia</t>
+        </is>
+      </c>
+      <c r="I109" t="n">
+        <v>0</v>
+      </c>
+      <c r="J109" t="n">
+        <v>0</v>
+      </c>
+      <c r="K109" t="n">
+        <v>0</v>
+      </c>
+      <c r="L109" t="n">
+        <v>0</v>
+      </c>
+      <c r="M109" t="n">
+        <v>0</v>
+      </c>
+      <c r="N109" t="n">
+        <v>0</v>
+      </c>
+      <c r="O109" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P109" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q109" t="n">
+        <v>9</v>
+      </c>
+      <c r="R109" t="n">
+        <v>9</v>
+      </c>
+      <c r="S109" t="n">
+        <v>18</v>
+      </c>
+      <c r="T109" t="n">
+        <v>0</v>
+      </c>
+      <c r="U109" t="n">
+        <v>0</v>
+      </c>
+      <c r="V109" t="n">
+        <v>0</v>
+      </c>
+      <c r="W109" t="n">
+        <v>0</v>
+      </c>
+      <c r="X109" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y109" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z109" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA109" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB109" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC109" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AD109" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AE109" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AF109" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG109" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH109" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI109" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ109" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AK109" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AL109" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM109" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN109" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO109" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP109" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ109" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR109" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="AS109" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT109" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="AU109" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AV109" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AW109" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="AX109" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY109" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ109" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA109" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB109" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC109" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD109" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE109" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF109" t="n">
+        <v>9</v>
+      </c>
+      <c r="BG109" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH109" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI109" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ109" t="n">
+        <v>14</v>
+      </c>
+      <c r="BK109" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B110" t="n">
+        <v>4933034</v>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>Paraguay Division Profesional</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E110" s="2" t="n">
+        <v>45066.79166666666</v>
+      </c>
+      <c r="F110" t="n">
+        <v>19</v>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>Cerro Porteño</t>
+        </is>
+      </c>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>General Caballero JLM</t>
+        </is>
+      </c>
+      <c r="I110" t="n">
+        <v>1</v>
+      </c>
+      <c r="J110" t="n">
+        <v>0</v>
+      </c>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="n">
+        <v>2</v>
+      </c>
+      <c r="N110" t="n">
+        <v>3</v>
+      </c>
+      <c r="O110" t="inlineStr">
+        <is>
+          <t>['14']</t>
+        </is>
+      </c>
+      <c r="P110" t="inlineStr">
+        <is>
+          <t>['52', '90+3']</t>
+        </is>
+      </c>
+      <c r="Q110" t="n">
+        <v>10</v>
+      </c>
+      <c r="R110" t="n">
+        <v>5</v>
+      </c>
+      <c r="S110" t="n">
+        <v>15</v>
+      </c>
+      <c r="T110" t="n">
+        <v>0</v>
+      </c>
+      <c r="U110" t="n">
+        <v>0</v>
+      </c>
+      <c r="V110" t="n">
+        <v>0</v>
+      </c>
+      <c r="W110" t="n">
+        <v>0</v>
+      </c>
+      <c r="X110" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y110" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z110" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA110" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB110" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC110" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AD110" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="AE110" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="AF110" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG110" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH110" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI110" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ110" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AK110" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="AL110" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM110" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN110" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO110" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP110" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ110" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AR110" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AS110" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AT110" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AU110" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AV110" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AW110" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="AX110" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY110" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ110" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA110" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB110" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC110" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD110" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE110" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF110" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG110" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH110" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI110" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ110" t="n">
+        <v>17</v>
+      </c>
+      <c r="BK110" t="n">
         <v>7</v>
       </c>
-      <c r="BK107" t="n">
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B111" t="n">
+        <v>4933035</v>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>Paraguay Division Profesional</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E111" s="2" t="n">
+        <v>45066.79166666666</v>
+      </c>
+      <c r="F111" t="n">
+        <v>19</v>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>Libertad</t>
+        </is>
+      </c>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t>Olimpia</t>
+        </is>
+      </c>
+      <c r="I111" t="n">
+        <v>1</v>
+      </c>
+      <c r="J111" t="n">
+        <v>0</v>
+      </c>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="n">
+        <v>0</v>
+      </c>
+      <c r="N111" t="n">
+        <v>1</v>
+      </c>
+      <c r="O111" t="inlineStr">
+        <is>
+          <t>['19']</t>
+        </is>
+      </c>
+      <c r="P111" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q111" t="n">
+        <v>3</v>
+      </c>
+      <c r="R111" t="n">
+        <v>3</v>
+      </c>
+      <c r="S111" t="n">
+        <v>6</v>
+      </c>
+      <c r="T111" t="n">
+        <v>0</v>
+      </c>
+      <c r="U111" t="n">
+        <v>0</v>
+      </c>
+      <c r="V111" t="n">
+        <v>0</v>
+      </c>
+      <c r="W111" t="n">
+        <v>0</v>
+      </c>
+      <c r="X111" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y111" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z111" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA111" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB111" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC111" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AD111" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AE111" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AF111" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG111" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH111" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI111" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ111" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AK111" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="AL111" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM111" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN111" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO111" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP111" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ111" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="AR111" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AS111" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AT111" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AU111" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AV111" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AW111" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AX111" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY111" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ111" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA111" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB111" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC111" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD111" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE111" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF111" t="n">
         <v>4</v>
+      </c>
+      <c r="BG111" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH111" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI111" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ111" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK111" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Paraguay Division Profesional_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Paraguay Division Profesional_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK111"/>
+  <dimension ref="A1:BK113"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1106,7 +1106,7 @@
         <v>1.89</v>
       </c>
       <c r="AT3" t="n">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
       <c r="AU3" t="n">
         <v>0</v>
@@ -2321,7 +2321,7 @@
         <v>1</v>
       </c>
       <c r="AS9" t="n">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AT9" t="n">
         <v>1.44</v>
@@ -2727,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="AS11" t="n">
-        <v>0.67</v>
+        <v>0.9</v>
       </c>
       <c r="AT11" t="n">
         <v>2.11</v>
@@ -3948,7 +3948,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AT17" t="n">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AU17" t="n">
         <v>0.9</v>
@@ -4151,7 +4151,7 @@
         <v>1.44</v>
       </c>
       <c r="AT18" t="n">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
       <c r="AU18" t="n">
         <v>1.41</v>
@@ -4351,7 +4351,7 @@
         <v>0.5</v>
       </c>
       <c r="AS19" t="n">
-        <v>0.67</v>
+        <v>0.9</v>
       </c>
       <c r="AT19" t="n">
         <v>1.67</v>
@@ -5975,7 +5975,7 @@
         <v>0.5</v>
       </c>
       <c r="AS27" t="n">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AT27" t="n">
         <v>0.78</v>
@@ -6181,7 +6181,7 @@
         <v>2.8</v>
       </c>
       <c r="AT28" t="n">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
       <c r="AU28" t="n">
         <v>1.25</v>
@@ -6384,7 +6384,7 @@
         <v>1.33</v>
       </c>
       <c r="AT29" t="n">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AU29" t="n">
         <v>1.02</v>
@@ -8614,7 +8614,7 @@
         <v>2.33</v>
       </c>
       <c r="AS40" t="n">
-        <v>0.67</v>
+        <v>0.9</v>
       </c>
       <c r="AT40" t="n">
         <v>1.67</v>
@@ -8820,7 +8820,7 @@
         <v>1.33</v>
       </c>
       <c r="AT41" t="n">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AU41" t="n">
         <v>1.4</v>
@@ -9223,10 +9223,10 @@
         <v>0</v>
       </c>
       <c r="AS43" t="n">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AT43" t="n">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
       <c r="AU43" t="n">
         <v>1.73</v>
@@ -10644,7 +10644,7 @@
         <v>1.33</v>
       </c>
       <c r="AS50" t="n">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AT50" t="n">
         <v>0.78</v>
@@ -11256,7 +11256,7 @@
         <v>1.78</v>
       </c>
       <c r="AT53" t="n">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
       <c r="AU53" t="n">
         <v>1.25</v>
@@ -11456,10 +11456,10 @@
         <v>1.33</v>
       </c>
       <c r="AS54" t="n">
-        <v>0.67</v>
+        <v>0.9</v>
       </c>
       <c r="AT54" t="n">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AU54" t="n">
         <v>1.51</v>
@@ -13083,7 +13083,7 @@
         <v>1</v>
       </c>
       <c r="AT62" t="n">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AU62" t="n">
         <v>1.09</v>
@@ -13486,7 +13486,7 @@
         <v>1.25</v>
       </c>
       <c r="AS64" t="n">
-        <v>0.67</v>
+        <v>0.9</v>
       </c>
       <c r="AT64" t="n">
         <v>1.2</v>
@@ -13692,7 +13692,7 @@
         <v>1.7</v>
       </c>
       <c r="AT65" t="n">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
       <c r="AU65" t="n">
         <v>1.36</v>
@@ -14095,7 +14095,7 @@
         <v>0.75</v>
       </c>
       <c r="AS67" t="n">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AT67" t="n">
         <v>0.8</v>
@@ -14707,7 +14707,7 @@
         <v>0.89</v>
       </c>
       <c r="AT70" t="n">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AU70" t="n">
         <v>1.31</v>
@@ -15110,7 +15110,7 @@
         <v>2.4</v>
       </c>
       <c r="AS72" t="n">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AT72" t="n">
         <v>2.11</v>
@@ -15313,7 +15313,7 @@
         <v>0.6</v>
       </c>
       <c r="AS73" t="n">
-        <v>0.67</v>
+        <v>0.9</v>
       </c>
       <c r="AT73" t="n">
         <v>0.8</v>
@@ -15519,7 +15519,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AT74" t="n">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
       <c r="AU74" t="n">
         <v>1.09</v>
@@ -15925,7 +15925,7 @@
         <v>1.7</v>
       </c>
       <c r="AT76" t="n">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AU76" t="n">
         <v>1.48</v>
@@ -16937,7 +16937,7 @@
         <v>2</v>
       </c>
       <c r="AS81" t="n">
-        <v>0.67</v>
+        <v>0.9</v>
       </c>
       <c r="AT81" t="n">
         <v>1.44</v>
@@ -17749,7 +17749,7 @@
         <v>2.17</v>
       </c>
       <c r="AS85" t="n">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AT85" t="n">
         <v>2.22</v>
@@ -17955,7 +17955,7 @@
         <v>1.33</v>
       </c>
       <c r="AT86" t="n">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
       <c r="AU86" t="n">
         <v>1.08</v>
@@ -18158,7 +18158,7 @@
         <v>1.44</v>
       </c>
       <c r="AT87" t="n">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AU87" t="n">
         <v>1.68</v>
@@ -18561,7 +18561,7 @@
         <v>1</v>
       </c>
       <c r="AS89" t="n">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AT89" t="n">
         <v>0.89</v>
@@ -19779,7 +19779,7 @@
         <v>2.29</v>
       </c>
       <c r="AS95" t="n">
-        <v>0.67</v>
+        <v>0.9</v>
       </c>
       <c r="AT95" t="n">
         <v>2.22</v>
@@ -20594,7 +20594,7 @@
         <v>1.33</v>
       </c>
       <c r="AT99" t="n">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
       <c r="AU99" t="n">
         <v>1.42</v>
@@ -20797,7 +20797,7 @@
         <v>2.8</v>
       </c>
       <c r="AT100" t="n">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AU100" t="n">
         <v>1.81</v>
@@ -21200,7 +21200,7 @@
         <v>1.75</v>
       </c>
       <c r="AS102" t="n">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AT102" t="n">
         <v>1.67</v>
@@ -21403,7 +21403,7 @@
         <v>0.75</v>
       </c>
       <c r="AS103" t="n">
-        <v>0.67</v>
+        <v>0.9</v>
       </c>
       <c r="AT103" t="n">
         <v>0.78</v>
@@ -23082,6 +23082,412 @@
       </c>
       <c r="BK111" t="n">
         <v>9</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B112" t="n">
+        <v>4933037</v>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>Paraguay Division Profesional</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E112" s="2" t="n">
+        <v>45068.45833333334</v>
+      </c>
+      <c r="F112" t="n">
+        <v>19</v>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>Guaraní</t>
+        </is>
+      </c>
+      <c r="H112" t="inlineStr">
+        <is>
+          <t>Sportivo Trinidense</t>
+        </is>
+      </c>
+      <c r="I112" t="n">
+        <v>0</v>
+      </c>
+      <c r="J112" t="n">
+        <v>1</v>
+      </c>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="n">
+        <v>0</v>
+      </c>
+      <c r="M112" t="n">
+        <v>2</v>
+      </c>
+      <c r="N112" t="n">
+        <v>2</v>
+      </c>
+      <c r="O112" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P112" t="inlineStr">
+        <is>
+          <t>['40', '53']</t>
+        </is>
+      </c>
+      <c r="Q112" t="n">
+        <v>-1</v>
+      </c>
+      <c r="R112" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S112" t="n">
+        <v>-1</v>
+      </c>
+      <c r="T112" t="n">
+        <v>0</v>
+      </c>
+      <c r="U112" t="n">
+        <v>0</v>
+      </c>
+      <c r="V112" t="n">
+        <v>0</v>
+      </c>
+      <c r="W112" t="n">
+        <v>0</v>
+      </c>
+      <c r="X112" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y112" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z112" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA112" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB112" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC112" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AD112" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="AE112" t="n">
+        <v>3.47</v>
+      </c>
+      <c r="AF112" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG112" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH112" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI112" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ112" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AK112" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AL112" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM112" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN112" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO112" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP112" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ112" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AR112" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AS112" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AT112" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AU112" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AV112" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AW112" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="AX112" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY112" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ112" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA112" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB112" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC112" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD112" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE112" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF112" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BG112" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BH112" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BI112" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BJ112" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BK112" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B113" t="n">
+        <v>4933038</v>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>Paraguay Division Profesional</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E113" s="2" t="n">
+        <v>45068.45833333334</v>
+      </c>
+      <c r="F113" t="n">
+        <v>19</v>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>Resistencia</t>
+        </is>
+      </c>
+      <c r="H113" t="inlineStr">
+        <is>
+          <t>Tacuary</t>
+        </is>
+      </c>
+      <c r="I113" t="n">
+        <v>1</v>
+      </c>
+      <c r="J113" t="n">
+        <v>0</v>
+      </c>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="n">
+        <v>0</v>
+      </c>
+      <c r="N113" t="n">
+        <v>1</v>
+      </c>
+      <c r="O113" t="inlineStr">
+        <is>
+          <t>['32']</t>
+        </is>
+      </c>
+      <c r="P113" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q113" t="n">
+        <v>8</v>
+      </c>
+      <c r="R113" t="n">
+        <v>11</v>
+      </c>
+      <c r="S113" t="n">
+        <v>19</v>
+      </c>
+      <c r="T113" t="n">
+        <v>0</v>
+      </c>
+      <c r="U113" t="n">
+        <v>0</v>
+      </c>
+      <c r="V113" t="n">
+        <v>0</v>
+      </c>
+      <c r="W113" t="n">
+        <v>0</v>
+      </c>
+      <c r="X113" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y113" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z113" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA113" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB113" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC113" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AD113" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="AE113" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AF113" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG113" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH113" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI113" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ113" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AK113" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AL113" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM113" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN113" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO113" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP113" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ113" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AR113" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AS113" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="AT113" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="AU113" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AV113" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AW113" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="AX113" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY113" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ113" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA113" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB113" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC113" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD113" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE113" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF113" t="n">
+        <v>9</v>
+      </c>
+      <c r="BG113" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH113" t="n">
+        <v>10</v>
+      </c>
+      <c r="BI113" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ113" t="n">
+        <v>19</v>
+      </c>
+      <c r="BK113" t="n">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Paraguay Division Profesional_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Paraguay Division Profesional_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK113"/>
+  <dimension ref="A1:BK115"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1309,7 +1309,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AT4" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AU4" t="n">
         <v>0</v>
@@ -2121,7 +2121,7 @@
         <v>0.89</v>
       </c>
       <c r="AT8" t="n">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AU8" t="n">
         <v>0</v>
@@ -2930,7 +2930,7 @@
         <v>0</v>
       </c>
       <c r="AS12" t="n">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AT12" t="n">
         <v>0.8</v>
@@ -3133,7 +3133,7 @@
         <v>0</v>
       </c>
       <c r="AS13" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AT13" t="n">
         <v>0.89</v>
@@ -3542,7 +3542,7 @@
         <v>1.33</v>
       </c>
       <c r="AT15" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AU15" t="n">
         <v>0.85</v>
@@ -5366,7 +5366,7 @@
         <v>1</v>
       </c>
       <c r="AS24" t="n">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AT24" t="n">
         <v>1.44</v>
@@ -5569,10 +5569,10 @@
         <v>3</v>
       </c>
       <c r="AS25" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AT25" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AU25" t="n">
         <v>1.49</v>
@@ -6587,7 +6587,7 @@
         <v>1.44</v>
       </c>
       <c r="AT30" t="n">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AU30" t="n">
         <v>1.8</v>
@@ -7599,7 +7599,7 @@
         <v>1.33</v>
       </c>
       <c r="AS35" t="n">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AT35" t="n">
         <v>0.89</v>
@@ -8211,7 +8211,7 @@
         <v>2.8</v>
       </c>
       <c r="AT38" t="n">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AU38" t="n">
         <v>1.61</v>
@@ -8617,7 +8617,7 @@
         <v>0.9</v>
       </c>
       <c r="AT40" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AU40" t="n">
         <v>1.31</v>
@@ -8817,7 +8817,7 @@
         <v>2</v>
       </c>
       <c r="AS41" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AT41" t="n">
         <v>1.4</v>
@@ -10647,7 +10647,7 @@
         <v>1.6</v>
       </c>
       <c r="AT50" t="n">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AU50" t="n">
         <v>1.54</v>
@@ -10847,7 +10847,7 @@
         <v>1.33</v>
       </c>
       <c r="AS51" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AT51" t="n">
         <v>1.2</v>
@@ -11053,7 +11053,7 @@
         <v>1.7</v>
       </c>
       <c r="AT52" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AU52" t="n">
         <v>1.35</v>
@@ -11253,7 +11253,7 @@
         <v>0</v>
       </c>
       <c r="AS53" t="n">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AT53" t="n">
         <v>0.3</v>
@@ -11865,7 +11865,7 @@
         <v>0.89</v>
       </c>
       <c r="AT56" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AU56" t="n">
         <v>1.36</v>
@@ -13283,10 +13283,10 @@
         <v>1.25</v>
       </c>
       <c r="AS63" t="n">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AT63" t="n">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AU63" t="n">
         <v>1.27</v>
@@ -13892,7 +13892,7 @@
         <v>2.25</v>
       </c>
       <c r="AS66" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AT66" t="n">
         <v>2.11</v>
@@ -14301,7 +14301,7 @@
         <v>1</v>
       </c>
       <c r="AT68" t="n">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AU68" t="n">
         <v>1.26</v>
@@ -14501,7 +14501,7 @@
         <v>1.6</v>
       </c>
       <c r="AS69" t="n">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AT69" t="n">
         <v>1.2</v>
@@ -14907,7 +14907,7 @@
         <v>2</v>
       </c>
       <c r="AS71" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AT71" t="n">
         <v>2.22</v>
@@ -15722,7 +15722,7 @@
         <v>1.44</v>
       </c>
       <c r="AT75" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AU75" t="n">
         <v>1.66</v>
@@ -16125,7 +16125,7 @@
         <v>1.83</v>
       </c>
       <c r="AS77" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AT77" t="n">
         <v>1.67</v>
@@ -16737,7 +16737,7 @@
         <v>1.89</v>
       </c>
       <c r="AT80" t="n">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AU80" t="n">
         <v>1.21</v>
@@ -17546,7 +17546,7 @@
         <v>2.17</v>
       </c>
       <c r="AS84" t="n">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AT84" t="n">
         <v>2.11</v>
@@ -18361,7 +18361,7 @@
         <v>1.7</v>
       </c>
       <c r="AT88" t="n">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AU88" t="n">
         <v>1.41</v>
@@ -18767,7 +18767,7 @@
         <v>2.8</v>
       </c>
       <c r="AT90" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AU90" t="n">
         <v>1.83</v>
@@ -18967,7 +18967,7 @@
         <v>0.86</v>
       </c>
       <c r="AS91" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AT91" t="n">
         <v>0.78</v>
@@ -19373,7 +19373,7 @@
         <v>1.71</v>
       </c>
       <c r="AS93" t="n">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AT93" t="n">
         <v>1.67</v>
@@ -20391,7 +20391,7 @@
         <v>1.33</v>
       </c>
       <c r="AT98" t="n">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AU98" t="n">
         <v>1.13</v>
@@ -20591,7 +20591,7 @@
         <v>0.38</v>
       </c>
       <c r="AS99" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AT99" t="n">
         <v>0.3</v>
@@ -21203,7 +21203,7 @@
         <v>1.6</v>
       </c>
       <c r="AT102" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AU102" t="n">
         <v>1.41</v>
@@ -22012,7 +22012,7 @@
         <v>2.38</v>
       </c>
       <c r="AS106" t="n">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AT106" t="n">
         <v>2.22</v>
@@ -23146,13 +23146,13 @@
         </is>
       </c>
       <c r="Q112" t="n">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="R112" t="n">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="S112" t="n">
-        <v>-1</v>
+        <v>11</v>
       </c>
       <c r="T112" t="n">
         <v>0</v>
@@ -23269,22 +23269,22 @@
         <v>0</v>
       </c>
       <c r="BF112" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="BG112" t="n">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="BH112" t="n">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="BI112" t="n">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="BJ112" t="n">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="BK112" t="n">
-        <v>-1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="113">
@@ -23488,6 +23488,412 @@
       </c>
       <c r="BK113" t="n">
         <v>13</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B114" t="n">
+        <v>4933036</v>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>Paraguay Division Profesional</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E114" s="2" t="n">
+        <v>45068.75</v>
+      </c>
+      <c r="F114" t="n">
+        <v>19</v>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>Sportivo Ameliano</t>
+        </is>
+      </c>
+      <c r="H114" t="inlineStr">
+        <is>
+          <t>Guaireña</t>
+        </is>
+      </c>
+      <c r="I114" t="n">
+        <v>0</v>
+      </c>
+      <c r="J114" t="n">
+        <v>0</v>
+      </c>
+      <c r="K114" t="n">
+        <v>0</v>
+      </c>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="n">
+        <v>1</v>
+      </c>
+      <c r="N114" t="n">
+        <v>2</v>
+      </c>
+      <c r="O114" t="inlineStr">
+        <is>
+          <t>['61']</t>
+        </is>
+      </c>
+      <c r="P114" t="inlineStr">
+        <is>
+          <t>['72']</t>
+        </is>
+      </c>
+      <c r="Q114" t="n">
+        <v>6</v>
+      </c>
+      <c r="R114" t="n">
+        <v>4</v>
+      </c>
+      <c r="S114" t="n">
+        <v>10</v>
+      </c>
+      <c r="T114" t="n">
+        <v>0</v>
+      </c>
+      <c r="U114" t="n">
+        <v>0</v>
+      </c>
+      <c r="V114" t="n">
+        <v>0</v>
+      </c>
+      <c r="W114" t="n">
+        <v>0</v>
+      </c>
+      <c r="X114" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y114" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z114" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA114" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB114" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC114" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AD114" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AE114" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AF114" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG114" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH114" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI114" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ114" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="AK114" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AL114" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM114" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN114" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO114" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP114" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ114" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AR114" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="AS114" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AT114" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AU114" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AV114" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AW114" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AX114" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY114" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ114" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA114" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB114" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC114" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD114" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE114" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF114" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG114" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH114" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI114" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ114" t="n">
+        <v>16</v>
+      </c>
+      <c r="BK114" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B115" t="n">
+        <v>4933039</v>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>Paraguay Division Profesional</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E115" s="2" t="n">
+        <v>45068.85416666666</v>
+      </c>
+      <c r="F115" t="n">
+        <v>19</v>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>Sportivo Luqueño</t>
+        </is>
+      </c>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t>Nacional Asunción</t>
+        </is>
+      </c>
+      <c r="I115" t="n">
+        <v>0</v>
+      </c>
+      <c r="J115" t="n">
+        <v>0</v>
+      </c>
+      <c r="K115" t="n">
+        <v>0</v>
+      </c>
+      <c r="L115" t="n">
+        <v>0</v>
+      </c>
+      <c r="M115" t="n">
+        <v>1</v>
+      </c>
+      <c r="N115" t="n">
+        <v>1</v>
+      </c>
+      <c r="O115" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P115" t="inlineStr">
+        <is>
+          <t>['86']</t>
+        </is>
+      </c>
+      <c r="Q115" t="n">
+        <v>5</v>
+      </c>
+      <c r="R115" t="n">
+        <v>4</v>
+      </c>
+      <c r="S115" t="n">
+        <v>9</v>
+      </c>
+      <c r="T115" t="n">
+        <v>0</v>
+      </c>
+      <c r="U115" t="n">
+        <v>0</v>
+      </c>
+      <c r="V115" t="n">
+        <v>0</v>
+      </c>
+      <c r="W115" t="n">
+        <v>0</v>
+      </c>
+      <c r="X115" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y115" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z115" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA115" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB115" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC115" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="AD115" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AE115" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="AF115" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG115" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH115" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI115" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ115" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="AK115" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AL115" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM115" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN115" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO115" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP115" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ115" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AR115" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AS115" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AT115" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AU115" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AV115" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AW115" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="AX115" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY115" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ115" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA115" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB115" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC115" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD115" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE115" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF115" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG115" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH115" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI115" t="n">
+        <v>9</v>
+      </c>
+      <c r="BJ115" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK115" t="n">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Paraguay Division Profesional_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Paraguay Division Profesional_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK115"/>
+  <dimension ref="A1:BK118"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="AS3" t="n">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AT3" t="n">
         <v>0.3</v>
@@ -1509,10 +1509,10 @@
         <v>0</v>
       </c>
       <c r="AS5" t="n">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AT5" t="n">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AU5" t="n">
         <v>0</v>
@@ -2524,10 +2524,10 @@
         <v>0</v>
       </c>
       <c r="AS10" t="n">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AT10" t="n">
-        <v>2.22</v>
+        <v>2</v>
       </c>
       <c r="AU10" t="n">
         <v>1.03</v>
@@ -2730,7 +2730,7 @@
         <v>0.9</v>
       </c>
       <c r="AT11" t="n">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AU11" t="n">
         <v>0</v>
@@ -3136,7 +3136,7 @@
         <v>1.3</v>
       </c>
       <c r="AT13" t="n">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AU13" t="n">
         <v>0</v>
@@ -3539,7 +3539,7 @@
         <v>3</v>
       </c>
       <c r="AS15" t="n">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AT15" t="n">
         <v>1.8</v>
@@ -4557,7 +4557,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AT20" t="n">
-        <v>2.22</v>
+        <v>2</v>
       </c>
       <c r="AU20" t="n">
         <v>0.8</v>
@@ -4757,7 +4757,7 @@
         <v>0</v>
       </c>
       <c r="AS21" t="n">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AT21" t="n">
         <v>1.2</v>
@@ -4960,10 +4960,10 @@
         <v>3</v>
       </c>
       <c r="AS22" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AT22" t="n">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AU22" t="n">
         <v>0</v>
@@ -5775,7 +5775,7 @@
         <v>1.7</v>
       </c>
       <c r="AT26" t="n">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AU26" t="n">
         <v>1.32</v>
@@ -6381,7 +6381,7 @@
         <v>1</v>
       </c>
       <c r="AS29" t="n">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AT29" t="n">
         <v>1.4</v>
@@ -7193,7 +7193,7 @@
         <v>1.33</v>
       </c>
       <c r="AS33" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AT33" t="n">
         <v>1.67</v>
@@ -7399,7 +7399,7 @@
         <v>1.44</v>
       </c>
       <c r="AT34" t="n">
-        <v>2.22</v>
+        <v>2</v>
       </c>
       <c r="AU34" t="n">
         <v>1.92</v>
@@ -7602,7 +7602,7 @@
         <v>1.6</v>
       </c>
       <c r="AT35" t="n">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AU35" t="n">
         <v>1.35</v>
@@ -7802,10 +7802,10 @@
         <v>3</v>
       </c>
       <c r="AS36" t="n">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AT36" t="n">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AU36" t="n">
         <v>1.14</v>
@@ -8005,7 +8005,7 @@
         <v>0</v>
       </c>
       <c r="AS37" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AT37" t="n">
         <v>1.2</v>
@@ -8411,7 +8411,7 @@
         <v>0.5</v>
       </c>
       <c r="AS39" t="n">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AT39" t="n">
         <v>1.2</v>
@@ -9629,7 +9629,7 @@
         <v>0.5</v>
       </c>
       <c r="AS45" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AT45" t="n">
         <v>0.78</v>
@@ -9835,7 +9835,7 @@
         <v>1.44</v>
       </c>
       <c r="AT46" t="n">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AU46" t="n">
         <v>1.81</v>
@@ -10035,7 +10035,7 @@
         <v>1.75</v>
       </c>
       <c r="AS47" t="n">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AT47" t="n">
         <v>1.67</v>
@@ -10238,10 +10238,10 @@
         <v>2.33</v>
       </c>
       <c r="AS48" t="n">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AT48" t="n">
-        <v>2.22</v>
+        <v>2</v>
       </c>
       <c r="AU48" t="n">
         <v>1.06</v>
@@ -10444,7 +10444,7 @@
         <v>0.89</v>
       </c>
       <c r="AT49" t="n">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AU49" t="n">
         <v>1.44</v>
@@ -12268,7 +12268,7 @@
         <v>1</v>
       </c>
       <c r="AS58" t="n">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AT58" t="n">
         <v>0.78</v>
@@ -12474,7 +12474,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AT59" t="n">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AU59" t="n">
         <v>1</v>
@@ -12677,7 +12677,7 @@
         <v>2.8</v>
       </c>
       <c r="AT60" t="n">
-        <v>2.22</v>
+        <v>2</v>
       </c>
       <c r="AU60" t="n">
         <v>1.98</v>
@@ -12877,7 +12877,7 @@
         <v>1.8</v>
       </c>
       <c r="AS61" t="n">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AT61" t="n">
         <v>1.44</v>
@@ -13080,7 +13080,7 @@
         <v>1</v>
       </c>
       <c r="AS62" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AT62" t="n">
         <v>1.4</v>
@@ -13895,7 +13895,7 @@
         <v>1.3</v>
       </c>
       <c r="AT66" t="n">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AU66" t="n">
         <v>1.37</v>
@@ -14298,7 +14298,7 @@
         <v>1.2</v>
       </c>
       <c r="AS68" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AT68" t="n">
         <v>0.8</v>
@@ -14910,7 +14910,7 @@
         <v>1.3</v>
       </c>
       <c r="AT71" t="n">
-        <v>2.22</v>
+        <v>2</v>
       </c>
       <c r="AU71" t="n">
         <v>1.27</v>
@@ -15113,7 +15113,7 @@
         <v>1.6</v>
       </c>
       <c r="AT72" t="n">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AU72" t="n">
         <v>1.46</v>
@@ -16331,7 +16331,7 @@
         <v>2.8</v>
       </c>
       <c r="AT78" t="n">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AU78" t="n">
         <v>1.9</v>
@@ -16531,7 +16531,7 @@
         <v>1</v>
       </c>
       <c r="AS79" t="n">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AT79" t="n">
         <v>0.78</v>
@@ -16734,7 +16734,7 @@
         <v>1.17</v>
       </c>
       <c r="AS80" t="n">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AT80" t="n">
         <v>0.8</v>
@@ -17343,7 +17343,7 @@
         <v>0.67</v>
       </c>
       <c r="AS83" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AT83" t="n">
         <v>0.8</v>
@@ -17549,7 +17549,7 @@
         <v>1.6</v>
       </c>
       <c r="AT84" t="n">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AU84" t="n">
         <v>1.4</v>
@@ -17752,7 +17752,7 @@
         <v>1.6</v>
       </c>
       <c r="AT85" t="n">
-        <v>2.22</v>
+        <v>2</v>
       </c>
       <c r="AU85" t="n">
         <v>1.37</v>
@@ -17952,7 +17952,7 @@
         <v>0.43</v>
       </c>
       <c r="AS86" t="n">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AT86" t="n">
         <v>0.3</v>
@@ -18564,7 +18564,7 @@
         <v>1.6</v>
       </c>
       <c r="AT89" t="n">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AU89" t="n">
         <v>1.37</v>
@@ -19170,7 +19170,7 @@
         <v>1.86</v>
       </c>
       <c r="AS92" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AT92" t="n">
         <v>1.44</v>
@@ -19576,7 +19576,7 @@
         <v>0.57</v>
       </c>
       <c r="AS94" t="n">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AT94" t="n">
         <v>0.8</v>
@@ -19782,7 +19782,7 @@
         <v>0.9</v>
       </c>
       <c r="AT95" t="n">
-        <v>2.22</v>
+        <v>2</v>
       </c>
       <c r="AU95" t="n">
         <v>1.38</v>
@@ -20188,7 +20188,7 @@
         <v>0.89</v>
       </c>
       <c r="AT97" t="n">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AU97" t="n">
         <v>1.27</v>
@@ -20388,7 +20388,7 @@
         <v>0.88</v>
       </c>
       <c r="AS98" t="n">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AT98" t="n">
         <v>0.8</v>
@@ -21609,7 +21609,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AT104" t="n">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AU104" t="n">
         <v>1.08</v>
@@ -22015,7 +22015,7 @@
         <v>1.6</v>
       </c>
       <c r="AT106" t="n">
-        <v>2.22</v>
+        <v>2</v>
       </c>
       <c r="AU106" t="n">
         <v>1.41</v>
@@ -22418,7 +22418,7 @@
         <v>1.63</v>
       </c>
       <c r="AS108" t="n">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AT108" t="n">
         <v>1.44</v>
@@ -22621,10 +22621,10 @@
         <v>0.88</v>
       </c>
       <c r="AS109" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AT109" t="n">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AU109" t="n">
         <v>1.43</v>
@@ -23894,6 +23894,615 @@
       </c>
       <c r="BK115" t="n">
         <v>12</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B116" t="n">
+        <v>4933042</v>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>Paraguay Division Profesional</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E116" s="2" t="n">
+        <v>45073.79166666666</v>
+      </c>
+      <c r="F116" t="n">
+        <v>20</v>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>Sportivo Trinidense</t>
+        </is>
+      </c>
+      <c r="H116" t="inlineStr">
+        <is>
+          <t>Resistencia</t>
+        </is>
+      </c>
+      <c r="I116" t="n">
+        <v>1</v>
+      </c>
+      <c r="J116" t="n">
+        <v>0</v>
+      </c>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="n">
+        <v>2</v>
+      </c>
+      <c r="M116" t="n">
+        <v>0</v>
+      </c>
+      <c r="N116" t="n">
+        <v>2</v>
+      </c>
+      <c r="O116" t="inlineStr">
+        <is>
+          <t>['43', '66']</t>
+        </is>
+      </c>
+      <c r="P116" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q116" t="n">
+        <v>7</v>
+      </c>
+      <c r="R116" t="n">
+        <v>7</v>
+      </c>
+      <c r="S116" t="n">
+        <v>14</v>
+      </c>
+      <c r="T116" t="n">
+        <v>0</v>
+      </c>
+      <c r="U116" t="n">
+        <v>0</v>
+      </c>
+      <c r="V116" t="n">
+        <v>0</v>
+      </c>
+      <c r="W116" t="n">
+        <v>0</v>
+      </c>
+      <c r="X116" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y116" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z116" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA116" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB116" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC116" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AD116" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AE116" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="AF116" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG116" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH116" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI116" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ116" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AK116" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AL116" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM116" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN116" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO116" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP116" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ116" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AR116" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="AS116" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT116" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AU116" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AV116" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AW116" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="AX116" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY116" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ116" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA116" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB116" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC116" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD116" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE116" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF116" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG116" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH116" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI116" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ116" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK116" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B117" t="n">
+        <v>4933045</v>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>Paraguay Division Profesional</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E117" s="2" t="n">
+        <v>45074.70833333334</v>
+      </c>
+      <c r="F117" t="n">
+        <v>20</v>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>General Caballero JLM</t>
+        </is>
+      </c>
+      <c r="H117" t="inlineStr">
+        <is>
+          <t>Libertad</t>
+        </is>
+      </c>
+      <c r="I117" t="n">
+        <v>0</v>
+      </c>
+      <c r="J117" t="n">
+        <v>1</v>
+      </c>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="n">
+        <v>0</v>
+      </c>
+      <c r="M117" t="n">
+        <v>2</v>
+      </c>
+      <c r="N117" t="n">
+        <v>2</v>
+      </c>
+      <c r="O117" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P117" t="inlineStr">
+        <is>
+          <t>['35', '90+1']</t>
+        </is>
+      </c>
+      <c r="Q117" t="n">
+        <v>5</v>
+      </c>
+      <c r="R117" t="n">
+        <v>3</v>
+      </c>
+      <c r="S117" t="n">
+        <v>8</v>
+      </c>
+      <c r="T117" t="n">
+        <v>0</v>
+      </c>
+      <c r="U117" t="n">
+        <v>0</v>
+      </c>
+      <c r="V117" t="n">
+        <v>0</v>
+      </c>
+      <c r="W117" t="n">
+        <v>0</v>
+      </c>
+      <c r="X117" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y117" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z117" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA117" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB117" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC117" t="n">
+        <v>5.35</v>
+      </c>
+      <c r="AD117" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AE117" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AF117" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG117" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH117" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI117" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ117" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AK117" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="AL117" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM117" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN117" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO117" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP117" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ117" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AR117" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="AS117" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AT117" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AU117" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AV117" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AW117" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="AX117" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY117" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ117" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA117" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB117" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC117" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD117" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE117" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF117" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG117" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH117" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI117" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ117" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK117" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B118" t="n">
+        <v>4933040</v>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>Paraguay Division Profesional</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E118" s="2" t="n">
+        <v>45074.8125</v>
+      </c>
+      <c r="F118" t="n">
+        <v>20</v>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>Nacional Asunción</t>
+        </is>
+      </c>
+      <c r="H118" t="inlineStr">
+        <is>
+          <t>Cerro Porteño</t>
+        </is>
+      </c>
+      <c r="I118" t="n">
+        <v>1</v>
+      </c>
+      <c r="J118" t="n">
+        <v>0</v>
+      </c>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="n">
+        <v>2</v>
+      </c>
+      <c r="M118" t="n">
+        <v>1</v>
+      </c>
+      <c r="N118" t="n">
+        <v>3</v>
+      </c>
+      <c r="O118" t="inlineStr">
+        <is>
+          <t>['37', '80']</t>
+        </is>
+      </c>
+      <c r="P118" t="inlineStr">
+        <is>
+          <t>['63']</t>
+        </is>
+      </c>
+      <c r="Q118" t="n">
+        <v>9</v>
+      </c>
+      <c r="R118" t="n">
+        <v>4</v>
+      </c>
+      <c r="S118" t="n">
+        <v>13</v>
+      </c>
+      <c r="T118" t="n">
+        <v>0</v>
+      </c>
+      <c r="U118" t="n">
+        <v>0</v>
+      </c>
+      <c r="V118" t="n">
+        <v>0</v>
+      </c>
+      <c r="W118" t="n">
+        <v>0</v>
+      </c>
+      <c r="X118" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y118" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z118" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA118" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB118" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC118" t="n">
+        <v>3.54</v>
+      </c>
+      <c r="AD118" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="AE118" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="AF118" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG118" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH118" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI118" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ118" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AK118" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AL118" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM118" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN118" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO118" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP118" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ118" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR118" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="AS118" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AT118" t="n">
+        <v>2</v>
+      </c>
+      <c r="AU118" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AV118" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AW118" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AX118" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY118" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ118" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA118" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB118" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC118" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD118" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE118" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF118" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG118" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH118" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI118" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ118" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK118" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Paraguay Division Profesional_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Paraguay Division Profesional_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="783" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="819" uniqueCount="224">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -487,6 +487,18 @@
     <t>['33', '41', '69']</t>
   </si>
   <si>
+    <t>['11', '85']</t>
+  </si>
+  <si>
+    <t>['33', '72']</t>
+  </si>
+  <si>
+    <t>['17']</t>
+  </si>
+  <si>
+    <t>['12', '77']</t>
+  </si>
+  <si>
     <t>['39', '47', '68']</t>
   </si>
   <si>
@@ -665,6 +677,15 @@
   </si>
   <si>
     <t>['45+3']</t>
+  </si>
+  <si>
+    <t>['27', '90+3']</t>
+  </si>
+  <si>
+    <t>['33', '55']</t>
+  </si>
+  <si>
+    <t>['28', '45+3']</t>
   </si>
 </sst>
 </file>
@@ -1026,7 +1047,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK121"/>
+  <dimension ref="A1:BK127"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1551,7 +1572,7 @@
         <v>2</v>
       </c>
       <c r="AT3">
-        <v>0.3</v>
+        <v>0.27</v>
       </c>
       <c r="AU3">
         <v>0</v>
@@ -1652,7 +1673,7 @@
         <v>79</v>
       </c>
       <c r="P4" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="Q4">
         <v>4</v>
@@ -2034,7 +2055,7 @@
         <v>81</v>
       </c>
       <c r="P6" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="Q6">
         <v>3</v>
@@ -2121,7 +2142,7 @@
         <v>0</v>
       </c>
       <c r="AS6">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AT6">
         <v>1.6</v>
@@ -2225,7 +2246,7 @@
         <v>82</v>
       </c>
       <c r="P7" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="Q7">
         <v>3</v>
@@ -2416,7 +2437,7 @@
         <v>83</v>
       </c>
       <c r="P8" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="Q8">
         <v>9</v>
@@ -2506,7 +2527,7 @@
         <v>1.1</v>
       </c>
       <c r="AT8">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AU8">
         <v>0</v>
@@ -2607,7 +2628,7 @@
         <v>84</v>
       </c>
       <c r="P9" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="Q9">
         <v>4</v>
@@ -2694,7 +2715,7 @@
         <v>1</v>
       </c>
       <c r="AS9">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AT9">
         <v>1.6</v>
@@ -2798,7 +2819,7 @@
         <v>85</v>
       </c>
       <c r="P10" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="Q10">
         <v>6</v>
@@ -2989,7 +3010,7 @@
         <v>85</v>
       </c>
       <c r="P11" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="Q11">
         <v>3</v>
@@ -3076,10 +3097,10 @@
         <v>0</v>
       </c>
       <c r="AS11">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AT11">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AU11">
         <v>0</v>
@@ -3267,10 +3288,10 @@
         <v>0</v>
       </c>
       <c r="AS12">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AT12">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AU12">
         <v>0</v>
@@ -3371,7 +3392,7 @@
         <v>85</v>
       </c>
       <c r="P13" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="Q13">
         <v>5</v>
@@ -3458,7 +3479,7 @@
         <v>0</v>
       </c>
       <c r="AS13">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AT13">
         <v>0.8</v>
@@ -3562,7 +3583,7 @@
         <v>87</v>
       </c>
       <c r="P14" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="Q14">
         <v>3</v>
@@ -3753,7 +3774,7 @@
         <v>85</v>
       </c>
       <c r="P15" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="Q15">
         <v>5</v>
@@ -4031,7 +4052,7 @@
         <v>0</v>
       </c>
       <c r="AS16">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AT16">
         <v>1.6</v>
@@ -4135,7 +4156,7 @@
         <v>89</v>
       </c>
       <c r="P17" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="Q17">
         <v>4</v>
@@ -4225,7 +4246,7 @@
         <v>0.6</v>
       </c>
       <c r="AT17">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AU17">
         <v>0.9</v>
@@ -4416,7 +4437,7 @@
         <v>1.3</v>
       </c>
       <c r="AT18">
-        <v>0.3</v>
+        <v>0.27</v>
       </c>
       <c r="AU18">
         <v>1.41</v>
@@ -4517,7 +4538,7 @@
         <v>85</v>
       </c>
       <c r="P19" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="Q19">
         <v>1</v>
@@ -4604,7 +4625,7 @@
         <v>0.5</v>
       </c>
       <c r="AS19">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AT19">
         <v>1.6</v>
@@ -4708,7 +4729,7 @@
         <v>85</v>
       </c>
       <c r="P20" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="Q20">
         <v>0</v>
@@ -4899,7 +4920,7 @@
         <v>91</v>
       </c>
       <c r="P21" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="Q21">
         <v>5</v>
@@ -4989,7 +5010,7 @@
         <v>2</v>
       </c>
       <c r="AT21">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AU21">
         <v>1.16</v>
@@ -5090,7 +5111,7 @@
         <v>92</v>
       </c>
       <c r="P22" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="Q22">
         <v>3</v>
@@ -5177,10 +5198,10 @@
         <v>3</v>
       </c>
       <c r="AS22">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AT22">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AU22">
         <v>0</v>
@@ -5281,7 +5302,7 @@
         <v>93</v>
       </c>
       <c r="P23" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="Q23">
         <v>9</v>
@@ -5371,7 +5392,7 @@
         <v>1.1</v>
       </c>
       <c r="AT23">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AU23">
         <v>1.25</v>
@@ -5559,7 +5580,7 @@
         <v>1</v>
       </c>
       <c r="AS24">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AT24">
         <v>1.6</v>
@@ -5750,7 +5771,7 @@
         <v>3</v>
       </c>
       <c r="AS25">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AT25">
         <v>1.8</v>
@@ -5941,7 +5962,7 @@
         <v>1.5</v>
       </c>
       <c r="AS26">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AT26">
         <v>0.8</v>
@@ -6132,7 +6153,7 @@
         <v>0.5</v>
       </c>
       <c r="AS27">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AT27">
         <v>0.7</v>
@@ -6326,7 +6347,7 @@
         <v>2.8</v>
       </c>
       <c r="AT28">
-        <v>0.3</v>
+        <v>0.27</v>
       </c>
       <c r="AU28">
         <v>1.25</v>
@@ -6427,7 +6448,7 @@
         <v>79</v>
       </c>
       <c r="P29" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="Q29">
         <v>5</v>
@@ -6517,7 +6538,7 @@
         <v>1.2</v>
       </c>
       <c r="AT29">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AU29">
         <v>1.02</v>
@@ -6708,7 +6729,7 @@
         <v>1.3</v>
       </c>
       <c r="AT30">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AU30">
         <v>1.8</v>
@@ -6809,7 +6830,7 @@
         <v>93</v>
       </c>
       <c r="P31" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="Q31">
         <v>2</v>
@@ -7090,7 +7111,7 @@
         <v>0.6</v>
       </c>
       <c r="AT32">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AU32">
         <v>0.79</v>
@@ -7191,7 +7212,7 @@
         <v>85</v>
       </c>
       <c r="P33" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="Q33">
         <v>5</v>
@@ -7278,7 +7299,7 @@
         <v>1.33</v>
       </c>
       <c r="AS33">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AT33">
         <v>1.6</v>
@@ -7382,7 +7403,7 @@
         <v>99</v>
       </c>
       <c r="P34" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="Q34">
         <v>4</v>
@@ -7660,7 +7681,7 @@
         <v>1.33</v>
       </c>
       <c r="AS35">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AT35">
         <v>0.8</v>
@@ -7764,7 +7785,7 @@
         <v>101</v>
       </c>
       <c r="P36" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="Q36">
         <v>4</v>
@@ -7854,7 +7875,7 @@
         <v>2</v>
       </c>
       <c r="AT36">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AU36">
         <v>1.14</v>
@@ -7955,7 +7976,7 @@
         <v>102</v>
       </c>
       <c r="P37" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="Q37">
         <v>3</v>
@@ -8042,10 +8063,10 @@
         <v>0</v>
       </c>
       <c r="AS37">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AT37">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AU37">
         <v>1.18</v>
@@ -8236,7 +8257,7 @@
         <v>2.8</v>
       </c>
       <c r="AT38">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AU38">
         <v>1.61</v>
@@ -8337,7 +8358,7 @@
         <v>79</v>
       </c>
       <c r="P39" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="Q39">
         <v>3</v>
@@ -8427,7 +8448,7 @@
         <v>1.2</v>
       </c>
       <c r="AT39">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AU39">
         <v>1.14</v>
@@ -8528,7 +8549,7 @@
         <v>85</v>
       </c>
       <c r="P40" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="Q40">
         <v>6</v>
@@ -8615,7 +8636,7 @@
         <v>2.33</v>
       </c>
       <c r="AS40">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AT40">
         <v>1.8</v>
@@ -8719,7 +8740,7 @@
         <v>104</v>
       </c>
       <c r="P41" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="Q41">
         <v>3</v>
@@ -8806,10 +8827,10 @@
         <v>2</v>
       </c>
       <c r="AS41">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AT41">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AU41">
         <v>1.4</v>
@@ -8910,7 +8931,7 @@
         <v>105</v>
       </c>
       <c r="P42" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="Q42">
         <v>3</v>
@@ -8997,7 +9018,7 @@
         <v>0.33</v>
       </c>
       <c r="AS42">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AT42">
         <v>0.7</v>
@@ -9188,10 +9209,10 @@
         <v>0</v>
       </c>
       <c r="AS43">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AT43">
-        <v>0.3</v>
+        <v>0.27</v>
       </c>
       <c r="AU43">
         <v>1.73</v>
@@ -9292,7 +9313,7 @@
         <v>85</v>
       </c>
       <c r="P44" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="Q44">
         <v>6</v>
@@ -9483,7 +9504,7 @@
         <v>85</v>
       </c>
       <c r="P45" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="Q45">
         <v>5</v>
@@ -9570,7 +9591,7 @@
         <v>0.5</v>
       </c>
       <c r="AS45">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AT45">
         <v>0.7</v>
@@ -9674,7 +9695,7 @@
         <v>107</v>
       </c>
       <c r="P46" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="Q46">
         <v>6</v>
@@ -9764,7 +9785,7 @@
         <v>1.3</v>
       </c>
       <c r="AT46">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AU46">
         <v>1.81</v>
@@ -9865,7 +9886,7 @@
         <v>108</v>
       </c>
       <c r="P47" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="Q47">
         <v>6</v>
@@ -10056,7 +10077,7 @@
         <v>109</v>
       </c>
       <c r="P48" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="Q48">
         <v>2</v>
@@ -10438,7 +10459,7 @@
         <v>111</v>
       </c>
       <c r="P50" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="Q50">
         <v>6</v>
@@ -10525,10 +10546,10 @@
         <v>1.33</v>
       </c>
       <c r="AS50">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AT50">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AU50">
         <v>1.54</v>
@@ -10629,7 +10650,7 @@
         <v>112</v>
       </c>
       <c r="P51" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="Q51">
         <v>3</v>
@@ -10716,10 +10737,10 @@
         <v>1.33</v>
       </c>
       <c r="AS51">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AT51">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AU51">
         <v>1.46</v>
@@ -10820,7 +10841,7 @@
         <v>113</v>
       </c>
       <c r="P52" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="Q52">
         <v>3</v>
@@ -10907,7 +10928,7 @@
         <v>2.5</v>
       </c>
       <c r="AS52">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AT52">
         <v>1.8</v>
@@ -11098,10 +11119,10 @@
         <v>0</v>
       </c>
       <c r="AS53">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AT53">
-        <v>0.3</v>
+        <v>0.27</v>
       </c>
       <c r="AU53">
         <v>1.25</v>
@@ -11289,10 +11310,10 @@
         <v>1.33</v>
       </c>
       <c r="AS54">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AT54">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AU54">
         <v>1.51</v>
@@ -11483,7 +11504,7 @@
         <v>2.8</v>
       </c>
       <c r="AT55">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AU55">
         <v>1.81</v>
@@ -11775,7 +11796,7 @@
         <v>85</v>
       </c>
       <c r="P57" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="Q57">
         <v>4</v>
@@ -11966,7 +11987,7 @@
         <v>117</v>
       </c>
       <c r="P58" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="Q58">
         <v>6</v>
@@ -12157,7 +12178,7 @@
         <v>118</v>
       </c>
       <c r="P59" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="Q59">
         <v>3</v>
@@ -12817,10 +12838,10 @@
         <v>1</v>
       </c>
       <c r="AS62">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AT62">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AU62">
         <v>1.09</v>
@@ -13008,10 +13029,10 @@
         <v>1.25</v>
       </c>
       <c r="AS63">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AT63">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AU63">
         <v>1.27</v>
@@ -13112,7 +13133,7 @@
         <v>85</v>
       </c>
       <c r="P64" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="Q64">
         <v>5</v>
@@ -13199,10 +13220,10 @@
         <v>1.25</v>
       </c>
       <c r="AS64">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AT64">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AU64">
         <v>1.5</v>
@@ -13390,10 +13411,10 @@
         <v>0</v>
       </c>
       <c r="AS65">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AT65">
-        <v>0.3</v>
+        <v>0.27</v>
       </c>
       <c r="AU65">
         <v>1.36</v>
@@ -13494,7 +13515,7 @@
         <v>121</v>
       </c>
       <c r="P66" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="Q66">
         <v>1</v>
@@ -13581,10 +13602,10 @@
         <v>2.25</v>
       </c>
       <c r="AS66">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AT66">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AU66">
         <v>1.37</v>
@@ -13685,7 +13706,7 @@
         <v>122</v>
       </c>
       <c r="P67" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="Q67">
         <v>3</v>
@@ -13772,10 +13793,10 @@
         <v>0.75</v>
       </c>
       <c r="AS67">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AT67">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AU67">
         <v>1.59</v>
@@ -13876,7 +13897,7 @@
         <v>123</v>
       </c>
       <c r="P68" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="Q68">
         <v>4</v>
@@ -13963,10 +13984,10 @@
         <v>1.2</v>
       </c>
       <c r="AS68">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AT68">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AU68">
         <v>1.26</v>
@@ -14154,10 +14175,10 @@
         <v>1.6</v>
       </c>
       <c r="AS69">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AT69">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AU69">
         <v>1.46</v>
@@ -14258,7 +14279,7 @@
         <v>85</v>
       </c>
       <c r="P70" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="Q70">
         <v>4</v>
@@ -14348,7 +14369,7 @@
         <v>1.1</v>
       </c>
       <c r="AT70">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AU70">
         <v>1.31</v>
@@ -14449,7 +14470,7 @@
         <v>125</v>
       </c>
       <c r="P71" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="Q71">
         <v>7</v>
@@ -14536,7 +14557,7 @@
         <v>2</v>
       </c>
       <c r="AS71">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AT71">
         <v>2</v>
@@ -14727,10 +14748,10 @@
         <v>2.4</v>
       </c>
       <c r="AS72">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AT72">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AU72">
         <v>1.46</v>
@@ -14831,7 +14852,7 @@
         <v>115</v>
       </c>
       <c r="P73" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="Q73">
         <v>6</v>
@@ -14918,10 +14939,10 @@
         <v>0.6</v>
       </c>
       <c r="AS73">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AT73">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AU73">
         <v>1.41</v>
@@ -15112,7 +15133,7 @@
         <v>0.6</v>
       </c>
       <c r="AT74">
-        <v>0.3</v>
+        <v>0.27</v>
       </c>
       <c r="AU74">
         <v>1.09</v>
@@ -15213,7 +15234,7 @@
         <v>85</v>
       </c>
       <c r="P75" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="Q75">
         <v>8</v>
@@ -15404,7 +15425,7 @@
         <v>126</v>
       </c>
       <c r="P76" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="Q76">
         <v>5</v>
@@ -15491,10 +15512,10 @@
         <v>1.67</v>
       </c>
       <c r="AS76">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AT76">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AU76">
         <v>1.48</v>
@@ -15595,7 +15616,7 @@
         <v>127</v>
       </c>
       <c r="P77" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="Q77">
         <v>8</v>
@@ -15682,7 +15703,7 @@
         <v>1.83</v>
       </c>
       <c r="AS77">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AT77">
         <v>1.6</v>
@@ -15977,7 +15998,7 @@
         <v>129</v>
       </c>
       <c r="P79" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="Q79">
         <v>3</v>
@@ -16258,7 +16279,7 @@
         <v>2</v>
       </c>
       <c r="AT80">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AU80">
         <v>1.21</v>
@@ -16446,7 +16467,7 @@
         <v>2</v>
       </c>
       <c r="AS81">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AT81">
         <v>1.6</v>
@@ -16550,7 +16571,7 @@
         <v>85</v>
       </c>
       <c r="P82" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="Q82">
         <v>4</v>
@@ -16640,7 +16661,7 @@
         <v>1.1</v>
       </c>
       <c r="AT82">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AU82">
         <v>1.26</v>
@@ -16828,10 +16849,10 @@
         <v>0.67</v>
       </c>
       <c r="AS83">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AT83">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AU83">
         <v>1.36</v>
@@ -16932,7 +16953,7 @@
         <v>85</v>
       </c>
       <c r="P84" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="Q84">
         <v>5</v>
@@ -17019,10 +17040,10 @@
         <v>2.17</v>
       </c>
       <c r="AS84">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AT84">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AU84">
         <v>1.4</v>
@@ -17123,7 +17144,7 @@
         <v>85</v>
       </c>
       <c r="P85" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="Q85">
         <v>4</v>
@@ -17210,7 +17231,7 @@
         <v>2.17</v>
       </c>
       <c r="AS85">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AT85">
         <v>2</v>
@@ -17404,7 +17425,7 @@
         <v>1.2</v>
       </c>
       <c r="AT86">
-        <v>0.3</v>
+        <v>0.27</v>
       </c>
       <c r="AU86">
         <v>1.08</v>
@@ -17595,7 +17616,7 @@
         <v>1.3</v>
       </c>
       <c r="AT87">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AU87">
         <v>1.68</v>
@@ -17783,10 +17804,10 @@
         <v>1</v>
       </c>
       <c r="AS88">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AT88">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AU88">
         <v>1.41</v>
@@ -17974,7 +17995,7 @@
         <v>1</v>
       </c>
       <c r="AS89">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AT89">
         <v>0.8</v>
@@ -18078,7 +18099,7 @@
         <v>136</v>
       </c>
       <c r="P90" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="Q90">
         <v>6</v>
@@ -18356,7 +18377,7 @@
         <v>0.86</v>
       </c>
       <c r="AS91">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AT91">
         <v>0.7</v>
@@ -18547,7 +18568,7 @@
         <v>1.86</v>
       </c>
       <c r="AS92">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AT92">
         <v>1.6</v>
@@ -18738,7 +18759,7 @@
         <v>1.71</v>
       </c>
       <c r="AS93">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AT93">
         <v>1.6</v>
@@ -18932,7 +18953,7 @@
         <v>2</v>
       </c>
       <c r="AT94">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AU94">
         <v>1.26</v>
@@ -19033,7 +19054,7 @@
         <v>101</v>
       </c>
       <c r="P95" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="Q95">
         <v>7</v>
@@ -19120,7 +19141,7 @@
         <v>2.29</v>
       </c>
       <c r="AS95">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AT95">
         <v>2</v>
@@ -19314,7 +19335,7 @@
         <v>0.6</v>
       </c>
       <c r="AT96">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AU96">
         <v>1.12</v>
@@ -19505,7 +19526,7 @@
         <v>1.1</v>
       </c>
       <c r="AT97">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AU97">
         <v>1.27</v>
@@ -19696,7 +19717,7 @@
         <v>1.2</v>
       </c>
       <c r="AT98">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AU98">
         <v>1.13</v>
@@ -19797,7 +19818,7 @@
         <v>143</v>
       </c>
       <c r="P99" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="Q99">
         <v>5</v>
@@ -19884,10 +19905,10 @@
         <v>0.38</v>
       </c>
       <c r="AS99">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AT99">
-        <v>0.3</v>
+        <v>0.27</v>
       </c>
       <c r="AU99">
         <v>1.42</v>
@@ -19988,7 +20009,7 @@
         <v>144</v>
       </c>
       <c r="P100" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="Q100">
         <v>3</v>
@@ -20078,7 +20099,7 @@
         <v>2.8</v>
       </c>
       <c r="AT100">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AU100">
         <v>1.81</v>
@@ -20179,7 +20200,7 @@
         <v>145</v>
       </c>
       <c r="P101" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="Q101">
         <v>6</v>
@@ -20266,10 +20287,10 @@
         <v>1.38</v>
       </c>
       <c r="AS101">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AT101">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AU101">
         <v>1.45</v>
@@ -20370,7 +20391,7 @@
         <v>146</v>
       </c>
       <c r="P102" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="Q102">
         <v>0</v>
@@ -20457,7 +20478,7 @@
         <v>1.75</v>
       </c>
       <c r="AS102">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AT102">
         <v>1.8</v>
@@ -20648,7 +20669,7 @@
         <v>0.75</v>
       </c>
       <c r="AS103">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AT103">
         <v>0.7</v>
@@ -20752,7 +20773,7 @@
         <v>85</v>
       </c>
       <c r="P104" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="Q104">
         <v>1</v>
@@ -20842,7 +20863,7 @@
         <v>0.6</v>
       </c>
       <c r="AT104">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AU104">
         <v>1.08</v>
@@ -21033,7 +21054,7 @@
         <v>1.3</v>
       </c>
       <c r="AT105">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AU105">
         <v>1.66</v>
@@ -21221,7 +21242,7 @@
         <v>2.38</v>
       </c>
       <c r="AS106">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AT106">
         <v>2</v>
@@ -21325,7 +21346,7 @@
         <v>81</v>
       </c>
       <c r="P107" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="Q107">
         <v>5</v>
@@ -21794,7 +21815,7 @@
         <v>0.88</v>
       </c>
       <c r="AS109">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AT109">
         <v>0.8</v>
@@ -21898,7 +21919,7 @@
         <v>150</v>
       </c>
       <c r="P110" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="Q110">
         <v>10</v>
@@ -21985,10 +22006,10 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AS110">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AT110">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AU110">
         <v>1.4</v>
@@ -22179,7 +22200,7 @@
         <v>2.8</v>
       </c>
       <c r="AT111">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AU111">
         <v>1.8</v>
@@ -22280,7 +22301,7 @@
         <v>85</v>
       </c>
       <c r="P112" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="Q112">
         <v>5</v>
@@ -22367,10 +22388,10 @@
         <v>1.22</v>
       </c>
       <c r="AS112">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AT112">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AU112">
         <v>1.34</v>
@@ -22558,10 +22579,10 @@
         <v>0.33</v>
       </c>
       <c r="AS113">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AT113">
-        <v>0.3</v>
+        <v>0.27</v>
       </c>
       <c r="AU113">
         <v>1.43</v>
@@ -22662,7 +22683,7 @@
         <v>124</v>
       </c>
       <c r="P114" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="Q114">
         <v>6</v>
@@ -22749,10 +22770,10 @@
         <v>0.78</v>
       </c>
       <c r="AS114">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AT114">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AU114">
         <v>1.42</v>
@@ -22853,7 +22874,7 @@
         <v>85</v>
       </c>
       <c r="P115" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="Q115">
         <v>5</v>
@@ -22940,7 +22961,7 @@
         <v>1.67</v>
       </c>
       <c r="AS115">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AT115">
         <v>1.8</v>
@@ -23235,7 +23256,7 @@
         <v>85</v>
       </c>
       <c r="P117" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="Q117">
         <v>5</v>
@@ -23325,7 +23346,7 @@
         <v>1.2</v>
       </c>
       <c r="AT117">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AU117">
         <v>1.15</v>
@@ -23426,7 +23447,7 @@
         <v>153</v>
       </c>
       <c r="P118" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="Q118">
         <v>9</v>
@@ -23513,7 +23534,7 @@
         <v>2.22</v>
       </c>
       <c r="AS118">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AT118">
         <v>2</v>
@@ -23617,7 +23638,7 @@
         <v>154</v>
       </c>
       <c r="P119" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="Q119">
         <v>4</v>
@@ -23808,7 +23829,7 @@
         <v>155</v>
       </c>
       <c r="P120" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="Q120">
         <v>6</v>
@@ -23999,7 +24020,7 @@
         <v>156</v>
       </c>
       <c r="P121" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="Q121">
         <v>2</v>
@@ -24141,6 +24162,1152 @@
       </c>
       <c r="BK121">
         <v>10</v>
+      </c>
+    </row>
+    <row r="122" spans="1:63">
+      <c r="A122" s="1">
+        <v>121</v>
+      </c>
+      <c r="B122">
+        <v>4933050</v>
+      </c>
+      <c r="C122" t="s">
+        <v>63</v>
+      </c>
+      <c r="D122" t="s">
+        <v>64</v>
+      </c>
+      <c r="E122" s="2">
+        <v>45079.85416666666</v>
+      </c>
+      <c r="F122">
+        <v>21</v>
+      </c>
+      <c r="G122" t="s">
+        <v>74</v>
+      </c>
+      <c r="H122" t="s">
+        <v>66</v>
+      </c>
+      <c r="I122">
+        <v>1</v>
+      </c>
+      <c r="J122">
+        <v>1</v>
+      </c>
+      <c r="K122">
+        <v>2</v>
+      </c>
+      <c r="L122">
+        <v>2</v>
+      </c>
+      <c r="M122">
+        <v>2</v>
+      </c>
+      <c r="N122">
+        <v>4</v>
+      </c>
+      <c r="O122" t="s">
+        <v>157</v>
+      </c>
+      <c r="P122" t="s">
+        <v>221</v>
+      </c>
+      <c r="Q122">
+        <v>1</v>
+      </c>
+      <c r="R122">
+        <v>14</v>
+      </c>
+      <c r="S122">
+        <v>15</v>
+      </c>
+      <c r="T122">
+        <v>0</v>
+      </c>
+      <c r="U122">
+        <v>0</v>
+      </c>
+      <c r="V122">
+        <v>0</v>
+      </c>
+      <c r="W122">
+        <v>0</v>
+      </c>
+      <c r="X122">
+        <v>0</v>
+      </c>
+      <c r="Y122">
+        <v>0</v>
+      </c>
+      <c r="Z122">
+        <v>0</v>
+      </c>
+      <c r="AA122">
+        <v>0</v>
+      </c>
+      <c r="AB122">
+        <v>0</v>
+      </c>
+      <c r="AC122">
+        <v>2.61</v>
+      </c>
+      <c r="AD122">
+        <v>3.2</v>
+      </c>
+      <c r="AE122">
+        <v>2.5</v>
+      </c>
+      <c r="AF122">
+        <v>0</v>
+      </c>
+      <c r="AG122">
+        <v>0</v>
+      </c>
+      <c r="AH122">
+        <v>0</v>
+      </c>
+      <c r="AI122">
+        <v>0</v>
+      </c>
+      <c r="AJ122">
+        <v>1.98</v>
+      </c>
+      <c r="AK122">
+        <v>1.74</v>
+      </c>
+      <c r="AL122">
+        <v>0</v>
+      </c>
+      <c r="AM122">
+        <v>0</v>
+      </c>
+      <c r="AN122">
+        <v>0</v>
+      </c>
+      <c r="AO122">
+        <v>0</v>
+      </c>
+      <c r="AP122">
+        <v>0</v>
+      </c>
+      <c r="AQ122">
+        <v>1.6</v>
+      </c>
+      <c r="AR122">
+        <v>1.4</v>
+      </c>
+      <c r="AS122">
+        <v>1.55</v>
+      </c>
+      <c r="AT122">
+        <v>1.36</v>
+      </c>
+      <c r="AU122">
+        <v>1.46</v>
+      </c>
+      <c r="AV122">
+        <v>1.35</v>
+      </c>
+      <c r="AW122">
+        <v>2.81</v>
+      </c>
+      <c r="AX122">
+        <v>0</v>
+      </c>
+      <c r="AY122">
+        <v>0</v>
+      </c>
+      <c r="AZ122">
+        <v>0</v>
+      </c>
+      <c r="BA122">
+        <v>0</v>
+      </c>
+      <c r="BB122">
+        <v>0</v>
+      </c>
+      <c r="BC122">
+        <v>0</v>
+      </c>
+      <c r="BD122">
+        <v>0</v>
+      </c>
+      <c r="BE122">
+        <v>0</v>
+      </c>
+      <c r="BF122">
+        <v>4</v>
+      </c>
+      <c r="BG122">
+        <v>4</v>
+      </c>
+      <c r="BH122">
+        <v>6</v>
+      </c>
+      <c r="BI122">
+        <v>3</v>
+      </c>
+      <c r="BJ122">
+        <v>10</v>
+      </c>
+      <c r="BK122">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="123" spans="1:63">
+      <c r="A123" s="1">
+        <v>122</v>
+      </c>
+      <c r="B123">
+        <v>4933046</v>
+      </c>
+      <c r="C123" t="s">
+        <v>63</v>
+      </c>
+      <c r="D123" t="s">
+        <v>64</v>
+      </c>
+      <c r="E123" s="2">
+        <v>45079.85416666666</v>
+      </c>
+      <c r="F123">
+        <v>21</v>
+      </c>
+      <c r="G123" t="s">
+        <v>69</v>
+      </c>
+      <c r="H123" t="s">
+        <v>65</v>
+      </c>
+      <c r="I123">
+        <v>1</v>
+      </c>
+      <c r="J123">
+        <v>0</v>
+      </c>
+      <c r="K123">
+        <v>1</v>
+      </c>
+      <c r="L123">
+        <v>2</v>
+      </c>
+      <c r="M123">
+        <v>0</v>
+      </c>
+      <c r="N123">
+        <v>2</v>
+      </c>
+      <c r="O123" t="s">
+        <v>158</v>
+      </c>
+      <c r="P123" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q123">
+        <v>3</v>
+      </c>
+      <c r="R123">
+        <v>3</v>
+      </c>
+      <c r="S123">
+        <v>6</v>
+      </c>
+      <c r="T123">
+        <v>0</v>
+      </c>
+      <c r="U123">
+        <v>0</v>
+      </c>
+      <c r="V123">
+        <v>0</v>
+      </c>
+      <c r="W123">
+        <v>0</v>
+      </c>
+      <c r="X123">
+        <v>0</v>
+      </c>
+      <c r="Y123">
+        <v>0</v>
+      </c>
+      <c r="Z123">
+        <v>0</v>
+      </c>
+      <c r="AA123">
+        <v>0</v>
+      </c>
+      <c r="AB123">
+        <v>0</v>
+      </c>
+      <c r="AC123">
+        <v>2.4</v>
+      </c>
+      <c r="AD123">
+        <v>3.2</v>
+      </c>
+      <c r="AE123">
+        <v>2.73</v>
+      </c>
+      <c r="AF123">
+        <v>0</v>
+      </c>
+      <c r="AG123">
+        <v>0</v>
+      </c>
+      <c r="AH123">
+        <v>0</v>
+      </c>
+      <c r="AI123">
+        <v>0</v>
+      </c>
+      <c r="AJ123">
+        <v>1.96</v>
+      </c>
+      <c r="AK123">
+        <v>1.75</v>
+      </c>
+      <c r="AL123">
+        <v>0</v>
+      </c>
+      <c r="AM123">
+        <v>0</v>
+      </c>
+      <c r="AN123">
+        <v>0</v>
+      </c>
+      <c r="AO123">
+        <v>0</v>
+      </c>
+      <c r="AP123">
+        <v>0</v>
+      </c>
+      <c r="AQ123">
+        <v>1.7</v>
+      </c>
+      <c r="AR123">
+        <v>2.2</v>
+      </c>
+      <c r="AS123">
+        <v>1.82</v>
+      </c>
+      <c r="AT123">
+        <v>2</v>
+      </c>
+      <c r="AU123">
+        <v>1.49</v>
+      </c>
+      <c r="AV123">
+        <v>1.56</v>
+      </c>
+      <c r="AW123">
+        <v>3.05</v>
+      </c>
+      <c r="AX123">
+        <v>0</v>
+      </c>
+      <c r="AY123">
+        <v>0</v>
+      </c>
+      <c r="AZ123">
+        <v>0</v>
+      </c>
+      <c r="BA123">
+        <v>0</v>
+      </c>
+      <c r="BB123">
+        <v>0</v>
+      </c>
+      <c r="BC123">
+        <v>0</v>
+      </c>
+      <c r="BD123">
+        <v>0</v>
+      </c>
+      <c r="BE123">
+        <v>0</v>
+      </c>
+      <c r="BF123">
+        <v>4</v>
+      </c>
+      <c r="BG123">
+        <v>2</v>
+      </c>
+      <c r="BH123">
+        <v>13</v>
+      </c>
+      <c r="BI123">
+        <v>1</v>
+      </c>
+      <c r="BJ123">
+        <v>17</v>
+      </c>
+      <c r="BK123">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="124" spans="1:63">
+      <c r="A124" s="1">
+        <v>123</v>
+      </c>
+      <c r="B124">
+        <v>4933048</v>
+      </c>
+      <c r="C124" t="s">
+        <v>63</v>
+      </c>
+      <c r="D124" t="s">
+        <v>64</v>
+      </c>
+      <c r="E124" s="2">
+        <v>45079.85416666666</v>
+      </c>
+      <c r="F124">
+        <v>21</v>
+      </c>
+      <c r="G124" t="s">
+        <v>72</v>
+      </c>
+      <c r="H124" t="s">
+        <v>70</v>
+      </c>
+      <c r="I124">
+        <v>1</v>
+      </c>
+      <c r="J124">
+        <v>1</v>
+      </c>
+      <c r="K124">
+        <v>2</v>
+      </c>
+      <c r="L124">
+        <v>1</v>
+      </c>
+      <c r="M124">
+        <v>2</v>
+      </c>
+      <c r="N124">
+        <v>3</v>
+      </c>
+      <c r="O124" t="s">
+        <v>159</v>
+      </c>
+      <c r="P124" t="s">
+        <v>222</v>
+      </c>
+      <c r="Q124">
+        <v>3</v>
+      </c>
+      <c r="R124">
+        <v>4</v>
+      </c>
+      <c r="S124">
+        <v>7</v>
+      </c>
+      <c r="T124">
+        <v>0</v>
+      </c>
+      <c r="U124">
+        <v>0</v>
+      </c>
+      <c r="V124">
+        <v>0</v>
+      </c>
+      <c r="W124">
+        <v>0</v>
+      </c>
+      <c r="X124">
+        <v>0</v>
+      </c>
+      <c r="Y124">
+        <v>0</v>
+      </c>
+      <c r="Z124">
+        <v>0</v>
+      </c>
+      <c r="AA124">
+        <v>0</v>
+      </c>
+      <c r="AB124">
+        <v>0</v>
+      </c>
+      <c r="AC124">
+        <v>2.83</v>
+      </c>
+      <c r="AD124">
+        <v>3</v>
+      </c>
+      <c r="AE124">
+        <v>2.45</v>
+      </c>
+      <c r="AF124">
+        <v>0</v>
+      </c>
+      <c r="AG124">
+        <v>0</v>
+      </c>
+      <c r="AH124">
+        <v>0</v>
+      </c>
+      <c r="AI124">
+        <v>0</v>
+      </c>
+      <c r="AJ124">
+        <v>1.96</v>
+      </c>
+      <c r="AK124">
+        <v>1.75</v>
+      </c>
+      <c r="AL124">
+        <v>0</v>
+      </c>
+      <c r="AM124">
+        <v>0</v>
+      </c>
+      <c r="AN124">
+        <v>0</v>
+      </c>
+      <c r="AO124">
+        <v>0</v>
+      </c>
+      <c r="AP124">
+        <v>0</v>
+      </c>
+      <c r="AQ124">
+        <v>1.6</v>
+      </c>
+      <c r="AR124">
+        <v>1.2</v>
+      </c>
+      <c r="AS124">
+        <v>1.45</v>
+      </c>
+      <c r="AT124">
+        <v>1.36</v>
+      </c>
+      <c r="AU124">
+        <v>1.28</v>
+      </c>
+      <c r="AV124">
+        <v>1.39</v>
+      </c>
+      <c r="AW124">
+        <v>2.67</v>
+      </c>
+      <c r="AX124">
+        <v>0</v>
+      </c>
+      <c r="AY124">
+        <v>0</v>
+      </c>
+      <c r="AZ124">
+        <v>0</v>
+      </c>
+      <c r="BA124">
+        <v>0</v>
+      </c>
+      <c r="BB124">
+        <v>0</v>
+      </c>
+      <c r="BC124">
+        <v>0</v>
+      </c>
+      <c r="BD124">
+        <v>0</v>
+      </c>
+      <c r="BE124">
+        <v>0</v>
+      </c>
+      <c r="BF124">
+        <v>5</v>
+      </c>
+      <c r="BG124">
+        <v>6</v>
+      </c>
+      <c r="BH124">
+        <v>2</v>
+      </c>
+      <c r="BI124">
+        <v>4</v>
+      </c>
+      <c r="BJ124">
+        <v>7</v>
+      </c>
+      <c r="BK124">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="125" spans="1:63">
+      <c r="A125" s="1">
+        <v>124</v>
+      </c>
+      <c r="B125">
+        <v>4933047</v>
+      </c>
+      <c r="C125" t="s">
+        <v>63</v>
+      </c>
+      <c r="D125" t="s">
+        <v>64</v>
+      </c>
+      <c r="E125" s="2">
+        <v>45080.72916666666</v>
+      </c>
+      <c r="F125">
+        <v>21</v>
+      </c>
+      <c r="G125" t="s">
+        <v>75</v>
+      </c>
+      <c r="H125" t="s">
+        <v>68</v>
+      </c>
+      <c r="I125">
+        <v>0</v>
+      </c>
+      <c r="J125">
+        <v>1</v>
+      </c>
+      <c r="K125">
+        <v>1</v>
+      </c>
+      <c r="L125">
+        <v>0</v>
+      </c>
+      <c r="M125">
+        <v>1</v>
+      </c>
+      <c r="N125">
+        <v>1</v>
+      </c>
+      <c r="O125" t="s">
+        <v>85</v>
+      </c>
+      <c r="P125" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q125">
+        <v>8</v>
+      </c>
+      <c r="R125">
+        <v>2</v>
+      </c>
+      <c r="S125">
+        <v>10</v>
+      </c>
+      <c r="T125">
+        <v>0</v>
+      </c>
+      <c r="U125">
+        <v>0</v>
+      </c>
+      <c r="V125">
+        <v>0</v>
+      </c>
+      <c r="W125">
+        <v>0</v>
+      </c>
+      <c r="X125">
+        <v>0</v>
+      </c>
+      <c r="Y125">
+        <v>0</v>
+      </c>
+      <c r="Z125">
+        <v>0</v>
+      </c>
+      <c r="AA125">
+        <v>0</v>
+      </c>
+      <c r="AB125">
+        <v>0</v>
+      </c>
+      <c r="AC125">
+        <v>1.95</v>
+      </c>
+      <c r="AD125">
+        <v>3.25</v>
+      </c>
+      <c r="AE125">
+        <v>3.4</v>
+      </c>
+      <c r="AF125">
+        <v>0</v>
+      </c>
+      <c r="AG125">
+        <v>0</v>
+      </c>
+      <c r="AH125">
+        <v>0</v>
+      </c>
+      <c r="AI125">
+        <v>0</v>
+      </c>
+      <c r="AJ125">
+        <v>1.8</v>
+      </c>
+      <c r="AK125">
+        <v>1.91</v>
+      </c>
+      <c r="AL125">
+        <v>0</v>
+      </c>
+      <c r="AM125">
+        <v>0</v>
+      </c>
+      <c r="AN125">
+        <v>0</v>
+      </c>
+      <c r="AO125">
+        <v>0</v>
+      </c>
+      <c r="AP125">
+        <v>0</v>
+      </c>
+      <c r="AQ125">
+        <v>1.3</v>
+      </c>
+      <c r="AR125">
+        <v>0.8</v>
+      </c>
+      <c r="AS125">
+        <v>1.18</v>
+      </c>
+      <c r="AT125">
+        <v>1</v>
+      </c>
+      <c r="AU125">
+        <v>1.49</v>
+      </c>
+      <c r="AV125">
+        <v>1.26</v>
+      </c>
+      <c r="AW125">
+        <v>2.75</v>
+      </c>
+      <c r="AX125">
+        <v>0</v>
+      </c>
+      <c r="AY125">
+        <v>0</v>
+      </c>
+      <c r="AZ125">
+        <v>0</v>
+      </c>
+      <c r="BA125">
+        <v>0</v>
+      </c>
+      <c r="BB125">
+        <v>0</v>
+      </c>
+      <c r="BC125">
+        <v>0</v>
+      </c>
+      <c r="BD125">
+        <v>0</v>
+      </c>
+      <c r="BE125">
+        <v>0</v>
+      </c>
+      <c r="BF125">
+        <v>3</v>
+      </c>
+      <c r="BG125">
+        <v>3</v>
+      </c>
+      <c r="BH125">
+        <v>9</v>
+      </c>
+      <c r="BI125">
+        <v>5</v>
+      </c>
+      <c r="BJ125">
+        <v>12</v>
+      </c>
+      <c r="BK125">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="126" spans="1:63">
+      <c r="A126" s="1">
+        <v>125</v>
+      </c>
+      <c r="B126">
+        <v>4933051</v>
+      </c>
+      <c r="C126" t="s">
+        <v>63</v>
+      </c>
+      <c r="D126" t="s">
+        <v>64</v>
+      </c>
+      <c r="E126" s="2">
+        <v>45080.83333333334</v>
+      </c>
+      <c r="F126">
+        <v>21</v>
+      </c>
+      <c r="G126" t="s">
+        <v>76</v>
+      </c>
+      <c r="H126" t="s">
+        <v>71</v>
+      </c>
+      <c r="I126">
+        <v>1</v>
+      </c>
+      <c r="J126">
+        <v>0</v>
+      </c>
+      <c r="K126">
+        <v>1</v>
+      </c>
+      <c r="L126">
+        <v>2</v>
+      </c>
+      <c r="M126">
+        <v>0</v>
+      </c>
+      <c r="N126">
+        <v>2</v>
+      </c>
+      <c r="O126" t="s">
+        <v>160</v>
+      </c>
+      <c r="P126" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q126">
+        <v>4</v>
+      </c>
+      <c r="R126">
+        <v>3</v>
+      </c>
+      <c r="S126">
+        <v>7</v>
+      </c>
+      <c r="T126">
+        <v>0</v>
+      </c>
+      <c r="U126">
+        <v>0</v>
+      </c>
+      <c r="V126">
+        <v>0</v>
+      </c>
+      <c r="W126">
+        <v>0</v>
+      </c>
+      <c r="X126">
+        <v>0</v>
+      </c>
+      <c r="Y126">
+        <v>0</v>
+      </c>
+      <c r="Z126">
+        <v>0</v>
+      </c>
+      <c r="AA126">
+        <v>0</v>
+      </c>
+      <c r="AB126">
+        <v>0</v>
+      </c>
+      <c r="AC126">
+        <v>1.57</v>
+      </c>
+      <c r="AD126">
+        <v>3.3</v>
+      </c>
+      <c r="AE126">
+        <v>5.5</v>
+      </c>
+      <c r="AF126">
+        <v>0</v>
+      </c>
+      <c r="AG126">
+        <v>0</v>
+      </c>
+      <c r="AH126">
+        <v>0</v>
+      </c>
+      <c r="AI126">
+        <v>0</v>
+      </c>
+      <c r="AJ126">
+        <v>2.3</v>
+      </c>
+      <c r="AK126">
+        <v>1.57</v>
+      </c>
+      <c r="AL126">
+        <v>0</v>
+      </c>
+      <c r="AM126">
+        <v>0</v>
+      </c>
+      <c r="AN126">
+        <v>0</v>
+      </c>
+      <c r="AO126">
+        <v>0</v>
+      </c>
+      <c r="AP126">
+        <v>0</v>
+      </c>
+      <c r="AQ126">
+        <v>1.2</v>
+      </c>
+      <c r="AR126">
+        <v>0.3</v>
+      </c>
+      <c r="AS126">
+        <v>1.36</v>
+      </c>
+      <c r="AT126">
+        <v>0.27</v>
+      </c>
+      <c r="AU126">
+        <v>1.49</v>
+      </c>
+      <c r="AV126">
+        <v>1.31</v>
+      </c>
+      <c r="AW126">
+        <v>2.8</v>
+      </c>
+      <c r="AX126">
+        <v>0</v>
+      </c>
+      <c r="AY126">
+        <v>0</v>
+      </c>
+      <c r="AZ126">
+        <v>0</v>
+      </c>
+      <c r="BA126">
+        <v>0</v>
+      </c>
+      <c r="BB126">
+        <v>0</v>
+      </c>
+      <c r="BC126">
+        <v>0</v>
+      </c>
+      <c r="BD126">
+        <v>0</v>
+      </c>
+      <c r="BE126">
+        <v>0</v>
+      </c>
+      <c r="BF126">
+        <v>3</v>
+      </c>
+      <c r="BG126">
+        <v>4</v>
+      </c>
+      <c r="BH126">
+        <v>10</v>
+      </c>
+      <c r="BI126">
+        <v>6</v>
+      </c>
+      <c r="BJ126">
+        <v>13</v>
+      </c>
+      <c r="BK126">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="127" spans="1:63">
+      <c r="A127" s="1">
+        <v>126</v>
+      </c>
+      <c r="B127">
+        <v>4933049</v>
+      </c>
+      <c r="C127" t="s">
+        <v>63</v>
+      </c>
+      <c r="D127" t="s">
+        <v>64</v>
+      </c>
+      <c r="E127" s="2">
+        <v>45081.77083333334</v>
+      </c>
+      <c r="F127">
+        <v>21</v>
+      </c>
+      <c r="G127" t="s">
+        <v>73</v>
+      </c>
+      <c r="H127" t="s">
+        <v>67</v>
+      </c>
+      <c r="I127">
+        <v>0</v>
+      </c>
+      <c r="J127">
+        <v>2</v>
+      </c>
+      <c r="K127">
+        <v>2</v>
+      </c>
+      <c r="L127">
+        <v>0</v>
+      </c>
+      <c r="M127">
+        <v>2</v>
+      </c>
+      <c r="N127">
+        <v>2</v>
+      </c>
+      <c r="O127" t="s">
+        <v>85</v>
+      </c>
+      <c r="P127" t="s">
+        <v>223</v>
+      </c>
+      <c r="Q127">
+        <v>8</v>
+      </c>
+      <c r="R127">
+        <v>4</v>
+      </c>
+      <c r="S127">
+        <v>12</v>
+      </c>
+      <c r="T127">
+        <v>0</v>
+      </c>
+      <c r="U127">
+        <v>0</v>
+      </c>
+      <c r="V127">
+        <v>0</v>
+      </c>
+      <c r="W127">
+        <v>0</v>
+      </c>
+      <c r="X127">
+        <v>0</v>
+      </c>
+      <c r="Y127">
+        <v>0</v>
+      </c>
+      <c r="Z127">
+        <v>0</v>
+      </c>
+      <c r="AA127">
+        <v>0</v>
+      </c>
+      <c r="AB127">
+        <v>0</v>
+      </c>
+      <c r="AC127">
+        <v>2.18</v>
+      </c>
+      <c r="AD127">
+        <v>3.28</v>
+      </c>
+      <c r="AE127">
+        <v>3.24</v>
+      </c>
+      <c r="AF127">
+        <v>0</v>
+      </c>
+      <c r="AG127">
+        <v>0</v>
+      </c>
+      <c r="AH127">
+        <v>0</v>
+      </c>
+      <c r="AI127">
+        <v>0</v>
+      </c>
+      <c r="AJ127">
+        <v>2.1</v>
+      </c>
+      <c r="AK127">
+        <v>1.69</v>
+      </c>
+      <c r="AL127">
+        <v>0</v>
+      </c>
+      <c r="AM127">
+        <v>0</v>
+      </c>
+      <c r="AN127">
+        <v>0</v>
+      </c>
+      <c r="AO127">
+        <v>0</v>
+      </c>
+      <c r="AP127">
+        <v>0</v>
+      </c>
+      <c r="AQ127">
+        <v>0.9</v>
+      </c>
+      <c r="AR127">
+        <v>0.8</v>
+      </c>
+      <c r="AS127">
+        <v>0.82</v>
+      </c>
+      <c r="AT127">
+        <v>1</v>
+      </c>
+      <c r="AU127">
+        <v>1.51</v>
+      </c>
+      <c r="AV127">
+        <v>1.17</v>
+      </c>
+      <c r="AW127">
+        <v>2.68</v>
+      </c>
+      <c r="AX127">
+        <v>0</v>
+      </c>
+      <c r="AY127">
+        <v>0</v>
+      </c>
+      <c r="AZ127">
+        <v>0</v>
+      </c>
+      <c r="BA127">
+        <v>0</v>
+      </c>
+      <c r="BB127">
+        <v>0</v>
+      </c>
+      <c r="BC127">
+        <v>0</v>
+      </c>
+      <c r="BD127">
+        <v>0</v>
+      </c>
+      <c r="BE127">
+        <v>0</v>
+      </c>
+      <c r="BF127">
+        <v>6</v>
+      </c>
+      <c r="BG127">
+        <v>4</v>
+      </c>
+      <c r="BH127">
+        <v>6</v>
+      </c>
+      <c r="BI127">
+        <v>2</v>
+      </c>
+      <c r="BJ127">
+        <v>12</v>
+      </c>
+      <c r="BK127">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Paraguay Division Profesional_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Paraguay Division Profesional_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="819" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="831" uniqueCount="225">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -499,6 +499,9 @@
     <t>['12', '77']</t>
   </si>
   <si>
+    <t>['84']</t>
+  </si>
+  <si>
     <t>['39', '47', '68']</t>
   </si>
   <si>
@@ -560,9 +563,6 @@
   </si>
   <si>
     <t>['62', '73']</t>
-  </si>
-  <si>
-    <t>['84']</t>
   </si>
   <si>
     <t>['18', '23']</t>
@@ -686,6 +686,9 @@
   </si>
   <si>
     <t>['28', '45+3']</t>
+  </si>
+  <si>
+    <t>['50', '89']</t>
   </si>
 </sst>
 </file>
@@ -1047,7 +1050,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK127"/>
+  <dimension ref="A1:BK129"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1378,7 +1381,7 @@
         <v>0</v>
       </c>
       <c r="AS2">
-        <v>2.8</v>
+        <v>2.64</v>
       </c>
       <c r="AT2">
         <v>1.6</v>
@@ -1673,7 +1676,7 @@
         <v>79</v>
       </c>
       <c r="P4" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q4">
         <v>4</v>
@@ -1760,7 +1763,7 @@
         <v>0</v>
       </c>
       <c r="AS4">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AT4">
         <v>1.8</v>
@@ -2055,7 +2058,7 @@
         <v>81</v>
       </c>
       <c r="P6" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q6">
         <v>3</v>
@@ -2145,7 +2148,7 @@
         <v>1.82</v>
       </c>
       <c r="AT6">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AU6">
         <v>0</v>
@@ -2246,7 +2249,7 @@
         <v>82</v>
       </c>
       <c r="P7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q7">
         <v>3</v>
@@ -2336,7 +2339,7 @@
         <v>1.3</v>
       </c>
       <c r="AT7">
-        <v>0.7</v>
+        <v>0.91</v>
       </c>
       <c r="AU7">
         <v>0</v>
@@ -2437,7 +2440,7 @@
         <v>83</v>
       </c>
       <c r="P8" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q8">
         <v>9</v>
@@ -2628,7 +2631,7 @@
         <v>84</v>
       </c>
       <c r="P9" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q9">
         <v>4</v>
@@ -2718,7 +2721,7 @@
         <v>1.45</v>
       </c>
       <c r="AT9">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AU9">
         <v>0</v>
@@ -2819,7 +2822,7 @@
         <v>85</v>
       </c>
       <c r="P10" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q10">
         <v>6</v>
@@ -3010,7 +3013,7 @@
         <v>85</v>
       </c>
       <c r="P11" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q11">
         <v>3</v>
@@ -3392,7 +3395,7 @@
         <v>85</v>
       </c>
       <c r="P13" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q13">
         <v>5</v>
@@ -3583,7 +3586,7 @@
         <v>87</v>
       </c>
       <c r="P14" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q14">
         <v>3</v>
@@ -3670,10 +3673,10 @@
         <v>0</v>
       </c>
       <c r="AS14">
-        <v>2.8</v>
+        <v>2.64</v>
       </c>
       <c r="AT14">
-        <v>0.7</v>
+        <v>0.91</v>
       </c>
       <c r="AU14">
         <v>0</v>
@@ -3774,7 +3777,7 @@
         <v>85</v>
       </c>
       <c r="P15" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q15">
         <v>5</v>
@@ -4156,7 +4159,7 @@
         <v>89</v>
       </c>
       <c r="P17" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q17">
         <v>4</v>
@@ -4243,7 +4246,7 @@
         <v>0</v>
       </c>
       <c r="AS17">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AT17">
         <v>1.36</v>
@@ -4538,7 +4541,7 @@
         <v>85</v>
       </c>
       <c r="P19" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q19">
         <v>1</v>
@@ -4729,7 +4732,7 @@
         <v>85</v>
       </c>
       <c r="P20" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q20">
         <v>0</v>
@@ -4816,7 +4819,7 @@
         <v>3</v>
       </c>
       <c r="AS20">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AT20">
         <v>2</v>
@@ -4920,7 +4923,7 @@
         <v>91</v>
       </c>
       <c r="P21" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q21">
         <v>5</v>
@@ -5111,7 +5114,7 @@
         <v>92</v>
       </c>
       <c r="P22" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q22">
         <v>3</v>
@@ -5302,7 +5305,7 @@
         <v>93</v>
       </c>
       <c r="P23" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q23">
         <v>9</v>
@@ -5583,7 +5586,7 @@
         <v>1.55</v>
       </c>
       <c r="AT24">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AU24">
         <v>1.41</v>
@@ -6156,7 +6159,7 @@
         <v>1.45</v>
       </c>
       <c r="AT27">
-        <v>0.7</v>
+        <v>0.91</v>
       </c>
       <c r="AU27">
         <v>1.22</v>
@@ -6344,7 +6347,7 @@
         <v>0</v>
       </c>
       <c r="AS28">
-        <v>2.8</v>
+        <v>2.64</v>
       </c>
       <c r="AT28">
         <v>0.27</v>
@@ -6448,7 +6451,7 @@
         <v>79</v>
       </c>
       <c r="P29" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q29">
         <v>5</v>
@@ -6830,7 +6833,7 @@
         <v>93</v>
       </c>
       <c r="P31" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q31">
         <v>2</v>
@@ -6920,7 +6923,7 @@
         <v>1.1</v>
       </c>
       <c r="AT31">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AU31">
         <v>1.34</v>
@@ -7108,7 +7111,7 @@
         <v>1</v>
       </c>
       <c r="AS32">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AT32">
         <v>1</v>
@@ -7212,7 +7215,7 @@
         <v>85</v>
       </c>
       <c r="P33" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q33">
         <v>5</v>
@@ -7403,7 +7406,7 @@
         <v>99</v>
       </c>
       <c r="P34" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q34">
         <v>4</v>
@@ -7785,7 +7788,7 @@
         <v>101</v>
       </c>
       <c r="P36" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q36">
         <v>4</v>
@@ -7976,7 +7979,7 @@
         <v>102</v>
       </c>
       <c r="P37" t="s">
-        <v>182</v>
+        <v>161</v>
       </c>
       <c r="Q37">
         <v>3</v>
@@ -8254,7 +8257,7 @@
         <v>2</v>
       </c>
       <c r="AS38">
-        <v>2.8</v>
+        <v>2.64</v>
       </c>
       <c r="AT38">
         <v>1</v>
@@ -9021,7 +9024,7 @@
         <v>1.82</v>
       </c>
       <c r="AT42">
-        <v>0.7</v>
+        <v>0.91</v>
       </c>
       <c r="AU42">
         <v>1.51</v>
@@ -9400,10 +9403,10 @@
         <v>1.5</v>
       </c>
       <c r="AS44">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AT44">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AU44">
         <v>0.84</v>
@@ -9594,7 +9597,7 @@
         <v>1.36</v>
       </c>
       <c r="AT45">
-        <v>0.7</v>
+        <v>0.91</v>
       </c>
       <c r="AU45">
         <v>1.06</v>
@@ -11501,7 +11504,7 @@
         <v>1</v>
       </c>
       <c r="AS55">
-        <v>2.8</v>
+        <v>2.64</v>
       </c>
       <c r="AT55">
         <v>1</v>
@@ -11796,7 +11799,7 @@
         <v>85</v>
       </c>
       <c r="P57" t="s">
-        <v>182</v>
+        <v>161</v>
       </c>
       <c r="Q57">
         <v>4</v>
@@ -12077,7 +12080,7 @@
         <v>2</v>
       </c>
       <c r="AT58">
-        <v>0.7</v>
+        <v>0.91</v>
       </c>
       <c r="AU58">
         <v>1.24</v>
@@ -12265,7 +12268,7 @@
         <v>0.8</v>
       </c>
       <c r="AS59">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AT59">
         <v>0.8</v>
@@ -12456,7 +12459,7 @@
         <v>2.5</v>
       </c>
       <c r="AS60">
-        <v>2.8</v>
+        <v>2.64</v>
       </c>
       <c r="AT60">
         <v>2</v>
@@ -12650,7 +12653,7 @@
         <v>1.2</v>
       </c>
       <c r="AT61">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AU61">
         <v>1.02</v>
@@ -14852,7 +14855,7 @@
         <v>115</v>
       </c>
       <c r="P73" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q73">
         <v>6</v>
@@ -15130,7 +15133,7 @@
         <v>0</v>
       </c>
       <c r="AS74">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AT74">
         <v>0.27</v>
@@ -15894,7 +15897,7 @@
         <v>1.17</v>
       </c>
       <c r="AS78">
-        <v>2.8</v>
+        <v>2.64</v>
       </c>
       <c r="AT78">
         <v>0.8</v>
@@ -16088,7 +16091,7 @@
         <v>1.2</v>
       </c>
       <c r="AT79">
-        <v>0.7</v>
+        <v>0.91</v>
       </c>
       <c r="AU79">
         <v>1.02</v>
@@ -16470,7 +16473,7 @@
         <v>0.82</v>
       </c>
       <c r="AT81">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AU81">
         <v>1.43</v>
@@ -18186,7 +18189,7 @@
         <v>2</v>
       </c>
       <c r="AS90">
-        <v>2.8</v>
+        <v>2.64</v>
       </c>
       <c r="AT90">
         <v>1.8</v>
@@ -18380,7 +18383,7 @@
         <v>1.18</v>
       </c>
       <c r="AT91">
-        <v>0.7</v>
+        <v>0.91</v>
       </c>
       <c r="AU91">
         <v>1.47</v>
@@ -18571,7 +18574,7 @@
         <v>1.36</v>
       </c>
       <c r="AT92">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AU92">
         <v>1.44</v>
@@ -19332,7 +19335,7 @@
         <v>1.57</v>
       </c>
       <c r="AS96">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AT96">
         <v>1.36</v>
@@ -20096,7 +20099,7 @@
         <v>1.38</v>
       </c>
       <c r="AS100">
-        <v>2.8</v>
+        <v>2.64</v>
       </c>
       <c r="AT100">
         <v>1.36</v>
@@ -20672,7 +20675,7 @@
         <v>0.82</v>
       </c>
       <c r="AT103">
-        <v>0.7</v>
+        <v>0.91</v>
       </c>
       <c r="AU103">
         <v>1.34</v>
@@ -20860,7 +20863,7 @@
         <v>2</v>
       </c>
       <c r="AS104">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AT104">
         <v>2</v>
@@ -21627,7 +21630,7 @@
         <v>2</v>
       </c>
       <c r="AT108">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AU108">
         <v>1.28</v>
@@ -22197,7 +22200,7 @@
         <v>1.33</v>
       </c>
       <c r="AS111">
-        <v>2.8</v>
+        <v>2.64</v>
       </c>
       <c r="AT111">
         <v>1.36</v>
@@ -23725,7 +23728,7 @@
         <v>1.67</v>
       </c>
       <c r="AS119">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AT119">
         <v>1.6</v>
@@ -23919,7 +23922,7 @@
         <v>1.3</v>
       </c>
       <c r="AT120">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AU120">
         <v>1.68</v>
@@ -24110,7 +24113,7 @@
         <v>1.1</v>
       </c>
       <c r="AT121">
-        <v>0.7</v>
+        <v>0.91</v>
       </c>
       <c r="AU121">
         <v>1.24</v>
@@ -25308,6 +25311,388 @@
       </c>
       <c r="BK127">
         <v>6</v>
+      </c>
+    </row>
+    <row r="128" spans="1:63">
+      <c r="A128" s="1">
+        <v>127</v>
+      </c>
+      <c r="B128">
+        <v>4933054</v>
+      </c>
+      <c r="C128" t="s">
+        <v>63</v>
+      </c>
+      <c r="D128" t="s">
+        <v>64</v>
+      </c>
+      <c r="E128" s="2">
+        <v>45086.75</v>
+      </c>
+      <c r="F128">
+        <v>22</v>
+      </c>
+      <c r="G128" t="s">
+        <v>67</v>
+      </c>
+      <c r="H128" t="s">
+        <v>74</v>
+      </c>
+      <c r="I128">
+        <v>0</v>
+      </c>
+      <c r="J128">
+        <v>0</v>
+      </c>
+      <c r="K128">
+        <v>0</v>
+      </c>
+      <c r="L128">
+        <v>0</v>
+      </c>
+      <c r="M128">
+        <v>2</v>
+      </c>
+      <c r="N128">
+        <v>2</v>
+      </c>
+      <c r="O128" t="s">
+        <v>85</v>
+      </c>
+      <c r="P128" t="s">
+        <v>224</v>
+      </c>
+      <c r="Q128">
+        <v>1</v>
+      </c>
+      <c r="R128">
+        <v>4</v>
+      </c>
+      <c r="S128">
+        <v>5</v>
+      </c>
+      <c r="T128">
+        <v>0</v>
+      </c>
+      <c r="U128">
+        <v>0</v>
+      </c>
+      <c r="V128">
+        <v>0</v>
+      </c>
+      <c r="W128">
+        <v>0</v>
+      </c>
+      <c r="X128">
+        <v>0</v>
+      </c>
+      <c r="Y128">
+        <v>0</v>
+      </c>
+      <c r="Z128">
+        <v>0</v>
+      </c>
+      <c r="AA128">
+        <v>0</v>
+      </c>
+      <c r="AB128">
+        <v>0</v>
+      </c>
+      <c r="AC128">
+        <v>2.7</v>
+      </c>
+      <c r="AD128">
+        <v>3.3</v>
+      </c>
+      <c r="AE128">
+        <v>2.38</v>
+      </c>
+      <c r="AF128">
+        <v>0</v>
+      </c>
+      <c r="AG128">
+        <v>0</v>
+      </c>
+      <c r="AH128">
+        <v>0</v>
+      </c>
+      <c r="AI128">
+        <v>0</v>
+      </c>
+      <c r="AJ128">
+        <v>2.2</v>
+      </c>
+      <c r="AK128">
+        <v>1.62</v>
+      </c>
+      <c r="AL128">
+        <v>0</v>
+      </c>
+      <c r="AM128">
+        <v>0</v>
+      </c>
+      <c r="AN128">
+        <v>0</v>
+      </c>
+      <c r="AO128">
+        <v>0</v>
+      </c>
+      <c r="AP128">
+        <v>0</v>
+      </c>
+      <c r="AQ128">
+        <v>0.6</v>
+      </c>
+      <c r="AR128">
+        <v>0.7</v>
+      </c>
+      <c r="AS128">
+        <v>0.55</v>
+      </c>
+      <c r="AT128">
+        <v>0.91</v>
+      </c>
+      <c r="AU128">
+        <v>1.09</v>
+      </c>
+      <c r="AV128">
+        <v>1.32</v>
+      </c>
+      <c r="AW128">
+        <v>2.41</v>
+      </c>
+      <c r="AX128">
+        <v>0</v>
+      </c>
+      <c r="AY128">
+        <v>0</v>
+      </c>
+      <c r="AZ128">
+        <v>0</v>
+      </c>
+      <c r="BA128">
+        <v>0</v>
+      </c>
+      <c r="BB128">
+        <v>0</v>
+      </c>
+      <c r="BC128">
+        <v>0</v>
+      </c>
+      <c r="BD128">
+        <v>0</v>
+      </c>
+      <c r="BE128">
+        <v>0</v>
+      </c>
+      <c r="BF128">
+        <v>0</v>
+      </c>
+      <c r="BG128">
+        <v>2</v>
+      </c>
+      <c r="BH128">
+        <v>5</v>
+      </c>
+      <c r="BI128">
+        <v>2</v>
+      </c>
+      <c r="BJ128">
+        <v>5</v>
+      </c>
+      <c r="BK128">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="129" spans="1:63">
+      <c r="A129" s="1">
+        <v>128</v>
+      </c>
+      <c r="B129">
+        <v>4933057</v>
+      </c>
+      <c r="C129" t="s">
+        <v>63</v>
+      </c>
+      <c r="D129" t="s">
+        <v>64</v>
+      </c>
+      <c r="E129" s="2">
+        <v>45086.85416666666</v>
+      </c>
+      <c r="F129">
+        <v>22</v>
+      </c>
+      <c r="G129" t="s">
+        <v>65</v>
+      </c>
+      <c r="H129" t="s">
+        <v>75</v>
+      </c>
+      <c r="I129">
+        <v>0</v>
+      </c>
+      <c r="J129">
+        <v>1</v>
+      </c>
+      <c r="K129">
+        <v>1</v>
+      </c>
+      <c r="L129">
+        <v>1</v>
+      </c>
+      <c r="M129">
+        <v>1</v>
+      </c>
+      <c r="N129">
+        <v>2</v>
+      </c>
+      <c r="O129" t="s">
+        <v>161</v>
+      </c>
+      <c r="P129" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q129">
+        <v>1</v>
+      </c>
+      <c r="R129">
+        <v>3</v>
+      </c>
+      <c r="S129">
+        <v>4</v>
+      </c>
+      <c r="T129">
+        <v>0</v>
+      </c>
+      <c r="U129">
+        <v>0</v>
+      </c>
+      <c r="V129">
+        <v>0</v>
+      </c>
+      <c r="W129">
+        <v>0</v>
+      </c>
+      <c r="X129">
+        <v>0</v>
+      </c>
+      <c r="Y129">
+        <v>0</v>
+      </c>
+      <c r="Z129">
+        <v>0</v>
+      </c>
+      <c r="AA129">
+        <v>0</v>
+      </c>
+      <c r="AB129">
+        <v>0</v>
+      </c>
+      <c r="AC129">
+        <v>1.3</v>
+      </c>
+      <c r="AD129">
+        <v>4.75</v>
+      </c>
+      <c r="AE129">
+        <v>8</v>
+      </c>
+      <c r="AF129">
+        <v>0</v>
+      </c>
+      <c r="AG129">
+        <v>0</v>
+      </c>
+      <c r="AH129">
+        <v>0</v>
+      </c>
+      <c r="AI129">
+        <v>0</v>
+      </c>
+      <c r="AJ129">
+        <v>1.75</v>
+      </c>
+      <c r="AK129">
+        <v>2</v>
+      </c>
+      <c r="AL129">
+        <v>0</v>
+      </c>
+      <c r="AM129">
+        <v>0</v>
+      </c>
+      <c r="AN129">
+        <v>0</v>
+      </c>
+      <c r="AO129">
+        <v>0</v>
+      </c>
+      <c r="AP129">
+        <v>0</v>
+      </c>
+      <c r="AQ129">
+        <v>2.8</v>
+      </c>
+      <c r="AR129">
+        <v>1.6</v>
+      </c>
+      <c r="AS129">
+        <v>2.64</v>
+      </c>
+      <c r="AT129">
+        <v>1.55</v>
+      </c>
+      <c r="AU129">
+        <v>1.75</v>
+      </c>
+      <c r="AV129">
+        <v>1.37</v>
+      </c>
+      <c r="AW129">
+        <v>3.12</v>
+      </c>
+      <c r="AX129">
+        <v>0</v>
+      </c>
+      <c r="AY129">
+        <v>0</v>
+      </c>
+      <c r="AZ129">
+        <v>0</v>
+      </c>
+      <c r="BA129">
+        <v>0</v>
+      </c>
+      <c r="BB129">
+        <v>0</v>
+      </c>
+      <c r="BC129">
+        <v>0</v>
+      </c>
+      <c r="BD129">
+        <v>0</v>
+      </c>
+      <c r="BE129">
+        <v>0</v>
+      </c>
+      <c r="BF129">
+        <v>0</v>
+      </c>
+      <c r="BG129">
+        <v>3</v>
+      </c>
+      <c r="BH129">
+        <v>3</v>
+      </c>
+      <c r="BI129">
+        <v>2</v>
+      </c>
+      <c r="BJ129">
+        <v>3</v>
+      </c>
+      <c r="BK129">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Paraguay Division Profesional_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Paraguay Division Profesional_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="831" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="843" uniqueCount="226">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -500,6 +500,9 @@
   </si>
   <si>
     <t>['84']</t>
+  </si>
+  <si>
+    <t>['45+2', '47']</t>
   </si>
   <si>
     <t>['39', '47', '68']</t>
@@ -1050,7 +1053,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK129"/>
+  <dimension ref="A1:BK131"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1384,7 +1387,7 @@
         <v>2.64</v>
       </c>
       <c r="AT2">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AU2">
         <v>0</v>
@@ -1572,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="AS3">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AT3">
         <v>0.27</v>
@@ -1676,7 +1679,7 @@
         <v>79</v>
       </c>
       <c r="P4" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q4">
         <v>4</v>
@@ -1766,7 +1769,7 @@
         <v>0.55</v>
       </c>
       <c r="AT4">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AU4">
         <v>0</v>
@@ -1954,7 +1957,7 @@
         <v>0</v>
       </c>
       <c r="AS5">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AT5">
         <v>0.8</v>
@@ -2058,7 +2061,7 @@
         <v>81</v>
       </c>
       <c r="P6" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q6">
         <v>3</v>
@@ -2249,7 +2252,7 @@
         <v>82</v>
       </c>
       <c r="P7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q7">
         <v>3</v>
@@ -2440,7 +2443,7 @@
         <v>83</v>
       </c>
       <c r="P8" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q8">
         <v>9</v>
@@ -2631,7 +2634,7 @@
         <v>84</v>
       </c>
       <c r="P9" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q9">
         <v>4</v>
@@ -2822,7 +2825,7 @@
         <v>85</v>
       </c>
       <c r="P10" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q10">
         <v>6</v>
@@ -2909,7 +2912,7 @@
         <v>0</v>
       </c>
       <c r="AS10">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AT10">
         <v>2</v>
@@ -3013,7 +3016,7 @@
         <v>85</v>
       </c>
       <c r="P11" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q11">
         <v>3</v>
@@ -3395,7 +3398,7 @@
         <v>85</v>
       </c>
       <c r="P13" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q13">
         <v>5</v>
@@ -3586,7 +3589,7 @@
         <v>87</v>
       </c>
       <c r="P14" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q14">
         <v>3</v>
@@ -3777,7 +3780,7 @@
         <v>85</v>
       </c>
       <c r="P15" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q15">
         <v>5</v>
@@ -3864,10 +3867,10 @@
         <v>3</v>
       </c>
       <c r="AS15">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AT15">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AU15">
         <v>0.85</v>
@@ -4058,7 +4061,7 @@
         <v>1.82</v>
       </c>
       <c r="AT16">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AU16">
         <v>1.26</v>
@@ -4159,7 +4162,7 @@
         <v>89</v>
       </c>
       <c r="P17" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q17">
         <v>4</v>
@@ -4541,7 +4544,7 @@
         <v>85</v>
       </c>
       <c r="P19" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q19">
         <v>1</v>
@@ -4631,7 +4634,7 @@
         <v>0.82</v>
       </c>
       <c r="AT19">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AU19">
         <v>1.16</v>
@@ -4732,7 +4735,7 @@
         <v>85</v>
       </c>
       <c r="P20" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q20">
         <v>0</v>
@@ -4923,7 +4926,7 @@
         <v>91</v>
       </c>
       <c r="P21" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q21">
         <v>5</v>
@@ -5010,7 +5013,7 @@
         <v>0</v>
       </c>
       <c r="AS21">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AT21">
         <v>1.36</v>
@@ -5114,7 +5117,7 @@
         <v>92</v>
       </c>
       <c r="P22" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q22">
         <v>3</v>
@@ -5305,7 +5308,7 @@
         <v>93</v>
       </c>
       <c r="P23" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q23">
         <v>9</v>
@@ -5777,7 +5780,7 @@
         <v>1.18</v>
       </c>
       <c r="AT25">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AU25">
         <v>1.49</v>
@@ -6451,7 +6454,7 @@
         <v>79</v>
       </c>
       <c r="P29" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q29">
         <v>5</v>
@@ -6538,7 +6541,7 @@
         <v>1</v>
       </c>
       <c r="AS29">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AT29">
         <v>1.36</v>
@@ -6833,7 +6836,7 @@
         <v>93</v>
       </c>
       <c r="P31" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q31">
         <v>2</v>
@@ -7215,7 +7218,7 @@
         <v>85</v>
       </c>
       <c r="P33" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q33">
         <v>5</v>
@@ -7305,7 +7308,7 @@
         <v>1.36</v>
       </c>
       <c r="AT33">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AU33">
         <v>0.92</v>
@@ -7406,7 +7409,7 @@
         <v>99</v>
       </c>
       <c r="P34" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q34">
         <v>4</v>
@@ -7788,7 +7791,7 @@
         <v>101</v>
       </c>
       <c r="P36" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q36">
         <v>4</v>
@@ -7875,7 +7878,7 @@
         <v>3</v>
       </c>
       <c r="AS36">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AT36">
         <v>2</v>
@@ -8361,7 +8364,7 @@
         <v>79</v>
       </c>
       <c r="P39" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q39">
         <v>3</v>
@@ -8448,7 +8451,7 @@
         <v>0.5</v>
       </c>
       <c r="AS39">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AT39">
         <v>1.36</v>
@@ -8552,7 +8555,7 @@
         <v>85</v>
       </c>
       <c r="P40" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q40">
         <v>6</v>
@@ -8642,7 +8645,7 @@
         <v>0.82</v>
       </c>
       <c r="AT40">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AU40">
         <v>1.31</v>
@@ -8743,7 +8746,7 @@
         <v>104</v>
       </c>
       <c r="P41" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q41">
         <v>3</v>
@@ -8934,7 +8937,7 @@
         <v>105</v>
       </c>
       <c r="P42" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q42">
         <v>3</v>
@@ -9316,7 +9319,7 @@
         <v>85</v>
       </c>
       <c r="P44" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q44">
         <v>6</v>
@@ -9507,7 +9510,7 @@
         <v>85</v>
       </c>
       <c r="P45" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q45">
         <v>5</v>
@@ -9698,7 +9701,7 @@
         <v>107</v>
       </c>
       <c r="P46" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q46">
         <v>6</v>
@@ -9889,7 +9892,7 @@
         <v>108</v>
       </c>
       <c r="P47" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q47">
         <v>6</v>
@@ -9976,10 +9979,10 @@
         <v>1.75</v>
       </c>
       <c r="AS47">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AT47">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AU47">
         <v>1.08</v>
@@ -10080,7 +10083,7 @@
         <v>109</v>
       </c>
       <c r="P48" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q48">
         <v>2</v>
@@ -10167,7 +10170,7 @@
         <v>2.33</v>
       </c>
       <c r="AS48">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AT48">
         <v>2</v>
@@ -10462,7 +10465,7 @@
         <v>111</v>
       </c>
       <c r="P50" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q50">
         <v>6</v>
@@ -10653,7 +10656,7 @@
         <v>112</v>
       </c>
       <c r="P51" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q51">
         <v>3</v>
@@ -10844,7 +10847,7 @@
         <v>113</v>
       </c>
       <c r="P52" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q52">
         <v>3</v>
@@ -10934,7 +10937,7 @@
         <v>1.82</v>
       </c>
       <c r="AT52">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AU52">
         <v>1.35</v>
@@ -11698,7 +11701,7 @@
         <v>1.1</v>
       </c>
       <c r="AT56">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AU56">
         <v>1.36</v>
@@ -11889,7 +11892,7 @@
         <v>1.3</v>
       </c>
       <c r="AT57">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AU57">
         <v>1.68</v>
@@ -11990,7 +11993,7 @@
         <v>117</v>
       </c>
       <c r="P58" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q58">
         <v>6</v>
@@ -12077,7 +12080,7 @@
         <v>1</v>
       </c>
       <c r="AS58">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AT58">
         <v>0.91</v>
@@ -12181,7 +12184,7 @@
         <v>118</v>
       </c>
       <c r="P59" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q59">
         <v>3</v>
@@ -12650,7 +12653,7 @@
         <v>1.8</v>
       </c>
       <c r="AS61">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AT61">
         <v>1.55</v>
@@ -13136,7 +13139,7 @@
         <v>85</v>
       </c>
       <c r="P64" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q64">
         <v>5</v>
@@ -13518,7 +13521,7 @@
         <v>121</v>
       </c>
       <c r="P66" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q66">
         <v>1</v>
@@ -13709,7 +13712,7 @@
         <v>122</v>
       </c>
       <c r="P67" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q67">
         <v>3</v>
@@ -13900,7 +13903,7 @@
         <v>123</v>
       </c>
       <c r="P68" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q68">
         <v>4</v>
@@ -14282,7 +14285,7 @@
         <v>85</v>
       </c>
       <c r="P70" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q70">
         <v>4</v>
@@ -14473,7 +14476,7 @@
         <v>125</v>
       </c>
       <c r="P71" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q71">
         <v>7</v>
@@ -14855,7 +14858,7 @@
         <v>115</v>
       </c>
       <c r="P73" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q73">
         <v>6</v>
@@ -15237,7 +15240,7 @@
         <v>85</v>
       </c>
       <c r="P75" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q75">
         <v>8</v>
@@ -15327,7 +15330,7 @@
         <v>1.3</v>
       </c>
       <c r="AT75">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AU75">
         <v>1.66</v>
@@ -15428,7 +15431,7 @@
         <v>126</v>
       </c>
       <c r="P76" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q76">
         <v>5</v>
@@ -15619,7 +15622,7 @@
         <v>127</v>
       </c>
       <c r="P77" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q77">
         <v>8</v>
@@ -15709,7 +15712,7 @@
         <v>1.18</v>
       </c>
       <c r="AT77">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AU77">
         <v>1.33</v>
@@ -16001,7 +16004,7 @@
         <v>129</v>
       </c>
       <c r="P79" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q79">
         <v>3</v>
@@ -16088,7 +16091,7 @@
         <v>1</v>
       </c>
       <c r="AS79">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AT79">
         <v>0.91</v>
@@ -16279,7 +16282,7 @@
         <v>1.17</v>
       </c>
       <c r="AS80">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AT80">
         <v>1</v>
@@ -16574,7 +16577,7 @@
         <v>85</v>
       </c>
       <c r="P82" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q82">
         <v>4</v>
@@ -16956,7 +16959,7 @@
         <v>85</v>
       </c>
       <c r="P84" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q84">
         <v>5</v>
@@ -17147,7 +17150,7 @@
         <v>85</v>
       </c>
       <c r="P85" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q85">
         <v>4</v>
@@ -17425,7 +17428,7 @@
         <v>0.43</v>
       </c>
       <c r="AS86">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AT86">
         <v>0.27</v>
@@ -18102,7 +18105,7 @@
         <v>136</v>
       </c>
       <c r="P90" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q90">
         <v>6</v>
@@ -18192,7 +18195,7 @@
         <v>2.64</v>
       </c>
       <c r="AT90">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AU90">
         <v>1.83</v>
@@ -18765,7 +18768,7 @@
         <v>1.55</v>
       </c>
       <c r="AT93">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AU93">
         <v>1.42</v>
@@ -18953,7 +18956,7 @@
         <v>0.57</v>
       </c>
       <c r="AS94">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AT94">
         <v>1</v>
@@ -19057,7 +19060,7 @@
         <v>101</v>
       </c>
       <c r="P95" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q95">
         <v>7</v>
@@ -19717,7 +19720,7 @@
         <v>0.88</v>
       </c>
       <c r="AS98">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AT98">
         <v>1</v>
@@ -19821,7 +19824,7 @@
         <v>143</v>
       </c>
       <c r="P99" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q99">
         <v>5</v>
@@ -20012,7 +20015,7 @@
         <v>144</v>
       </c>
       <c r="P100" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q100">
         <v>3</v>
@@ -20203,7 +20206,7 @@
         <v>145</v>
       </c>
       <c r="P101" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q101">
         <v>6</v>
@@ -20394,7 +20397,7 @@
         <v>146</v>
       </c>
       <c r="P102" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q102">
         <v>0</v>
@@ -20484,7 +20487,7 @@
         <v>1.45</v>
       </c>
       <c r="AT102">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AU102">
         <v>1.41</v>
@@ -20776,7 +20779,7 @@
         <v>85</v>
       </c>
       <c r="P104" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q104">
         <v>1</v>
@@ -21349,7 +21352,7 @@
         <v>81</v>
       </c>
       <c r="P107" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q107">
         <v>5</v>
@@ -21439,7 +21442,7 @@
         <v>1.1</v>
       </c>
       <c r="AT107">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AU107">
         <v>1.23</v>
@@ -21627,7 +21630,7 @@
         <v>1.63</v>
       </c>
       <c r="AS108">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AT108">
         <v>1.55</v>
@@ -21922,7 +21925,7 @@
         <v>150</v>
       </c>
       <c r="P110" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q110">
         <v>10</v>
@@ -22304,7 +22307,7 @@
         <v>85</v>
       </c>
       <c r="P112" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q112">
         <v>5</v>
@@ -22686,7 +22689,7 @@
         <v>124</v>
       </c>
       <c r="P114" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q114">
         <v>6</v>
@@ -22877,7 +22880,7 @@
         <v>85</v>
       </c>
       <c r="P115" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q115">
         <v>5</v>
@@ -22967,7 +22970,7 @@
         <v>1.55</v>
       </c>
       <c r="AT115">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AU115">
         <v>1.4</v>
@@ -23155,7 +23158,7 @@
         <v>0.89</v>
       </c>
       <c r="AS116">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AT116">
         <v>0.8</v>
@@ -23259,7 +23262,7 @@
         <v>85</v>
       </c>
       <c r="P117" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q117">
         <v>5</v>
@@ -23346,7 +23349,7 @@
         <v>2.11</v>
       </c>
       <c r="AS117">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AT117">
         <v>2</v>
@@ -23450,7 +23453,7 @@
         <v>153</v>
       </c>
       <c r="P118" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q118">
         <v>9</v>
@@ -23641,7 +23644,7 @@
         <v>154</v>
       </c>
       <c r="P119" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q119">
         <v>4</v>
@@ -23731,7 +23734,7 @@
         <v>0.55</v>
       </c>
       <c r="AT119">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AU119">
         <v>1.07</v>
@@ -23832,7 +23835,7 @@
         <v>155</v>
       </c>
       <c r="P120" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q120">
         <v>6</v>
@@ -24023,7 +24026,7 @@
         <v>156</v>
       </c>
       <c r="P121" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q121">
         <v>2</v>
@@ -24214,7 +24217,7 @@
         <v>157</v>
       </c>
       <c r="P122" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q122">
         <v>1</v>
@@ -24596,7 +24599,7 @@
         <v>159</v>
       </c>
       <c r="P124" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q124">
         <v>3</v>
@@ -25169,7 +25172,7 @@
         <v>85</v>
       </c>
       <c r="P127" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q127">
         <v>8</v>
@@ -25360,16 +25363,16 @@
         <v>85</v>
       </c>
       <c r="P128" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q128">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="R128">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="S128">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="T128">
         <v>0</v>
@@ -25489,19 +25492,19 @@
         <v>0</v>
       </c>
       <c r="BG128">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="BH128">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="BI128">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BJ128">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="BK128">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="129" spans="1:63">
@@ -25554,13 +25557,13 @@
         <v>83</v>
       </c>
       <c r="Q129">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R129">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S129">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="T129">
         <v>0</v>
@@ -25677,22 +25680,404 @@
         <v>0</v>
       </c>
       <c r="BF129">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BG129">
+        <v>4</v>
+      </c>
+      <c r="BH129">
+        <v>6</v>
+      </c>
+      <c r="BI129">
+        <v>7</v>
+      </c>
+      <c r="BJ129">
+        <v>9</v>
+      </c>
+      <c r="BK129">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="130" spans="1:63">
+      <c r="A130" s="1">
+        <v>129</v>
+      </c>
+      <c r="B130">
+        <v>4933056</v>
+      </c>
+      <c r="C130" t="s">
+        <v>63</v>
+      </c>
+      <c r="D130" t="s">
+        <v>64</v>
+      </c>
+      <c r="E130" s="2">
+        <v>45087.70833333334</v>
+      </c>
+      <c r="F130">
+        <v>22</v>
+      </c>
+      <c r="G130" t="s">
+        <v>68</v>
+      </c>
+      <c r="H130" t="s">
+        <v>72</v>
+      </c>
+      <c r="I130">
+        <v>0</v>
+      </c>
+      <c r="J130">
+        <v>0</v>
+      </c>
+      <c r="K130">
+        <v>0</v>
+      </c>
+      <c r="L130">
+        <v>0</v>
+      </c>
+      <c r="M130">
+        <v>0</v>
+      </c>
+      <c r="N130">
+        <v>0</v>
+      </c>
+      <c r="O130" t="s">
+        <v>85</v>
+      </c>
+      <c r="P130" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q130">
+        <v>6</v>
+      </c>
+      <c r="R130">
         <v>3</v>
       </c>
-      <c r="BH129">
+      <c r="S130">
+        <v>9</v>
+      </c>
+      <c r="T130">
+        <v>0</v>
+      </c>
+      <c r="U130">
+        <v>0</v>
+      </c>
+      <c r="V130">
+        <v>0</v>
+      </c>
+      <c r="W130">
+        <v>0</v>
+      </c>
+      <c r="X130">
+        <v>0</v>
+      </c>
+      <c r="Y130">
+        <v>0</v>
+      </c>
+      <c r="Z130">
+        <v>0</v>
+      </c>
+      <c r="AA130">
+        <v>0</v>
+      </c>
+      <c r="AB130">
+        <v>0</v>
+      </c>
+      <c r="AC130">
+        <v>2.15</v>
+      </c>
+      <c r="AD130">
+        <v>3.4</v>
+      </c>
+      <c r="AE130">
+        <v>2.9</v>
+      </c>
+      <c r="AF130">
+        <v>0</v>
+      </c>
+      <c r="AG130">
+        <v>0</v>
+      </c>
+      <c r="AH130">
+        <v>0</v>
+      </c>
+      <c r="AI130">
+        <v>0</v>
+      </c>
+      <c r="AJ130">
+        <v>1.88</v>
+      </c>
+      <c r="AK130">
+        <v>1.85</v>
+      </c>
+      <c r="AL130">
+        <v>0</v>
+      </c>
+      <c r="AM130">
+        <v>0</v>
+      </c>
+      <c r="AN130">
+        <v>0</v>
+      </c>
+      <c r="AO130">
+        <v>0</v>
+      </c>
+      <c r="AP130">
+        <v>0</v>
+      </c>
+      <c r="AQ130">
+        <v>1.2</v>
+      </c>
+      <c r="AR130">
+        <v>1.6</v>
+      </c>
+      <c r="AS130">
+        <v>1.18</v>
+      </c>
+      <c r="AT130">
+        <v>1.55</v>
+      </c>
+      <c r="AU130">
+        <v>1.19</v>
+      </c>
+      <c r="AV130">
+        <v>1.19</v>
+      </c>
+      <c r="AW130">
+        <v>2.38</v>
+      </c>
+      <c r="AX130">
+        <v>0</v>
+      </c>
+      <c r="AY130">
+        <v>0</v>
+      </c>
+      <c r="AZ130">
+        <v>0</v>
+      </c>
+      <c r="BA130">
+        <v>0</v>
+      </c>
+      <c r="BB130">
+        <v>0</v>
+      </c>
+      <c r="BC130">
+        <v>0</v>
+      </c>
+      <c r="BD130">
+        <v>0</v>
+      </c>
+      <c r="BE130">
+        <v>0</v>
+      </c>
+      <c r="BF130">
+        <v>2</v>
+      </c>
+      <c r="BG130">
+        <v>4</v>
+      </c>
+      <c r="BH130">
+        <v>6</v>
+      </c>
+      <c r="BI130">
+        <v>1</v>
+      </c>
+      <c r="BJ130">
+        <v>8</v>
+      </c>
+      <c r="BK130">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="131" spans="1:63">
+      <c r="A131" s="1">
+        <v>130</v>
+      </c>
+      <c r="B131">
+        <v>4933053</v>
+      </c>
+      <c r="C131" t="s">
+        <v>63</v>
+      </c>
+      <c r="D131" t="s">
+        <v>64</v>
+      </c>
+      <c r="E131" s="2">
+        <v>45087.8125</v>
+      </c>
+      <c r="F131">
+        <v>22</v>
+      </c>
+      <c r="G131" t="s">
+        <v>66</v>
+      </c>
+      <c r="H131" t="s">
+        <v>76</v>
+      </c>
+      <c r="I131">
+        <v>1</v>
+      </c>
+      <c r="J131">
+        <v>0</v>
+      </c>
+      <c r="K131">
+        <v>1</v>
+      </c>
+      <c r="L131">
+        <v>2</v>
+      </c>
+      <c r="M131">
+        <v>1</v>
+      </c>
+      <c r="N131">
         <v>3</v>
       </c>
-      <c r="BI129">
-        <v>2</v>
-      </c>
-      <c r="BJ129">
+      <c r="O131" t="s">
+        <v>162</v>
+      </c>
+      <c r="P131" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q131">
+        <v>0</v>
+      </c>
+      <c r="R131">
         <v>3</v>
       </c>
-      <c r="BK129">
-        <v>5</v>
+      <c r="S131">
+        <v>3</v>
+      </c>
+      <c r="T131">
+        <v>0</v>
+      </c>
+      <c r="U131">
+        <v>0</v>
+      </c>
+      <c r="V131">
+        <v>0</v>
+      </c>
+      <c r="W131">
+        <v>0</v>
+      </c>
+      <c r="X131">
+        <v>0</v>
+      </c>
+      <c r="Y131">
+        <v>0</v>
+      </c>
+      <c r="Z131">
+        <v>0</v>
+      </c>
+      <c r="AA131">
+        <v>0</v>
+      </c>
+      <c r="AB131">
+        <v>0</v>
+      </c>
+      <c r="AC131">
+        <v>2</v>
+      </c>
+      <c r="AD131">
+        <v>3.4</v>
+      </c>
+      <c r="AE131">
+        <v>3.25</v>
+      </c>
+      <c r="AF131">
+        <v>0</v>
+      </c>
+      <c r="AG131">
+        <v>0</v>
+      </c>
+      <c r="AH131">
+        <v>0</v>
+      </c>
+      <c r="AI131">
+        <v>0</v>
+      </c>
+      <c r="AJ131">
+        <v>2</v>
+      </c>
+      <c r="AK131">
+        <v>1.86</v>
+      </c>
+      <c r="AL131">
+        <v>0</v>
+      </c>
+      <c r="AM131">
+        <v>0</v>
+      </c>
+      <c r="AN131">
+        <v>0</v>
+      </c>
+      <c r="AO131">
+        <v>0</v>
+      </c>
+      <c r="AP131">
+        <v>0</v>
+      </c>
+      <c r="AQ131">
+        <v>2</v>
+      </c>
+      <c r="AR131">
+        <v>1.8</v>
+      </c>
+      <c r="AS131">
+        <v>2.09</v>
+      </c>
+      <c r="AT131">
+        <v>1.64</v>
+      </c>
+      <c r="AU131">
+        <v>1.34</v>
+      </c>
+      <c r="AV131">
+        <v>1.09</v>
+      </c>
+      <c r="AW131">
+        <v>2.43</v>
+      </c>
+      <c r="AX131">
+        <v>0</v>
+      </c>
+      <c r="AY131">
+        <v>0</v>
+      </c>
+      <c r="AZ131">
+        <v>0</v>
+      </c>
+      <c r="BA131">
+        <v>0</v>
+      </c>
+      <c r="BB131">
+        <v>0</v>
+      </c>
+      <c r="BC131">
+        <v>0</v>
+      </c>
+      <c r="BD131">
+        <v>0</v>
+      </c>
+      <c r="BE131">
+        <v>0</v>
+      </c>
+      <c r="BF131">
+        <v>3</v>
+      </c>
+      <c r="BG131">
+        <v>4</v>
+      </c>
+      <c r="BH131">
+        <v>0</v>
+      </c>
+      <c r="BI131">
+        <v>2</v>
+      </c>
+      <c r="BJ131">
+        <v>3</v>
+      </c>
+      <c r="BK131">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Paraguay Division Profesional_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Paraguay Division Profesional_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="843" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="855" uniqueCount="230">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -505,6 +505,12 @@
     <t>['45+2', '47']</t>
   </si>
   <si>
+    <t>['4', '69']</t>
+  </si>
+  <si>
+    <t>['19', '59', '66', '84']</t>
+  </si>
+  <si>
     <t>['39', '47', '68']</t>
   </si>
   <si>
@@ -692,6 +698,12 @@
   </si>
   <si>
     <t>['50', '89']</t>
+  </si>
+  <si>
+    <t>['24', '80']</t>
+  </si>
+  <si>
+    <t>['53']</t>
   </si>
 </sst>
 </file>
@@ -1053,7 +1065,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK131"/>
+  <dimension ref="A1:BK133"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1679,7 +1691,7 @@
         <v>79</v>
       </c>
       <c r="P4" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="Q4">
         <v>4</v>
@@ -1960,7 +1972,7 @@
         <v>1.18</v>
       </c>
       <c r="AT5">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AU5">
         <v>0</v>
@@ -2061,7 +2073,7 @@
         <v>81</v>
       </c>
       <c r="P6" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="Q6">
         <v>3</v>
@@ -2252,7 +2264,7 @@
         <v>82</v>
       </c>
       <c r="P7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="Q7">
         <v>3</v>
@@ -2339,7 +2351,7 @@
         <v>0</v>
       </c>
       <c r="AS7">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AT7">
         <v>0.91</v>
@@ -2443,7 +2455,7 @@
         <v>83</v>
       </c>
       <c r="P8" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="Q8">
         <v>9</v>
@@ -2530,7 +2542,7 @@
         <v>0</v>
       </c>
       <c r="AS8">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AT8">
         <v>1</v>
@@ -2634,7 +2646,7 @@
         <v>84</v>
       </c>
       <c r="P9" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="Q9">
         <v>4</v>
@@ -2825,7 +2837,7 @@
         <v>85</v>
       </c>
       <c r="P10" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="Q10">
         <v>6</v>
@@ -2915,7 +2927,7 @@
         <v>2.09</v>
       </c>
       <c r="AT10">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AU10">
         <v>1.03</v>
@@ -3016,7 +3028,7 @@
         <v>85</v>
       </c>
       <c r="P11" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="Q11">
         <v>3</v>
@@ -3398,7 +3410,7 @@
         <v>85</v>
       </c>
       <c r="P13" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="Q13">
         <v>5</v>
@@ -3488,7 +3500,7 @@
         <v>1.18</v>
       </c>
       <c r="AT13">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AU13">
         <v>0</v>
@@ -3589,7 +3601,7 @@
         <v>87</v>
       </c>
       <c r="P14" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="Q14">
         <v>3</v>
@@ -3780,7 +3792,7 @@
         <v>85</v>
       </c>
       <c r="P15" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="Q15">
         <v>5</v>
@@ -4162,7 +4174,7 @@
         <v>89</v>
       </c>
       <c r="P17" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="Q17">
         <v>4</v>
@@ -4440,7 +4452,7 @@
         <v>0</v>
       </c>
       <c r="AS18">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AT18">
         <v>0.27</v>
@@ -4544,7 +4556,7 @@
         <v>85</v>
       </c>
       <c r="P19" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="Q19">
         <v>1</v>
@@ -4735,7 +4747,7 @@
         <v>85</v>
       </c>
       <c r="P20" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="Q20">
         <v>0</v>
@@ -4825,7 +4837,7 @@
         <v>0.55</v>
       </c>
       <c r="AT20">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AU20">
         <v>0.8</v>
@@ -4926,7 +4938,7 @@
         <v>91</v>
       </c>
       <c r="P21" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Q21">
         <v>5</v>
@@ -5117,7 +5129,7 @@
         <v>92</v>
       </c>
       <c r="P22" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="Q22">
         <v>3</v>
@@ -5308,7 +5320,7 @@
         <v>93</v>
       </c>
       <c r="P23" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q23">
         <v>9</v>
@@ -5395,7 +5407,7 @@
         <v>1</v>
       </c>
       <c r="AS23">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AT23">
         <v>1</v>
@@ -5971,7 +5983,7 @@
         <v>1.82</v>
       </c>
       <c r="AT26">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AU26">
         <v>1.32</v>
@@ -6454,7 +6466,7 @@
         <v>79</v>
       </c>
       <c r="P29" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="Q29">
         <v>5</v>
@@ -6732,7 +6744,7 @@
         <v>3</v>
       </c>
       <c r="AS30">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AT30">
         <v>1</v>
@@ -6836,7 +6848,7 @@
         <v>93</v>
       </c>
       <c r="P31" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="Q31">
         <v>2</v>
@@ -6923,7 +6935,7 @@
         <v>1</v>
       </c>
       <c r="AS31">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AT31">
         <v>1.55</v>
@@ -7218,7 +7230,7 @@
         <v>85</v>
       </c>
       <c r="P33" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="Q33">
         <v>5</v>
@@ -7409,7 +7421,7 @@
         <v>99</v>
       </c>
       <c r="P34" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q34">
         <v>4</v>
@@ -7496,10 +7508,10 @@
         <v>3</v>
       </c>
       <c r="AS34">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AT34">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AU34">
         <v>1.92</v>
@@ -7690,7 +7702,7 @@
         <v>1.55</v>
       </c>
       <c r="AT35">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AU35">
         <v>1.35</v>
@@ -7791,7 +7803,7 @@
         <v>101</v>
       </c>
       <c r="P36" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="Q36">
         <v>4</v>
@@ -8364,7 +8376,7 @@
         <v>79</v>
       </c>
       <c r="P39" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="Q39">
         <v>3</v>
@@ -8555,7 +8567,7 @@
         <v>85</v>
       </c>
       <c r="P40" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q40">
         <v>6</v>
@@ -8746,7 +8758,7 @@
         <v>104</v>
       </c>
       <c r="P41" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q41">
         <v>3</v>
@@ -8937,7 +8949,7 @@
         <v>105</v>
       </c>
       <c r="P42" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q42">
         <v>3</v>
@@ -9319,7 +9331,7 @@
         <v>85</v>
       </c>
       <c r="P44" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="Q44">
         <v>6</v>
@@ -9510,7 +9522,7 @@
         <v>85</v>
       </c>
       <c r="P45" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q45">
         <v>5</v>
@@ -9701,7 +9713,7 @@
         <v>107</v>
       </c>
       <c r="P46" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="Q46">
         <v>6</v>
@@ -9788,7 +9800,7 @@
         <v>3</v>
       </c>
       <c r="AS46">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AT46">
         <v>2</v>
@@ -9892,7 +9904,7 @@
         <v>108</v>
       </c>
       <c r="P47" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q47">
         <v>6</v>
@@ -10083,7 +10095,7 @@
         <v>109</v>
       </c>
       <c r="P48" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q48">
         <v>2</v>
@@ -10173,7 +10185,7 @@
         <v>1.18</v>
       </c>
       <c r="AT48">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AU48">
         <v>1.06</v>
@@ -10361,10 +10373,10 @@
         <v>1</v>
       </c>
       <c r="AS49">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AT49">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AU49">
         <v>1.44</v>
@@ -10465,7 +10477,7 @@
         <v>111</v>
       </c>
       <c r="P50" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q50">
         <v>6</v>
@@ -10656,7 +10668,7 @@
         <v>112</v>
       </c>
       <c r="P51" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Q51">
         <v>3</v>
@@ -10847,7 +10859,7 @@
         <v>113</v>
       </c>
       <c r="P52" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q52">
         <v>3</v>
@@ -11698,7 +11710,7 @@
         <v>2</v>
       </c>
       <c r="AS56">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AT56">
         <v>1.64</v>
@@ -11889,7 +11901,7 @@
         <v>1.6</v>
       </c>
       <c r="AS57">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AT57">
         <v>1.55</v>
@@ -11993,7 +12005,7 @@
         <v>117</v>
       </c>
       <c r="P58" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q58">
         <v>6</v>
@@ -12184,7 +12196,7 @@
         <v>118</v>
       </c>
       <c r="P59" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Q59">
         <v>3</v>
@@ -12274,7 +12286,7 @@
         <v>0.55</v>
       </c>
       <c r="AT59">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AU59">
         <v>1</v>
@@ -12465,7 +12477,7 @@
         <v>2.64</v>
       </c>
       <c r="AT60">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AU60">
         <v>1.98</v>
@@ -13139,7 +13151,7 @@
         <v>85</v>
       </c>
       <c r="P64" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q64">
         <v>5</v>
@@ -13521,7 +13533,7 @@
         <v>121</v>
       </c>
       <c r="P66" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Q66">
         <v>1</v>
@@ -13712,7 +13724,7 @@
         <v>122</v>
       </c>
       <c r="P67" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q67">
         <v>3</v>
@@ -13903,7 +13915,7 @@
         <v>123</v>
       </c>
       <c r="P68" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q68">
         <v>4</v>
@@ -14285,7 +14297,7 @@
         <v>85</v>
       </c>
       <c r="P70" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q70">
         <v>4</v>
@@ -14372,7 +14384,7 @@
         <v>1.4</v>
       </c>
       <c r="AS70">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AT70">
         <v>1.36</v>
@@ -14476,7 +14488,7 @@
         <v>125</v>
       </c>
       <c r="P71" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q71">
         <v>7</v>
@@ -14566,7 +14578,7 @@
         <v>1.18</v>
       </c>
       <c r="AT71">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AU71">
         <v>1.27</v>
@@ -14858,7 +14870,7 @@
         <v>115</v>
       </c>
       <c r="P73" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="Q73">
         <v>6</v>
@@ -15240,7 +15252,7 @@
         <v>85</v>
       </c>
       <c r="P75" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q75">
         <v>8</v>
@@ -15327,7 +15339,7 @@
         <v>1.83</v>
       </c>
       <c r="AS75">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AT75">
         <v>1.64</v>
@@ -15431,7 +15443,7 @@
         <v>126</v>
       </c>
       <c r="P76" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q76">
         <v>5</v>
@@ -15622,7 +15634,7 @@
         <v>127</v>
       </c>
       <c r="P77" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q77">
         <v>8</v>
@@ -15903,7 +15915,7 @@
         <v>2.64</v>
       </c>
       <c r="AT78">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AU78">
         <v>1.9</v>
@@ -16004,7 +16016,7 @@
         <v>129</v>
       </c>
       <c r="P79" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q79">
         <v>3</v>
@@ -16577,7 +16589,7 @@
         <v>85</v>
       </c>
       <c r="P82" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q82">
         <v>4</v>
@@ -16664,7 +16676,7 @@
         <v>1.33</v>
       </c>
       <c r="AS82">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AT82">
         <v>1.36</v>
@@ -16959,7 +16971,7 @@
         <v>85</v>
       </c>
       <c r="P84" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Q84">
         <v>5</v>
@@ -17150,7 +17162,7 @@
         <v>85</v>
       </c>
       <c r="P85" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q85">
         <v>4</v>
@@ -17240,7 +17252,7 @@
         <v>1.45</v>
       </c>
       <c r="AT85">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AU85">
         <v>1.37</v>
@@ -17619,7 +17631,7 @@
         <v>1.43</v>
       </c>
       <c r="AS87">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AT87">
         <v>1.36</v>
@@ -18004,7 +18016,7 @@
         <v>1.45</v>
       </c>
       <c r="AT89">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AU89">
         <v>1.37</v>
@@ -18105,7 +18117,7 @@
         <v>136</v>
       </c>
       <c r="P90" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q90">
         <v>6</v>
@@ -19060,7 +19072,7 @@
         <v>101</v>
       </c>
       <c r="P95" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q95">
         <v>7</v>
@@ -19150,7 +19162,7 @@
         <v>0.82</v>
       </c>
       <c r="AT95">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AU95">
         <v>1.38</v>
@@ -19529,7 +19541,7 @@
         <v>2.29</v>
       </c>
       <c r="AS97">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AT97">
         <v>2</v>
@@ -19824,7 +19836,7 @@
         <v>143</v>
       </c>
       <c r="P99" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q99">
         <v>5</v>
@@ -20015,7 +20027,7 @@
         <v>144</v>
       </c>
       <c r="P100" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q100">
         <v>3</v>
@@ -20206,7 +20218,7 @@
         <v>145</v>
       </c>
       <c r="P101" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q101">
         <v>6</v>
@@ -20397,7 +20409,7 @@
         <v>146</v>
       </c>
       <c r="P102" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q102">
         <v>0</v>
@@ -20779,7 +20791,7 @@
         <v>85</v>
       </c>
       <c r="P104" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q104">
         <v>1</v>
@@ -21057,7 +21069,7 @@
         <v>0.5</v>
       </c>
       <c r="AS105">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AT105">
         <v>1</v>
@@ -21251,7 +21263,7 @@
         <v>1.55</v>
       </c>
       <c r="AT106">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AU106">
         <v>1.41</v>
@@ -21352,7 +21364,7 @@
         <v>81</v>
       </c>
       <c r="P107" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Q107">
         <v>5</v>
@@ -21439,7 +21451,7 @@
         <v>1.5</v>
       </c>
       <c r="AS107">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AT107">
         <v>1.55</v>
@@ -21824,7 +21836,7 @@
         <v>1.36</v>
       </c>
       <c r="AT109">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AU109">
         <v>1.43</v>
@@ -21925,7 +21937,7 @@
         <v>150</v>
       </c>
       <c r="P110" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q110">
         <v>10</v>
@@ -22307,7 +22319,7 @@
         <v>85</v>
       </c>
       <c r="P112" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q112">
         <v>5</v>
@@ -22689,7 +22701,7 @@
         <v>124</v>
       </c>
       <c r="P114" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q114">
         <v>6</v>
@@ -22880,7 +22892,7 @@
         <v>85</v>
       </c>
       <c r="P115" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q115">
         <v>5</v>
@@ -23161,7 +23173,7 @@
         <v>2.09</v>
       </c>
       <c r="AT116">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AU116">
         <v>1.3</v>
@@ -23262,7 +23274,7 @@
         <v>85</v>
       </c>
       <c r="P117" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q117">
         <v>5</v>
@@ -23453,7 +23465,7 @@
         <v>153</v>
       </c>
       <c r="P118" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q118">
         <v>9</v>
@@ -23543,7 +23555,7 @@
         <v>1.36</v>
       </c>
       <c r="AT118">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AU118">
         <v>1.5</v>
@@ -23644,7 +23656,7 @@
         <v>154</v>
       </c>
       <c r="P119" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q119">
         <v>4</v>
@@ -23835,7 +23847,7 @@
         <v>155</v>
       </c>
       <c r="P120" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q120">
         <v>6</v>
@@ -23922,7 +23934,7 @@
         <v>1.44</v>
       </c>
       <c r="AS120">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AT120">
         <v>1.55</v>
@@ -24026,7 +24038,7 @@
         <v>156</v>
       </c>
       <c r="P121" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q121">
         <v>2</v>
@@ -24113,7 +24125,7 @@
         <v>0.78</v>
       </c>
       <c r="AS121">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AT121">
         <v>0.91</v>
@@ -24217,7 +24229,7 @@
         <v>157</v>
       </c>
       <c r="P122" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Q122">
         <v>1</v>
@@ -24599,7 +24611,7 @@
         <v>159</v>
       </c>
       <c r="P124" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q124">
         <v>3</v>
@@ -25172,7 +25184,7 @@
         <v>85</v>
       </c>
       <c r="P127" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q127">
         <v>8</v>
@@ -25363,7 +25375,7 @@
         <v>85</v>
       </c>
       <c r="P128" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q128">
         <v>4</v>
@@ -25748,13 +25760,13 @@
         <v>85</v>
       </c>
       <c r="Q130">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="R130">
         <v>3</v>
       </c>
       <c r="S130">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="T130">
         <v>0</v>
@@ -25871,22 +25883,22 @@
         <v>0</v>
       </c>
       <c r="BF130">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BG130">
         <v>4</v>
       </c>
       <c r="BH130">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BI130">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="BJ130">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="BK130">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="131" spans="1:63">
@@ -25936,16 +25948,16 @@
         <v>162</v>
       </c>
       <c r="P131" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q131">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R131">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S131">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="T131">
         <v>0</v>
@@ -26062,22 +26074,404 @@
         <v>0</v>
       </c>
       <c r="BF131">
+        <v>5</v>
+      </c>
+      <c r="BG131">
+        <v>8</v>
+      </c>
+      <c r="BH131">
         <v>3</v>
       </c>
-      <c r="BG131">
+      <c r="BI131">
+        <v>7</v>
+      </c>
+      <c r="BJ131">
+        <v>8</v>
+      </c>
+      <c r="BK131">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="132" spans="1:63">
+      <c r="A132" s="1">
+        <v>131</v>
+      </c>
+      <c r="B132">
+        <v>4933052</v>
+      </c>
+      <c r="C132" t="s">
+        <v>63</v>
+      </c>
+      <c r="D132" t="s">
+        <v>64</v>
+      </c>
+      <c r="E132" s="2">
+        <v>45088.45833333334</v>
+      </c>
+      <c r="F132">
+        <v>22</v>
+      </c>
+      <c r="G132" t="s">
+        <v>71</v>
+      </c>
+      <c r="H132" t="s">
+        <v>69</v>
+      </c>
+      <c r="I132">
+        <v>1</v>
+      </c>
+      <c r="J132">
+        <v>1</v>
+      </c>
+      <c r="K132">
+        <v>2</v>
+      </c>
+      <c r="L132">
+        <v>2</v>
+      </c>
+      <c r="M132">
+        <v>2</v>
+      </c>
+      <c r="N132">
         <v>4</v>
       </c>
-      <c r="BH131">
-        <v>0</v>
-      </c>
-      <c r="BI131">
-        <v>2</v>
-      </c>
-      <c r="BJ131">
+      <c r="O132" t="s">
+        <v>163</v>
+      </c>
+      <c r="P132" t="s">
+        <v>228</v>
+      </c>
+      <c r="Q132">
         <v>3</v>
       </c>
-      <c r="BK131">
-        <v>6</v>
+      <c r="R132">
+        <v>10</v>
+      </c>
+      <c r="S132">
+        <v>13</v>
+      </c>
+      <c r="T132">
+        <v>0</v>
+      </c>
+      <c r="U132">
+        <v>0</v>
+      </c>
+      <c r="V132">
+        <v>0</v>
+      </c>
+      <c r="W132">
+        <v>0</v>
+      </c>
+      <c r="X132">
+        <v>0</v>
+      </c>
+      <c r="Y132">
+        <v>0</v>
+      </c>
+      <c r="Z132">
+        <v>0</v>
+      </c>
+      <c r="AA132">
+        <v>0</v>
+      </c>
+      <c r="AB132">
+        <v>0</v>
+      </c>
+      <c r="AC132">
+        <v>5.25</v>
+      </c>
+      <c r="AD132">
+        <v>4.2</v>
+      </c>
+      <c r="AE132">
+        <v>1.46</v>
+      </c>
+      <c r="AF132">
+        <v>0</v>
+      </c>
+      <c r="AG132">
+        <v>0</v>
+      </c>
+      <c r="AH132">
+        <v>0</v>
+      </c>
+      <c r="AI132">
+        <v>0</v>
+      </c>
+      <c r="AJ132">
+        <v>1.7</v>
+      </c>
+      <c r="AK132">
+        <v>2.03</v>
+      </c>
+      <c r="AL132">
+        <v>0</v>
+      </c>
+      <c r="AM132">
+        <v>0</v>
+      </c>
+      <c r="AN132">
+        <v>0</v>
+      </c>
+      <c r="AO132">
+        <v>0</v>
+      </c>
+      <c r="AP132">
+        <v>0</v>
+      </c>
+      <c r="AQ132">
+        <v>1.1</v>
+      </c>
+      <c r="AR132">
+        <v>2</v>
+      </c>
+      <c r="AS132">
+        <v>1.09</v>
+      </c>
+      <c r="AT132">
+        <v>1.91</v>
+      </c>
+      <c r="AU132">
+        <v>1.19</v>
+      </c>
+      <c r="AV132">
+        <v>1.29</v>
+      </c>
+      <c r="AW132">
+        <v>2.48</v>
+      </c>
+      <c r="AX132">
+        <v>0</v>
+      </c>
+      <c r="AY132">
+        <v>0</v>
+      </c>
+      <c r="AZ132">
+        <v>0</v>
+      </c>
+      <c r="BA132">
+        <v>0</v>
+      </c>
+      <c r="BB132">
+        <v>0</v>
+      </c>
+      <c r="BC132">
+        <v>0</v>
+      </c>
+      <c r="BD132">
+        <v>0</v>
+      </c>
+      <c r="BE132">
+        <v>0</v>
+      </c>
+      <c r="BF132">
+        <v>3</v>
+      </c>
+      <c r="BG132">
+        <v>4</v>
+      </c>
+      <c r="BH132">
+        <v>1</v>
+      </c>
+      <c r="BI132">
+        <v>7</v>
+      </c>
+      <c r="BJ132">
+        <v>4</v>
+      </c>
+      <c r="BK132">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="133" spans="1:63">
+      <c r="A133" s="1">
+        <v>132</v>
+      </c>
+      <c r="B133">
+        <v>4933055</v>
+      </c>
+      <c r="C133" t="s">
+        <v>63</v>
+      </c>
+      <c r="D133" t="s">
+        <v>64</v>
+      </c>
+      <c r="E133" s="2">
+        <v>45088.8125</v>
+      </c>
+      <c r="F133">
+        <v>22</v>
+      </c>
+      <c r="G133" t="s">
+        <v>70</v>
+      </c>
+      <c r="H133" t="s">
+        <v>73</v>
+      </c>
+      <c r="I133">
+        <v>1</v>
+      </c>
+      <c r="J133">
+        <v>0</v>
+      </c>
+      <c r="K133">
+        <v>1</v>
+      </c>
+      <c r="L133">
+        <v>4</v>
+      </c>
+      <c r="M133">
+        <v>1</v>
+      </c>
+      <c r="N133">
+        <v>5</v>
+      </c>
+      <c r="O133" t="s">
+        <v>164</v>
+      </c>
+      <c r="P133" t="s">
+        <v>229</v>
+      </c>
+      <c r="Q133">
+        <v>0</v>
+      </c>
+      <c r="R133">
+        <v>1</v>
+      </c>
+      <c r="S133">
+        <v>1</v>
+      </c>
+      <c r="T133">
+        <v>0</v>
+      </c>
+      <c r="U133">
+        <v>0</v>
+      </c>
+      <c r="V133">
+        <v>0</v>
+      </c>
+      <c r="W133">
+        <v>0</v>
+      </c>
+      <c r="X133">
+        <v>0</v>
+      </c>
+      <c r="Y133">
+        <v>0</v>
+      </c>
+      <c r="Z133">
+        <v>0</v>
+      </c>
+      <c r="AA133">
+        <v>0</v>
+      </c>
+      <c r="AB133">
+        <v>0</v>
+      </c>
+      <c r="AC133">
+        <v>1.3</v>
+      </c>
+      <c r="AD133">
+        <v>4.72</v>
+      </c>
+      <c r="AE133">
+        <v>7.7</v>
+      </c>
+      <c r="AF133">
+        <v>0</v>
+      </c>
+      <c r="AG133">
+        <v>0</v>
+      </c>
+      <c r="AH133">
+        <v>0</v>
+      </c>
+      <c r="AI133">
+        <v>0</v>
+      </c>
+      <c r="AJ133">
+        <v>1.57</v>
+      </c>
+      <c r="AK133">
+        <v>2.15</v>
+      </c>
+      <c r="AL133">
+        <v>0</v>
+      </c>
+      <c r="AM133">
+        <v>0</v>
+      </c>
+      <c r="AN133">
+        <v>0</v>
+      </c>
+      <c r="AO133">
+        <v>0</v>
+      </c>
+      <c r="AP133">
+        <v>0</v>
+      </c>
+      <c r="AQ133">
+        <v>1.3</v>
+      </c>
+      <c r="AR133">
+        <v>0.8</v>
+      </c>
+      <c r="AS133">
+        <v>1.45</v>
+      </c>
+      <c r="AT133">
+        <v>0.73</v>
+      </c>
+      <c r="AU133">
+        <v>1.68</v>
+      </c>
+      <c r="AV133">
+        <v>1.3</v>
+      </c>
+      <c r="AW133">
+        <v>2.98</v>
+      </c>
+      <c r="AX133">
+        <v>0</v>
+      </c>
+      <c r="AY133">
+        <v>0</v>
+      </c>
+      <c r="AZ133">
+        <v>0</v>
+      </c>
+      <c r="BA133">
+        <v>0</v>
+      </c>
+      <c r="BB133">
+        <v>0</v>
+      </c>
+      <c r="BC133">
+        <v>0</v>
+      </c>
+      <c r="BD133">
+        <v>0</v>
+      </c>
+      <c r="BE133">
+        <v>0</v>
+      </c>
+      <c r="BF133">
+        <v>0</v>
+      </c>
+      <c r="BG133">
+        <v>2</v>
+      </c>
+      <c r="BH133">
+        <v>3</v>
+      </c>
+      <c r="BI133">
+        <v>3</v>
+      </c>
+      <c r="BJ133">
+        <v>3</v>
+      </c>
+      <c r="BK133">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Paraguay Division Profesional_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Paraguay Division Profesional_2023.xlsx
@@ -26333,13 +26333,13 @@
         <v>229</v>
       </c>
       <c r="Q133">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R133">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S133">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T133">
         <v>0</v>
@@ -26456,22 +26456,22 @@
         <v>0</v>
       </c>
       <c r="BF133">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BG133">
         <v>2</v>
       </c>
       <c r="BH133">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BI133">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BJ133">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="BK133">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Paraguay Division Profesional_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Paraguay Division Profesional_2023.xlsx
@@ -466,10 +466,10 @@
     <t>['32', '86']</t>
   </si>
   <si>
-    <t>['14']</t>
+    <t>['19']</t>
   </si>
   <si>
-    <t>['19']</t>
+    <t>['14']</t>
   </si>
   <si>
     <t>['43', '66']</t>
@@ -487,13 +487,13 @@
     <t>['33', '41', '69']</t>
   </si>
   <si>
-    <t>['11', '85']</t>
+    <t>['17']</t>
   </si>
   <si>
     <t>['33', '72']</t>
   </si>
   <si>
-    <t>['17']</t>
+    <t>['11', '85']</t>
   </si>
   <si>
     <t>['12', '77']</t>
@@ -688,10 +688,10 @@
     <t>['45+3']</t>
   </si>
   <si>
-    <t>['27', '90+3']</t>
+    <t>['33', '55']</t>
   </si>
   <si>
-    <t>['33', '55']</t>
+    <t>['27', '90+3']</t>
   </si>
   <si>
     <t>['28', '45+3']</t>
@@ -21895,7 +21895,7 @@
         <v>109</v>
       </c>
       <c r="B110">
-        <v>4933034</v>
+        <v>4933035</v>
       </c>
       <c r="C110" t="s">
         <v>63</v>
@@ -21910,10 +21910,10 @@
         <v>19</v>
       </c>
       <c r="G110" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="H110" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="I110">
         <v>1</v>
@@ -21928,157 +21928,157 @@
         <v>1</v>
       </c>
       <c r="M110">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N110">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O110" t="s">
         <v>150</v>
       </c>
       <c r="P110" t="s">
-        <v>216</v>
+        <v>85</v>
       </c>
       <c r="Q110">
+        <v>3</v>
+      </c>
+      <c r="R110">
+        <v>3</v>
+      </c>
+      <c r="S110">
+        <v>6</v>
+      </c>
+      <c r="T110">
+        <v>0</v>
+      </c>
+      <c r="U110">
+        <v>0</v>
+      </c>
+      <c r="V110">
+        <v>0</v>
+      </c>
+      <c r="W110">
+        <v>0</v>
+      </c>
+      <c r="X110">
+        <v>0</v>
+      </c>
+      <c r="Y110">
+        <v>0</v>
+      </c>
+      <c r="Z110">
+        <v>0</v>
+      </c>
+      <c r="AA110">
+        <v>0</v>
+      </c>
+      <c r="AB110">
+        <v>0</v>
+      </c>
+      <c r="AC110">
+        <v>1.82</v>
+      </c>
+      <c r="AD110">
+        <v>3.5</v>
+      </c>
+      <c r="AE110">
+        <v>3.5</v>
+      </c>
+      <c r="AF110">
+        <v>0</v>
+      </c>
+      <c r="AG110">
+        <v>0</v>
+      </c>
+      <c r="AH110">
+        <v>0</v>
+      </c>
+      <c r="AI110">
+        <v>0</v>
+      </c>
+      <c r="AJ110">
+        <v>1.81</v>
+      </c>
+      <c r="AK110">
+        <v>1.99</v>
+      </c>
+      <c r="AL110">
+        <v>0</v>
+      </c>
+      <c r="AM110">
+        <v>0</v>
+      </c>
+      <c r="AN110">
+        <v>0</v>
+      </c>
+      <c r="AO110">
+        <v>0</v>
+      </c>
+      <c r="AP110">
+        <v>0</v>
+      </c>
+      <c r="AQ110">
+        <v>2.78</v>
+      </c>
+      <c r="AR110">
+        <v>1.33</v>
+      </c>
+      <c r="AS110">
+        <v>2.64</v>
+      </c>
+      <c r="AT110">
+        <v>1.36</v>
+      </c>
+      <c r="AU110">
+        <v>1.8</v>
+      </c>
+      <c r="AV110">
+        <v>1.4</v>
+      </c>
+      <c r="AW110">
+        <v>3.2</v>
+      </c>
+      <c r="AX110">
+        <v>0</v>
+      </c>
+      <c r="AY110">
+        <v>0</v>
+      </c>
+      <c r="AZ110">
+        <v>0</v>
+      </c>
+      <c r="BA110">
+        <v>0</v>
+      </c>
+      <c r="BB110">
+        <v>0</v>
+      </c>
+      <c r="BC110">
+        <v>0</v>
+      </c>
+      <c r="BD110">
+        <v>0</v>
+      </c>
+      <c r="BE110">
+        <v>0</v>
+      </c>
+      <c r="BF110">
+        <v>4</v>
+      </c>
+      <c r="BG110">
+        <v>2</v>
+      </c>
+      <c r="BH110">
+        <v>6</v>
+      </c>
+      <c r="BI110">
+        <v>7</v>
+      </c>
+      <c r="BJ110">
         <v>10</v>
       </c>
-      <c r="R110">
-        <v>5</v>
-      </c>
-      <c r="S110">
-        <v>15</v>
-      </c>
-      <c r="T110">
-        <v>0</v>
-      </c>
-      <c r="U110">
-        <v>0</v>
-      </c>
-      <c r="V110">
-        <v>0</v>
-      </c>
-      <c r="W110">
-        <v>0</v>
-      </c>
-      <c r="X110">
-        <v>0</v>
-      </c>
-      <c r="Y110">
-        <v>0</v>
-      </c>
-      <c r="Z110">
-        <v>0</v>
-      </c>
-      <c r="AA110">
-        <v>0</v>
-      </c>
-      <c r="AB110">
-        <v>0</v>
-      </c>
-      <c r="AC110">
-        <v>1.39</v>
-      </c>
-      <c r="AD110">
-        <v>4.4</v>
-      </c>
-      <c r="AE110">
-        <v>5.8</v>
-      </c>
-      <c r="AF110">
-        <v>0</v>
-      </c>
-      <c r="AG110">
-        <v>0</v>
-      </c>
-      <c r="AH110">
-        <v>0</v>
-      </c>
-      <c r="AI110">
-        <v>0</v>
-      </c>
-      <c r="AJ110">
-        <v>1.64</v>
-      </c>
-      <c r="AK110">
-        <v>2.18</v>
-      </c>
-      <c r="AL110">
-        <v>0</v>
-      </c>
-      <c r="AM110">
-        <v>0</v>
-      </c>
-      <c r="AN110">
-        <v>0</v>
-      </c>
-      <c r="AO110">
-        <v>0</v>
-      </c>
-      <c r="AP110">
-        <v>0</v>
-      </c>
-      <c r="AQ110">
-        <v>1.89</v>
-      </c>
-      <c r="AR110">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="AS110">
-        <v>1.82</v>
-      </c>
-      <c r="AT110">
-        <v>1</v>
-      </c>
-      <c r="AU110">
-        <v>1.4</v>
-      </c>
-      <c r="AV110">
-        <v>1.27</v>
-      </c>
-      <c r="AW110">
-        <v>2.67</v>
-      </c>
-      <c r="AX110">
-        <v>0</v>
-      </c>
-      <c r="AY110">
-        <v>0</v>
-      </c>
-      <c r="AZ110">
-        <v>0</v>
-      </c>
-      <c r="BA110">
-        <v>0</v>
-      </c>
-      <c r="BB110">
-        <v>0</v>
-      </c>
-      <c r="BC110">
-        <v>0</v>
-      </c>
-      <c r="BD110">
-        <v>0</v>
-      </c>
-      <c r="BE110">
-        <v>0</v>
-      </c>
-      <c r="BF110">
-        <v>8</v>
-      </c>
-      <c r="BG110">
-        <v>4</v>
-      </c>
-      <c r="BH110">
+      <c r="BK110">
         <v>9</v>
-      </c>
-      <c r="BI110">
-        <v>3</v>
-      </c>
-      <c r="BJ110">
-        <v>17</v>
-      </c>
-      <c r="BK110">
-        <v>7</v>
       </c>
     </row>
     <row r="111" spans="1:63">
@@ -22086,7 +22086,7 @@
         <v>110</v>
       </c>
       <c r="B111">
-        <v>4933035</v>
+        <v>4933034</v>
       </c>
       <c r="C111" t="s">
         <v>63</v>
@@ -22101,10 +22101,10 @@
         <v>19</v>
       </c>
       <c r="G111" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="H111" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="I111">
         <v>1</v>
@@ -22119,157 +22119,157 @@
         <v>1</v>
       </c>
       <c r="M111">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N111">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O111" t="s">
         <v>151</v>
       </c>
       <c r="P111" t="s">
-        <v>85</v>
+        <v>216</v>
       </c>
       <c r="Q111">
+        <v>10</v>
+      </c>
+      <c r="R111">
+        <v>5</v>
+      </c>
+      <c r="S111">
+        <v>15</v>
+      </c>
+      <c r="T111">
+        <v>0</v>
+      </c>
+      <c r="U111">
+        <v>0</v>
+      </c>
+      <c r="V111">
+        <v>0</v>
+      </c>
+      <c r="W111">
+        <v>0</v>
+      </c>
+      <c r="X111">
+        <v>0</v>
+      </c>
+      <c r="Y111">
+        <v>0</v>
+      </c>
+      <c r="Z111">
+        <v>0</v>
+      </c>
+      <c r="AA111">
+        <v>0</v>
+      </c>
+      <c r="AB111">
+        <v>0</v>
+      </c>
+      <c r="AC111">
+        <v>1.39</v>
+      </c>
+      <c r="AD111">
+        <v>4.4</v>
+      </c>
+      <c r="AE111">
+        <v>5.8</v>
+      </c>
+      <c r="AF111">
+        <v>0</v>
+      </c>
+      <c r="AG111">
+        <v>0</v>
+      </c>
+      <c r="AH111">
+        <v>0</v>
+      </c>
+      <c r="AI111">
+        <v>0</v>
+      </c>
+      <c r="AJ111">
+        <v>1.64</v>
+      </c>
+      <c r="AK111">
+        <v>2.18</v>
+      </c>
+      <c r="AL111">
+        <v>0</v>
+      </c>
+      <c r="AM111">
+        <v>0</v>
+      </c>
+      <c r="AN111">
+        <v>0</v>
+      </c>
+      <c r="AO111">
+        <v>0</v>
+      </c>
+      <c r="AP111">
+        <v>0</v>
+      </c>
+      <c r="AQ111">
+        <v>1.89</v>
+      </c>
+      <c r="AR111">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AS111">
+        <v>1.82</v>
+      </c>
+      <c r="AT111">
+        <v>1</v>
+      </c>
+      <c r="AU111">
+        <v>1.4</v>
+      </c>
+      <c r="AV111">
+        <v>1.27</v>
+      </c>
+      <c r="AW111">
+        <v>2.67</v>
+      </c>
+      <c r="AX111">
+        <v>0</v>
+      </c>
+      <c r="AY111">
+        <v>0</v>
+      </c>
+      <c r="AZ111">
+        <v>0</v>
+      </c>
+      <c r="BA111">
+        <v>0</v>
+      </c>
+      <c r="BB111">
+        <v>0</v>
+      </c>
+      <c r="BC111">
+        <v>0</v>
+      </c>
+      <c r="BD111">
+        <v>0</v>
+      </c>
+      <c r="BE111">
+        <v>0</v>
+      </c>
+      <c r="BF111">
+        <v>8</v>
+      </c>
+      <c r="BG111">
+        <v>4</v>
+      </c>
+      <c r="BH111">
+        <v>9</v>
+      </c>
+      <c r="BI111">
         <v>3</v>
       </c>
-      <c r="R111">
-        <v>3</v>
-      </c>
-      <c r="S111">
-        <v>6</v>
-      </c>
-      <c r="T111">
-        <v>0</v>
-      </c>
-      <c r="U111">
-        <v>0</v>
-      </c>
-      <c r="V111">
-        <v>0</v>
-      </c>
-      <c r="W111">
-        <v>0</v>
-      </c>
-      <c r="X111">
-        <v>0</v>
-      </c>
-      <c r="Y111">
-        <v>0</v>
-      </c>
-      <c r="Z111">
-        <v>0</v>
-      </c>
-      <c r="AA111">
-        <v>0</v>
-      </c>
-      <c r="AB111">
-        <v>0</v>
-      </c>
-      <c r="AC111">
-        <v>1.82</v>
-      </c>
-      <c r="AD111">
-        <v>3.5</v>
-      </c>
-      <c r="AE111">
-        <v>3.5</v>
-      </c>
-      <c r="AF111">
-        <v>0</v>
-      </c>
-      <c r="AG111">
-        <v>0</v>
-      </c>
-      <c r="AH111">
-        <v>0</v>
-      </c>
-      <c r="AI111">
-        <v>0</v>
-      </c>
-      <c r="AJ111">
-        <v>1.81</v>
-      </c>
-      <c r="AK111">
-        <v>1.99</v>
-      </c>
-      <c r="AL111">
-        <v>0</v>
-      </c>
-      <c r="AM111">
-        <v>0</v>
-      </c>
-      <c r="AN111">
-        <v>0</v>
-      </c>
-      <c r="AO111">
-        <v>0</v>
-      </c>
-      <c r="AP111">
-        <v>0</v>
-      </c>
-      <c r="AQ111">
-        <v>2.78</v>
-      </c>
-      <c r="AR111">
-        <v>1.33</v>
-      </c>
-      <c r="AS111">
-        <v>2.64</v>
-      </c>
-      <c r="AT111">
-        <v>1.36</v>
-      </c>
-      <c r="AU111">
-        <v>1.8</v>
-      </c>
-      <c r="AV111">
-        <v>1.4</v>
-      </c>
-      <c r="AW111">
-        <v>3.2</v>
-      </c>
-      <c r="AX111">
-        <v>0</v>
-      </c>
-      <c r="AY111">
-        <v>0</v>
-      </c>
-      <c r="AZ111">
-        <v>0</v>
-      </c>
-      <c r="BA111">
-        <v>0</v>
-      </c>
-      <c r="BB111">
-        <v>0</v>
-      </c>
-      <c r="BC111">
-        <v>0</v>
-      </c>
-      <c r="BD111">
-        <v>0</v>
-      </c>
-      <c r="BE111">
-        <v>0</v>
-      </c>
-      <c r="BF111">
-        <v>4</v>
-      </c>
-      <c r="BG111">
-        <v>2</v>
-      </c>
-      <c r="BH111">
-        <v>6</v>
-      </c>
-      <c r="BI111">
+      <c r="BJ111">
+        <v>17</v>
+      </c>
+      <c r="BK111">
         <v>7</v>
-      </c>
-      <c r="BJ111">
-        <v>10</v>
-      </c>
-      <c r="BK111">
-        <v>9</v>
       </c>
     </row>
     <row r="112" spans="1:63">
@@ -24187,7 +24187,7 @@
         <v>121</v>
       </c>
       <c r="B122">
-        <v>4933050</v>
+        <v>4933048</v>
       </c>
       <c r="C122" t="s">
         <v>63</v>
@@ -24202,10 +24202,10 @@
         <v>21</v>
       </c>
       <c r="G122" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H122" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="I122">
         <v>1</v>
@@ -24217,13 +24217,13 @@
         <v>2</v>
       </c>
       <c r="L122">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M122">
         <v>2</v>
       </c>
       <c r="N122">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O122" t="s">
         <v>157</v>
@@ -24232,13 +24232,13 @@
         <v>224</v>
       </c>
       <c r="Q122">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R122">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="S122">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="T122">
         <v>0</v>
@@ -24268,13 +24268,13 @@
         <v>0</v>
       </c>
       <c r="AC122">
-        <v>2.61</v>
+        <v>2.83</v>
       </c>
       <c r="AD122">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="AE122">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="AF122">
         <v>0</v>
@@ -24289,10 +24289,10 @@
         <v>0</v>
       </c>
       <c r="AJ122">
-        <v>1.98</v>
+        <v>1.96</v>
       </c>
       <c r="AK122">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="AL122">
         <v>0</v>
@@ -24313,22 +24313,22 @@
         <v>1.6</v>
       </c>
       <c r="AR122">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
       <c r="AS122">
-        <v>1.55</v>
+        <v>1.45</v>
       </c>
       <c r="AT122">
         <v>1.36</v>
       </c>
       <c r="AU122">
-        <v>1.46</v>
+        <v>1.28</v>
       </c>
       <c r="AV122">
-        <v>1.35</v>
+        <v>1.39</v>
       </c>
       <c r="AW122">
-        <v>2.81</v>
+        <v>2.67</v>
       </c>
       <c r="AX122">
         <v>0</v>
@@ -24355,22 +24355,22 @@
         <v>0</v>
       </c>
       <c r="BF122">
+        <v>5</v>
+      </c>
+      <c r="BG122">
+        <v>6</v>
+      </c>
+      <c r="BH122">
+        <v>2</v>
+      </c>
+      <c r="BI122">
         <v>4</v>
       </c>
-      <c r="BG122">
-        <v>4</v>
-      </c>
-      <c r="BH122">
-        <v>6</v>
-      </c>
-      <c r="BI122">
-        <v>3</v>
-      </c>
       <c r="BJ122">
+        <v>7</v>
+      </c>
+      <c r="BK122">
         <v>10</v>
-      </c>
-      <c r="BK122">
-        <v>7</v>
       </c>
     </row>
     <row r="123" spans="1:63">
@@ -24569,7 +24569,7 @@
         <v>123</v>
       </c>
       <c r="B124">
-        <v>4933048</v>
+        <v>4933050</v>
       </c>
       <c r="C124" t="s">
         <v>63</v>
@@ -24584,10 +24584,10 @@
         <v>21</v>
       </c>
       <c r="G124" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H124" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="I124">
         <v>1</v>
@@ -24599,13 +24599,13 @@
         <v>2</v>
       </c>
       <c r="L124">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M124">
         <v>2</v>
       </c>
       <c r="N124">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O124" t="s">
         <v>159</v>
@@ -24614,13 +24614,13 @@
         <v>225</v>
       </c>
       <c r="Q124">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R124">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="S124">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="T124">
         <v>0</v>
@@ -24650,13 +24650,13 @@
         <v>0</v>
       </c>
       <c r="AC124">
-        <v>2.83</v>
+        <v>2.61</v>
       </c>
       <c r="AD124">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="AE124">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="AF124">
         <v>0</v>
@@ -24671,10 +24671,10 @@
         <v>0</v>
       </c>
       <c r="AJ124">
-        <v>1.96</v>
+        <v>1.98</v>
       </c>
       <c r="AK124">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="AL124">
         <v>0</v>
@@ -24695,22 +24695,22 @@
         <v>1.6</v>
       </c>
       <c r="AR124">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="AS124">
-        <v>1.45</v>
+        <v>1.55</v>
       </c>
       <c r="AT124">
         <v>1.36</v>
       </c>
       <c r="AU124">
-        <v>1.28</v>
+        <v>1.46</v>
       </c>
       <c r="AV124">
-        <v>1.39</v>
+        <v>1.35</v>
       </c>
       <c r="AW124">
-        <v>2.67</v>
+        <v>2.81</v>
       </c>
       <c r="AX124">
         <v>0</v>
@@ -24737,22 +24737,22 @@
         <v>0</v>
       </c>
       <c r="BF124">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BG124">
+        <v>4</v>
+      </c>
+      <c r="BH124">
         <v>6</v>
       </c>
-      <c r="BH124">
-        <v>2</v>
-      </c>
       <c r="BI124">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BJ124">
+        <v>10</v>
+      </c>
+      <c r="BK124">
         <v>7</v>
-      </c>
-      <c r="BK124">
-        <v>10</v>
       </c>
     </row>
     <row r="125" spans="1:63">

--- a/Bases_de_Dados_(2022-2023)/Paraguay Division Profesional_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Paraguay Division Profesional_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="855" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="891" uniqueCount="237">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -511,6 +511,21 @@
     <t>['19', '59', '66', '84']</t>
   </si>
   <si>
+    <t>['72']</t>
+  </si>
+  <si>
+    <t>['43', '77']</t>
+  </si>
+  <si>
+    <t>['19', '70', '86']</t>
+  </si>
+  <si>
+    <t>['35']</t>
+  </si>
+  <si>
+    <t>['86']</t>
+  </si>
+  <si>
     <t>['39', '47', '68']</t>
   </si>
   <si>
@@ -643,9 +658,6 @@
     <t>['16', '30', '56']</t>
   </si>
   <si>
-    <t>['72']</t>
-  </si>
-  <si>
     <t>['32', '44']</t>
   </si>
   <si>
@@ -668,9 +680,6 @@
   </si>
   <si>
     <t>['40', '53']</t>
-  </si>
-  <si>
-    <t>['86']</t>
   </si>
   <si>
     <t>['35', '90+1']</t>
@@ -704,6 +713,18 @@
   </si>
   <si>
     <t>['53']</t>
+  </si>
+  <si>
+    <t>['26', '42']</t>
+  </si>
+  <si>
+    <t>['33', '59']</t>
+  </si>
+  <si>
+    <t>['9', '79']</t>
+  </si>
+  <si>
+    <t>['45+4', '65', '77']</t>
   </si>
 </sst>
 </file>
@@ -1065,7 +1086,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK133"/>
+  <dimension ref="A1:BK139"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1396,10 +1417,10 @@
         <v>0</v>
       </c>
       <c r="AS2">
-        <v>2.64</v>
+        <v>2.67</v>
       </c>
       <c r="AT2">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AU2">
         <v>0</v>
@@ -1587,10 +1608,10 @@
         <v>0</v>
       </c>
       <c r="AS3">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AT3">
-        <v>0.27</v>
+        <v>0.5</v>
       </c>
       <c r="AU3">
         <v>0</v>
@@ -1691,7 +1712,7 @@
         <v>79</v>
       </c>
       <c r="P4" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="Q4">
         <v>4</v>
@@ -1781,7 +1802,7 @@
         <v>0.55</v>
       </c>
       <c r="AT4">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AU4">
         <v>0</v>
@@ -2073,7 +2094,7 @@
         <v>81</v>
       </c>
       <c r="P6" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="Q6">
         <v>3</v>
@@ -2160,10 +2181,10 @@
         <v>0</v>
       </c>
       <c r="AS6">
-        <v>1.82</v>
+        <v>1.67</v>
       </c>
       <c r="AT6">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AU6">
         <v>0</v>
@@ -2264,7 +2285,7 @@
         <v>82</v>
       </c>
       <c r="P7" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="Q7">
         <v>3</v>
@@ -2351,7 +2372,7 @@
         <v>0</v>
       </c>
       <c r="AS7">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AT7">
         <v>0.91</v>
@@ -2455,7 +2476,7 @@
         <v>83</v>
       </c>
       <c r="P8" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="Q8">
         <v>9</v>
@@ -2545,7 +2566,7 @@
         <v>1.09</v>
       </c>
       <c r="AT8">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AU8">
         <v>0</v>
@@ -2646,7 +2667,7 @@
         <v>84</v>
       </c>
       <c r="P9" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="Q9">
         <v>4</v>
@@ -2736,7 +2757,7 @@
         <v>1.45</v>
       </c>
       <c r="AT9">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AU9">
         <v>0</v>
@@ -2837,7 +2858,7 @@
         <v>85</v>
       </c>
       <c r="P10" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="Q10">
         <v>6</v>
@@ -2924,7 +2945,7 @@
         <v>0</v>
       </c>
       <c r="AS10">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AT10">
         <v>1.91</v>
@@ -3028,7 +3049,7 @@
         <v>85</v>
       </c>
       <c r="P11" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="Q11">
         <v>3</v>
@@ -3115,7 +3136,7 @@
         <v>0</v>
       </c>
       <c r="AS11">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AT11">
         <v>2</v>
@@ -3306,7 +3327,7 @@
         <v>0</v>
       </c>
       <c r="AS12">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AT12">
         <v>1</v>
@@ -3410,7 +3431,7 @@
         <v>85</v>
       </c>
       <c r="P13" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="Q13">
         <v>5</v>
@@ -3601,7 +3622,7 @@
         <v>87</v>
       </c>
       <c r="P14" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="Q14">
         <v>3</v>
@@ -3688,7 +3709,7 @@
         <v>0</v>
       </c>
       <c r="AS14">
-        <v>2.64</v>
+        <v>2.67</v>
       </c>
       <c r="AT14">
         <v>0.91</v>
@@ -3792,7 +3813,7 @@
         <v>85</v>
       </c>
       <c r="P15" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="Q15">
         <v>5</v>
@@ -3882,7 +3903,7 @@
         <v>1.18</v>
       </c>
       <c r="AT15">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AU15">
         <v>0.85</v>
@@ -4070,10 +4091,10 @@
         <v>0</v>
       </c>
       <c r="AS16">
-        <v>1.82</v>
+        <v>1.67</v>
       </c>
       <c r="AT16">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AU16">
         <v>1.26</v>
@@ -4174,7 +4195,7 @@
         <v>89</v>
       </c>
       <c r="P17" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="Q17">
         <v>4</v>
@@ -4452,10 +4473,10 @@
         <v>0</v>
       </c>
       <c r="AS18">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AT18">
-        <v>0.27</v>
+        <v>0.5</v>
       </c>
       <c r="AU18">
         <v>1.41</v>
@@ -4556,7 +4577,7 @@
         <v>85</v>
       </c>
       <c r="P19" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="Q19">
         <v>1</v>
@@ -4643,10 +4664,10 @@
         <v>0.5</v>
       </c>
       <c r="AS19">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AT19">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AU19">
         <v>1.16</v>
@@ -4747,7 +4768,7 @@
         <v>85</v>
       </c>
       <c r="P20" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="Q20">
         <v>0</v>
@@ -4938,7 +4959,7 @@
         <v>91</v>
       </c>
       <c r="P21" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="Q21">
         <v>5</v>
@@ -5025,7 +5046,7 @@
         <v>0</v>
       </c>
       <c r="AS21">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AT21">
         <v>1.36</v>
@@ -5129,7 +5150,7 @@
         <v>92</v>
       </c>
       <c r="P22" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="Q22">
         <v>3</v>
@@ -5320,7 +5341,7 @@
         <v>93</v>
       </c>
       <c r="P23" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="Q23">
         <v>9</v>
@@ -5598,10 +5619,10 @@
         <v>1</v>
       </c>
       <c r="AS24">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AT24">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AU24">
         <v>1.41</v>
@@ -5792,7 +5813,7 @@
         <v>1.18</v>
       </c>
       <c r="AT25">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AU25">
         <v>1.49</v>
@@ -5980,7 +6001,7 @@
         <v>1.5</v>
       </c>
       <c r="AS26">
-        <v>1.82</v>
+        <v>1.67</v>
       </c>
       <c r="AT26">
         <v>0.73</v>
@@ -6362,10 +6383,10 @@
         <v>0</v>
       </c>
       <c r="AS28">
-        <v>2.64</v>
+        <v>2.67</v>
       </c>
       <c r="AT28">
-        <v>0.27</v>
+        <v>0.5</v>
       </c>
       <c r="AU28">
         <v>1.25</v>
@@ -6466,7 +6487,7 @@
         <v>79</v>
       </c>
       <c r="P29" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="Q29">
         <v>5</v>
@@ -6744,10 +6765,10 @@
         <v>3</v>
       </c>
       <c r="AS30">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AT30">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AU30">
         <v>1.8</v>
@@ -6848,7 +6869,7 @@
         <v>93</v>
       </c>
       <c r="P31" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="Q31">
         <v>2</v>
@@ -6938,7 +6959,7 @@
         <v>1.09</v>
       </c>
       <c r="AT31">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AU31">
         <v>1.34</v>
@@ -7230,7 +7251,7 @@
         <v>85</v>
       </c>
       <c r="P33" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="Q33">
         <v>5</v>
@@ -7320,7 +7341,7 @@
         <v>1.36</v>
       </c>
       <c r="AT33">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AU33">
         <v>0.92</v>
@@ -7421,7 +7442,7 @@
         <v>99</v>
       </c>
       <c r="P34" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="Q34">
         <v>4</v>
@@ -7508,7 +7529,7 @@
         <v>3</v>
       </c>
       <c r="AS34">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AT34">
         <v>1.91</v>
@@ -7699,7 +7720,7 @@
         <v>1.33</v>
       </c>
       <c r="AS35">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AT35">
         <v>0.73</v>
@@ -7803,7 +7824,7 @@
         <v>101</v>
       </c>
       <c r="P36" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="Q36">
         <v>4</v>
@@ -7890,7 +7911,7 @@
         <v>3</v>
       </c>
       <c r="AS36">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AT36">
         <v>2</v>
@@ -8272,10 +8293,10 @@
         <v>2</v>
       </c>
       <c r="AS38">
-        <v>2.64</v>
+        <v>2.67</v>
       </c>
       <c r="AT38">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AU38">
         <v>1.61</v>
@@ -8376,7 +8397,7 @@
         <v>79</v>
       </c>
       <c r="P39" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="Q39">
         <v>3</v>
@@ -8567,7 +8588,7 @@
         <v>85</v>
       </c>
       <c r="P40" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="Q40">
         <v>6</v>
@@ -8654,10 +8675,10 @@
         <v>2.33</v>
       </c>
       <c r="AS40">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AT40">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AU40">
         <v>1.31</v>
@@ -8758,7 +8779,7 @@
         <v>104</v>
       </c>
       <c r="P41" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="Q41">
         <v>3</v>
@@ -8949,7 +8970,7 @@
         <v>105</v>
       </c>
       <c r="P42" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="Q42">
         <v>3</v>
@@ -9036,7 +9057,7 @@
         <v>0.33</v>
       </c>
       <c r="AS42">
-        <v>1.82</v>
+        <v>1.67</v>
       </c>
       <c r="AT42">
         <v>0.91</v>
@@ -9230,7 +9251,7 @@
         <v>1.45</v>
       </c>
       <c r="AT43">
-        <v>0.27</v>
+        <v>0.5</v>
       </c>
       <c r="AU43">
         <v>1.73</v>
@@ -9331,7 +9352,7 @@
         <v>85</v>
       </c>
       <c r="P44" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="Q44">
         <v>6</v>
@@ -9421,7 +9442,7 @@
         <v>0.55</v>
       </c>
       <c r="AT44">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AU44">
         <v>0.84</v>
@@ -9522,7 +9543,7 @@
         <v>85</v>
       </c>
       <c r="P45" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="Q45">
         <v>5</v>
@@ -9713,7 +9734,7 @@
         <v>107</v>
       </c>
       <c r="P46" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="Q46">
         <v>6</v>
@@ -9800,7 +9821,7 @@
         <v>3</v>
       </c>
       <c r="AS46">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AT46">
         <v>2</v>
@@ -9904,7 +9925,7 @@
         <v>108</v>
       </c>
       <c r="P47" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="Q47">
         <v>6</v>
@@ -9991,10 +10012,10 @@
         <v>1.75</v>
       </c>
       <c r="AS47">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AT47">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AU47">
         <v>1.08</v>
@@ -10095,7 +10116,7 @@
         <v>109</v>
       </c>
       <c r="P48" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="Q48">
         <v>2</v>
@@ -10477,7 +10498,7 @@
         <v>111</v>
       </c>
       <c r="P50" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="Q50">
         <v>6</v>
@@ -10567,7 +10588,7 @@
         <v>1.45</v>
       </c>
       <c r="AT50">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AU50">
         <v>1.54</v>
@@ -10668,7 +10689,7 @@
         <v>112</v>
       </c>
       <c r="P51" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="Q51">
         <v>3</v>
@@ -10859,7 +10880,7 @@
         <v>113</v>
       </c>
       <c r="P52" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="Q52">
         <v>3</v>
@@ -10946,10 +10967,10 @@
         <v>2.5</v>
       </c>
       <c r="AS52">
-        <v>1.82</v>
+        <v>1.67</v>
       </c>
       <c r="AT52">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AU52">
         <v>1.35</v>
@@ -11137,10 +11158,10 @@
         <v>0</v>
       </c>
       <c r="AS53">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AT53">
-        <v>0.27</v>
+        <v>0.5</v>
       </c>
       <c r="AU53">
         <v>1.25</v>
@@ -11328,7 +11349,7 @@
         <v>1.33</v>
       </c>
       <c r="AS54">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AT54">
         <v>1.36</v>
@@ -11519,7 +11540,7 @@
         <v>1</v>
       </c>
       <c r="AS55">
-        <v>2.64</v>
+        <v>2.67</v>
       </c>
       <c r="AT55">
         <v>1</v>
@@ -11713,7 +11734,7 @@
         <v>1.09</v>
       </c>
       <c r="AT56">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AU56">
         <v>1.36</v>
@@ -11901,10 +11922,10 @@
         <v>1.6</v>
       </c>
       <c r="AS57">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AT57">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AU57">
         <v>1.68</v>
@@ -12005,7 +12026,7 @@
         <v>117</v>
       </c>
       <c r="P58" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="Q58">
         <v>6</v>
@@ -12092,7 +12113,7 @@
         <v>1</v>
       </c>
       <c r="AS58">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AT58">
         <v>0.91</v>
@@ -12196,7 +12217,7 @@
         <v>118</v>
       </c>
       <c r="P59" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="Q59">
         <v>3</v>
@@ -12474,7 +12495,7 @@
         <v>2.5</v>
       </c>
       <c r="AS60">
-        <v>2.64</v>
+        <v>2.67</v>
       </c>
       <c r="AT60">
         <v>1.91</v>
@@ -12668,7 +12689,7 @@
         <v>1.18</v>
       </c>
       <c r="AT61">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AU61">
         <v>1.02</v>
@@ -13047,10 +13068,10 @@
         <v>1.25</v>
       </c>
       <c r="AS63">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AT63">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AU63">
         <v>1.27</v>
@@ -13151,7 +13172,7 @@
         <v>85</v>
       </c>
       <c r="P64" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="Q64">
         <v>5</v>
@@ -13238,7 +13259,7 @@
         <v>1.25</v>
       </c>
       <c r="AS64">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AT64">
         <v>1.36</v>
@@ -13429,10 +13450,10 @@
         <v>0</v>
       </c>
       <c r="AS65">
-        <v>1.82</v>
+        <v>1.67</v>
       </c>
       <c r="AT65">
-        <v>0.27</v>
+        <v>0.5</v>
       </c>
       <c r="AU65">
         <v>1.36</v>
@@ -13533,7 +13554,7 @@
         <v>121</v>
       </c>
       <c r="P66" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="Q66">
         <v>1</v>
@@ -13724,7 +13745,7 @@
         <v>122</v>
       </c>
       <c r="P67" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="Q67">
         <v>3</v>
@@ -13915,7 +13936,7 @@
         <v>123</v>
       </c>
       <c r="P68" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="Q68">
         <v>4</v>
@@ -14005,7 +14026,7 @@
         <v>1.36</v>
       </c>
       <c r="AT68">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AU68">
         <v>1.26</v>
@@ -14193,7 +14214,7 @@
         <v>1.6</v>
       </c>
       <c r="AS69">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AT69">
         <v>1.36</v>
@@ -14297,7 +14318,7 @@
         <v>85</v>
       </c>
       <c r="P70" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="Q70">
         <v>4</v>
@@ -14488,7 +14509,7 @@
         <v>125</v>
       </c>
       <c r="P71" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="Q71">
         <v>7</v>
@@ -14870,7 +14891,7 @@
         <v>115</v>
       </c>
       <c r="P73" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="Q73">
         <v>6</v>
@@ -14957,7 +14978,7 @@
         <v>0.6</v>
       </c>
       <c r="AS73">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AT73">
         <v>1</v>
@@ -15151,7 +15172,7 @@
         <v>0.55</v>
       </c>
       <c r="AT74">
-        <v>0.27</v>
+        <v>0.5</v>
       </c>
       <c r="AU74">
         <v>1.09</v>
@@ -15252,7 +15273,7 @@
         <v>85</v>
       </c>
       <c r="P75" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="Q75">
         <v>8</v>
@@ -15339,10 +15360,10 @@
         <v>1.83</v>
       </c>
       <c r="AS75">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AT75">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AU75">
         <v>1.66</v>
@@ -15443,7 +15464,7 @@
         <v>126</v>
       </c>
       <c r="P76" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="Q76">
         <v>5</v>
@@ -15530,7 +15551,7 @@
         <v>1.67</v>
       </c>
       <c r="AS76">
-        <v>1.82</v>
+        <v>1.67</v>
       </c>
       <c r="AT76">
         <v>1.36</v>
@@ -15634,7 +15655,7 @@
         <v>127</v>
       </c>
       <c r="P77" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="Q77">
         <v>8</v>
@@ -15724,7 +15745,7 @@
         <v>1.18</v>
       </c>
       <c r="AT77">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AU77">
         <v>1.33</v>
@@ -15912,7 +15933,7 @@
         <v>1.17</v>
       </c>
       <c r="AS78">
-        <v>2.64</v>
+        <v>2.67</v>
       </c>
       <c r="AT78">
         <v>0.73</v>
@@ -16016,7 +16037,7 @@
         <v>129</v>
       </c>
       <c r="P79" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="Q79">
         <v>3</v>
@@ -16294,10 +16315,10 @@
         <v>1.17</v>
       </c>
       <c r="AS80">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AT80">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AU80">
         <v>1.21</v>
@@ -16485,10 +16506,10 @@
         <v>2</v>
       </c>
       <c r="AS81">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AT81">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AU81">
         <v>1.43</v>
@@ -16589,7 +16610,7 @@
         <v>85</v>
       </c>
       <c r="P82" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="Q82">
         <v>4</v>
@@ -16971,7 +16992,7 @@
         <v>85</v>
       </c>
       <c r="P84" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="Q84">
         <v>5</v>
@@ -17058,7 +17079,7 @@
         <v>2.17</v>
       </c>
       <c r="AS84">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AT84">
         <v>2</v>
@@ -17162,7 +17183,7 @@
         <v>85</v>
       </c>
       <c r="P85" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="Q85">
         <v>4</v>
@@ -17443,7 +17464,7 @@
         <v>1.18</v>
       </c>
       <c r="AT86">
-        <v>0.27</v>
+        <v>0.5</v>
       </c>
       <c r="AU86">
         <v>1.08</v>
@@ -17631,7 +17652,7 @@
         <v>1.43</v>
       </c>
       <c r="AS87">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AT87">
         <v>1.36</v>
@@ -17822,10 +17843,10 @@
         <v>1</v>
       </c>
       <c r="AS88">
-        <v>1.82</v>
+        <v>1.67</v>
       </c>
       <c r="AT88">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AU88">
         <v>1.41</v>
@@ -18117,7 +18138,7 @@
         <v>136</v>
       </c>
       <c r="P90" t="s">
-        <v>209</v>
+        <v>165</v>
       </c>
       <c r="Q90">
         <v>6</v>
@@ -18204,10 +18225,10 @@
         <v>2</v>
       </c>
       <c r="AS90">
-        <v>2.64</v>
+        <v>2.67</v>
       </c>
       <c r="AT90">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AU90">
         <v>1.83</v>
@@ -18589,7 +18610,7 @@
         <v>1.36</v>
       </c>
       <c r="AT92">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AU92">
         <v>1.44</v>
@@ -18777,10 +18798,10 @@
         <v>1.71</v>
       </c>
       <c r="AS93">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AT93">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AU93">
         <v>1.42</v>
@@ -18968,7 +18989,7 @@
         <v>0.57</v>
       </c>
       <c r="AS94">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AT94">
         <v>1</v>
@@ -19072,7 +19093,7 @@
         <v>101</v>
       </c>
       <c r="P95" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="Q95">
         <v>7</v>
@@ -19159,7 +19180,7 @@
         <v>2.29</v>
       </c>
       <c r="AS95">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AT95">
         <v>1.91</v>
@@ -19735,7 +19756,7 @@
         <v>1.18</v>
       </c>
       <c r="AT98">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AU98">
         <v>1.13</v>
@@ -19836,7 +19857,7 @@
         <v>143</v>
       </c>
       <c r="P99" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="Q99">
         <v>5</v>
@@ -19926,7 +19947,7 @@
         <v>1.18</v>
       </c>
       <c r="AT99">
-        <v>0.27</v>
+        <v>0.5</v>
       </c>
       <c r="AU99">
         <v>1.42</v>
@@ -20027,7 +20048,7 @@
         <v>144</v>
       </c>
       <c r="P100" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="Q100">
         <v>3</v>
@@ -20114,7 +20135,7 @@
         <v>1.38</v>
       </c>
       <c r="AS100">
-        <v>2.64</v>
+        <v>2.67</v>
       </c>
       <c r="AT100">
         <v>1.36</v>
@@ -20218,7 +20239,7 @@
         <v>145</v>
       </c>
       <c r="P101" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="Q101">
         <v>6</v>
@@ -20305,7 +20326,7 @@
         <v>1.38</v>
       </c>
       <c r="AS101">
-        <v>1.82</v>
+        <v>1.67</v>
       </c>
       <c r="AT101">
         <v>1.36</v>
@@ -20409,7 +20430,7 @@
         <v>146</v>
       </c>
       <c r="P102" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="Q102">
         <v>0</v>
@@ -20499,7 +20520,7 @@
         <v>1.45</v>
       </c>
       <c r="AT102">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AU102">
         <v>1.41</v>
@@ -20687,7 +20708,7 @@
         <v>0.75</v>
       </c>
       <c r="AS103">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AT103">
         <v>0.91</v>
@@ -20791,7 +20812,7 @@
         <v>85</v>
       </c>
       <c r="P104" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="Q104">
         <v>1</v>
@@ -21069,7 +21090,7 @@
         <v>0.5</v>
       </c>
       <c r="AS105">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AT105">
         <v>1</v>
@@ -21260,7 +21281,7 @@
         <v>2.38</v>
       </c>
       <c r="AS106">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AT106">
         <v>1.91</v>
@@ -21364,7 +21385,7 @@
         <v>81</v>
       </c>
       <c r="P107" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="Q107">
         <v>5</v>
@@ -21454,7 +21475,7 @@
         <v>1.09</v>
       </c>
       <c r="AT107">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AU107">
         <v>1.23</v>
@@ -21642,10 +21663,10 @@
         <v>1.63</v>
       </c>
       <c r="AS108">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AT108">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AU108">
         <v>1.28</v>
@@ -22024,7 +22045,7 @@
         <v>1.33</v>
       </c>
       <c r="AS110">
-        <v>2.64</v>
+        <v>2.67</v>
       </c>
       <c r="AT110">
         <v>1.36</v>
@@ -22128,7 +22149,7 @@
         <v>151</v>
       </c>
       <c r="P111" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="Q111">
         <v>10</v>
@@ -22215,7 +22236,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AS111">
-        <v>1.82</v>
+        <v>1.67</v>
       </c>
       <c r="AT111">
         <v>1</v>
@@ -22319,7 +22340,7 @@
         <v>85</v>
       </c>
       <c r="P112" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="Q112">
         <v>5</v>
@@ -22597,10 +22618,10 @@
         <v>0.33</v>
       </c>
       <c r="AS113">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AT113">
-        <v>0.27</v>
+        <v>0.5</v>
       </c>
       <c r="AU113">
         <v>1.43</v>
@@ -22701,7 +22722,7 @@
         <v>124</v>
       </c>
       <c r="P114" t="s">
-        <v>209</v>
+        <v>165</v>
       </c>
       <c r="Q114">
         <v>6</v>
@@ -22791,7 +22812,7 @@
         <v>1.18</v>
       </c>
       <c r="AT114">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AU114">
         <v>1.42</v>
@@ -22892,7 +22913,7 @@
         <v>85</v>
       </c>
       <c r="P115" t="s">
-        <v>218</v>
+        <v>169</v>
       </c>
       <c r="Q115">
         <v>5</v>
@@ -22979,10 +23000,10 @@
         <v>1.67</v>
       </c>
       <c r="AS115">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AT115">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AU115">
         <v>1.4</v>
@@ -23170,7 +23191,7 @@
         <v>0.89</v>
       </c>
       <c r="AS116">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AT116">
         <v>0.73</v>
@@ -23274,7 +23295,7 @@
         <v>85</v>
       </c>
       <c r="P117" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="Q117">
         <v>5</v>
@@ -23465,7 +23486,7 @@
         <v>153</v>
       </c>
       <c r="P118" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="Q118">
         <v>9</v>
@@ -23656,7 +23677,7 @@
         <v>154</v>
       </c>
       <c r="P119" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="Q119">
         <v>4</v>
@@ -23746,7 +23767,7 @@
         <v>0.55</v>
       </c>
       <c r="AT119">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AU119">
         <v>1.07</v>
@@ -23847,7 +23868,7 @@
         <v>155</v>
       </c>
       <c r="P120" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="Q120">
         <v>6</v>
@@ -23934,10 +23955,10 @@
         <v>1.44</v>
       </c>
       <c r="AS120">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AT120">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AU120">
         <v>1.68</v>
@@ -24038,7 +24059,7 @@
         <v>156</v>
       </c>
       <c r="P121" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="Q121">
         <v>2</v>
@@ -24229,7 +24250,7 @@
         <v>157</v>
       </c>
       <c r="P122" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="Q122">
         <v>3</v>
@@ -24507,7 +24528,7 @@
         <v>2.2</v>
       </c>
       <c r="AS123">
-        <v>1.82</v>
+        <v>1.67</v>
       </c>
       <c r="AT123">
         <v>2</v>
@@ -24611,7 +24632,7 @@
         <v>159</v>
       </c>
       <c r="P124" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="Q124">
         <v>1</v>
@@ -24698,7 +24719,7 @@
         <v>1.4</v>
       </c>
       <c r="AS124">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AT124">
         <v>1.36</v>
@@ -25083,7 +25104,7 @@
         <v>1.36</v>
       </c>
       <c r="AT126">
-        <v>0.27</v>
+        <v>0.5</v>
       </c>
       <c r="AU126">
         <v>1.49</v>
@@ -25184,7 +25205,7 @@
         <v>85</v>
       </c>
       <c r="P127" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="Q127">
         <v>8</v>
@@ -25271,10 +25292,10 @@
         <v>0.8</v>
       </c>
       <c r="AS127">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AT127">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AU127">
         <v>1.51</v>
@@ -25375,7 +25396,7 @@
         <v>85</v>
       </c>
       <c r="P128" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="Q128">
         <v>4</v>
@@ -25653,10 +25674,10 @@
         <v>1.6</v>
       </c>
       <c r="AS129">
-        <v>2.64</v>
+        <v>2.67</v>
       </c>
       <c r="AT129">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AU129">
         <v>1.75</v>
@@ -25847,7 +25868,7 @@
         <v>1.18</v>
       </c>
       <c r="AT130">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AU130">
         <v>1.19</v>
@@ -25948,7 +25969,7 @@
         <v>162</v>
       </c>
       <c r="P131" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="Q131">
         <v>2</v>
@@ -26035,10 +26056,10 @@
         <v>1.8</v>
       </c>
       <c r="AS131">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AT131">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AU131">
         <v>1.34</v>
@@ -26139,7 +26160,7 @@
         <v>163</v>
       </c>
       <c r="P132" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="Q132">
         <v>3</v>
@@ -26330,7 +26351,7 @@
         <v>164</v>
       </c>
       <c r="P133" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="Q133">
         <v>3</v>
@@ -26417,7 +26438,7 @@
         <v>0.8</v>
       </c>
       <c r="AS133">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AT133">
         <v>0.73</v>
@@ -26471,6 +26492,1152 @@
         <v>8</v>
       </c>
       <c r="BK133">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="134" spans="1:63">
+      <c r="A134" s="1">
+        <v>133</v>
+      </c>
+      <c r="B134">
+        <v>4933063</v>
+      </c>
+      <c r="C134" t="s">
+        <v>63</v>
+      </c>
+      <c r="D134" t="s">
+        <v>64</v>
+      </c>
+      <c r="E134" s="2">
+        <v>45114.75</v>
+      </c>
+      <c r="F134">
+        <v>1</v>
+      </c>
+      <c r="G134" t="s">
+        <v>73</v>
+      </c>
+      <c r="H134" t="s">
+        <v>68</v>
+      </c>
+      <c r="I134">
+        <v>0</v>
+      </c>
+      <c r="J134">
+        <v>0</v>
+      </c>
+      <c r="K134">
+        <v>0</v>
+      </c>
+      <c r="L134">
+        <v>1</v>
+      </c>
+      <c r="M134">
+        <v>1</v>
+      </c>
+      <c r="N134">
+        <v>2</v>
+      </c>
+      <c r="O134" t="s">
+        <v>165</v>
+      </c>
+      <c r="P134" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q134">
+        <v>8</v>
+      </c>
+      <c r="R134">
+        <v>2</v>
+      </c>
+      <c r="S134">
+        <v>10</v>
+      </c>
+      <c r="T134">
+        <v>0</v>
+      </c>
+      <c r="U134">
+        <v>0</v>
+      </c>
+      <c r="V134">
+        <v>0</v>
+      </c>
+      <c r="W134">
+        <v>0</v>
+      </c>
+      <c r="X134">
+        <v>0</v>
+      </c>
+      <c r="Y134">
+        <v>0</v>
+      </c>
+      <c r="Z134">
+        <v>0</v>
+      </c>
+      <c r="AA134">
+        <v>0</v>
+      </c>
+      <c r="AB134">
+        <v>0</v>
+      </c>
+      <c r="AC134">
+        <v>2.6</v>
+      </c>
+      <c r="AD134">
+        <v>3.2</v>
+      </c>
+      <c r="AE134">
+        <v>2.63</v>
+      </c>
+      <c r="AF134">
+        <v>0</v>
+      </c>
+      <c r="AG134">
+        <v>0</v>
+      </c>
+      <c r="AH134">
+        <v>0</v>
+      </c>
+      <c r="AI134">
+        <v>0</v>
+      </c>
+      <c r="AJ134">
+        <v>1.95</v>
+      </c>
+      <c r="AK134">
+        <v>1.8</v>
+      </c>
+      <c r="AL134">
+        <v>0</v>
+      </c>
+      <c r="AM134">
+        <v>0</v>
+      </c>
+      <c r="AN134">
+        <v>0</v>
+      </c>
+      <c r="AO134">
+        <v>0</v>
+      </c>
+      <c r="AP134">
+        <v>0</v>
+      </c>
+      <c r="AQ134">
+        <v>0.82</v>
+      </c>
+      <c r="AR134">
+        <v>1</v>
+      </c>
+      <c r="AS134">
+        <v>0.83</v>
+      </c>
+      <c r="AT134">
+        <v>1</v>
+      </c>
+      <c r="AU134">
+        <v>1.53</v>
+      </c>
+      <c r="AV134">
+        <v>1.24</v>
+      </c>
+      <c r="AW134">
+        <v>2.77</v>
+      </c>
+      <c r="AX134">
+        <v>0</v>
+      </c>
+      <c r="AY134">
+        <v>0</v>
+      </c>
+      <c r="AZ134">
+        <v>0</v>
+      </c>
+      <c r="BA134">
+        <v>0</v>
+      </c>
+      <c r="BB134">
+        <v>0</v>
+      </c>
+      <c r="BC134">
+        <v>0</v>
+      </c>
+      <c r="BD134">
+        <v>0</v>
+      </c>
+      <c r="BE134">
+        <v>0</v>
+      </c>
+      <c r="BF134">
+        <v>3</v>
+      </c>
+      <c r="BG134">
+        <v>6</v>
+      </c>
+      <c r="BH134">
+        <v>6</v>
+      </c>
+      <c r="BI134">
+        <v>2</v>
+      </c>
+      <c r="BJ134">
+        <v>9</v>
+      </c>
+      <c r="BK134">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="135" spans="1:63">
+      <c r="A135" s="1">
+        <v>134</v>
+      </c>
+      <c r="B135">
+        <v>4933059</v>
+      </c>
+      <c r="C135" t="s">
+        <v>63</v>
+      </c>
+      <c r="D135" t="s">
+        <v>64</v>
+      </c>
+      <c r="E135" s="2">
+        <v>45114.85416666666</v>
+      </c>
+      <c r="F135">
+        <v>1</v>
+      </c>
+      <c r="G135" t="s">
+        <v>65</v>
+      </c>
+      <c r="H135" t="s">
+        <v>76</v>
+      </c>
+      <c r="I135">
+        <v>1</v>
+      </c>
+      <c r="J135">
+        <v>0</v>
+      </c>
+      <c r="K135">
+        <v>1</v>
+      </c>
+      <c r="L135">
+        <v>2</v>
+      </c>
+      <c r="M135">
+        <v>0</v>
+      </c>
+      <c r="N135">
+        <v>2</v>
+      </c>
+      <c r="O135" t="s">
+        <v>166</v>
+      </c>
+      <c r="P135" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q135">
+        <v>4</v>
+      </c>
+      <c r="R135">
+        <v>5</v>
+      </c>
+      <c r="S135">
+        <v>9</v>
+      </c>
+      <c r="T135">
+        <v>0</v>
+      </c>
+      <c r="U135">
+        <v>0</v>
+      </c>
+      <c r="V135">
+        <v>0</v>
+      </c>
+      <c r="W135">
+        <v>0</v>
+      </c>
+      <c r="X135">
+        <v>0</v>
+      </c>
+      <c r="Y135">
+        <v>0</v>
+      </c>
+      <c r="Z135">
+        <v>0</v>
+      </c>
+      <c r="AA135">
+        <v>0</v>
+      </c>
+      <c r="AB135">
+        <v>0</v>
+      </c>
+      <c r="AC135">
+        <v>1.44</v>
+      </c>
+      <c r="AD135">
+        <v>4.1</v>
+      </c>
+      <c r="AE135">
+        <v>7</v>
+      </c>
+      <c r="AF135">
+        <v>0</v>
+      </c>
+      <c r="AG135">
+        <v>0</v>
+      </c>
+      <c r="AH135">
+        <v>0</v>
+      </c>
+      <c r="AI135">
+        <v>0</v>
+      </c>
+      <c r="AJ135">
+        <v>1.9</v>
+      </c>
+      <c r="AK135">
+        <v>1.83</v>
+      </c>
+      <c r="AL135">
+        <v>0</v>
+      </c>
+      <c r="AM135">
+        <v>0</v>
+      </c>
+      <c r="AN135">
+        <v>0</v>
+      </c>
+      <c r="AO135">
+        <v>0</v>
+      </c>
+      <c r="AP135">
+        <v>0</v>
+      </c>
+      <c r="AQ135">
+        <v>2.64</v>
+      </c>
+      <c r="AR135">
+        <v>1.64</v>
+      </c>
+      <c r="AS135">
+        <v>2.67</v>
+      </c>
+      <c r="AT135">
+        <v>1.5</v>
+      </c>
+      <c r="AU135">
+        <v>1.71</v>
+      </c>
+      <c r="AV135">
+        <v>1.18</v>
+      </c>
+      <c r="AW135">
+        <v>2.89</v>
+      </c>
+      <c r="AX135">
+        <v>0</v>
+      </c>
+      <c r="AY135">
+        <v>0</v>
+      </c>
+      <c r="AZ135">
+        <v>0</v>
+      </c>
+      <c r="BA135">
+        <v>0</v>
+      </c>
+      <c r="BB135">
+        <v>0</v>
+      </c>
+      <c r="BC135">
+        <v>0</v>
+      </c>
+      <c r="BD135">
+        <v>0</v>
+      </c>
+      <c r="BE135">
+        <v>0</v>
+      </c>
+      <c r="BF135">
+        <v>7</v>
+      </c>
+      <c r="BG135">
+        <v>3</v>
+      </c>
+      <c r="BH135">
+        <v>8</v>
+      </c>
+      <c r="BI135">
+        <v>5</v>
+      </c>
+      <c r="BJ135">
+        <v>15</v>
+      </c>
+      <c r="BK135">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="136" spans="1:63">
+      <c r="A136" s="1">
+        <v>135</v>
+      </c>
+      <c r="B136">
+        <v>4933062</v>
+      </c>
+      <c r="C136" t="s">
+        <v>63</v>
+      </c>
+      <c r="D136" t="s">
+        <v>64</v>
+      </c>
+      <c r="E136" s="2">
+        <v>45115.70833333334</v>
+      </c>
+      <c r="F136">
+        <v>1</v>
+      </c>
+      <c r="G136" t="s">
+        <v>66</v>
+      </c>
+      <c r="H136" t="s">
+        <v>75</v>
+      </c>
+      <c r="I136">
+        <v>1</v>
+      </c>
+      <c r="J136">
+        <v>2</v>
+      </c>
+      <c r="K136">
+        <v>3</v>
+      </c>
+      <c r="L136">
+        <v>3</v>
+      </c>
+      <c r="M136">
+        <v>2</v>
+      </c>
+      <c r="N136">
+        <v>5</v>
+      </c>
+      <c r="O136" t="s">
+        <v>167</v>
+      </c>
+      <c r="P136" t="s">
+        <v>233</v>
+      </c>
+      <c r="Q136">
+        <v>5</v>
+      </c>
+      <c r="R136">
+        <v>2</v>
+      </c>
+      <c r="S136">
+        <v>7</v>
+      </c>
+      <c r="T136">
+        <v>0</v>
+      </c>
+      <c r="U136">
+        <v>0</v>
+      </c>
+      <c r="V136">
+        <v>0</v>
+      </c>
+      <c r="W136">
+        <v>0</v>
+      </c>
+      <c r="X136">
+        <v>0</v>
+      </c>
+      <c r="Y136">
+        <v>0</v>
+      </c>
+      <c r="Z136">
+        <v>0</v>
+      </c>
+      <c r="AA136">
+        <v>0</v>
+      </c>
+      <c r="AB136">
+        <v>0</v>
+      </c>
+      <c r="AC136">
+        <v>2.17</v>
+      </c>
+      <c r="AD136">
+        <v>3.34</v>
+      </c>
+      <c r="AE136">
+        <v>3.12</v>
+      </c>
+      <c r="AF136">
+        <v>0</v>
+      </c>
+      <c r="AG136">
+        <v>0</v>
+      </c>
+      <c r="AH136">
+        <v>0</v>
+      </c>
+      <c r="AI136">
+        <v>0</v>
+      </c>
+      <c r="AJ136">
+        <v>1.8</v>
+      </c>
+      <c r="AK136">
+        <v>1.92</v>
+      </c>
+      <c r="AL136">
+        <v>0</v>
+      </c>
+      <c r="AM136">
+        <v>0</v>
+      </c>
+      <c r="AN136">
+        <v>0</v>
+      </c>
+      <c r="AO136">
+        <v>0</v>
+      </c>
+      <c r="AP136">
+        <v>0</v>
+      </c>
+      <c r="AQ136">
+        <v>2.09</v>
+      </c>
+      <c r="AR136">
+        <v>1.55</v>
+      </c>
+      <c r="AS136">
+        <v>2.17</v>
+      </c>
+      <c r="AT136">
+        <v>1.42</v>
+      </c>
+      <c r="AU136">
+        <v>1.34</v>
+      </c>
+      <c r="AV136">
+        <v>1.39</v>
+      </c>
+      <c r="AW136">
+        <v>2.73</v>
+      </c>
+      <c r="AX136">
+        <v>0</v>
+      </c>
+      <c r="AY136">
+        <v>0</v>
+      </c>
+      <c r="AZ136">
+        <v>0</v>
+      </c>
+      <c r="BA136">
+        <v>0</v>
+      </c>
+      <c r="BB136">
+        <v>0</v>
+      </c>
+      <c r="BC136">
+        <v>0</v>
+      </c>
+      <c r="BD136">
+        <v>0</v>
+      </c>
+      <c r="BE136">
+        <v>0</v>
+      </c>
+      <c r="BF136">
+        <v>6</v>
+      </c>
+      <c r="BG136">
+        <v>3</v>
+      </c>
+      <c r="BH136">
+        <v>6</v>
+      </c>
+      <c r="BI136">
+        <v>3</v>
+      </c>
+      <c r="BJ136">
+        <v>12</v>
+      </c>
+      <c r="BK136">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="137" spans="1:63">
+      <c r="A137" s="1">
+        <v>136</v>
+      </c>
+      <c r="B137">
+        <v>4933058</v>
+      </c>
+      <c r="C137" t="s">
+        <v>63</v>
+      </c>
+      <c r="D137" t="s">
+        <v>64</v>
+      </c>
+      <c r="E137" s="2">
+        <v>45115.8125</v>
+      </c>
+      <c r="F137">
+        <v>1</v>
+      </c>
+      <c r="G137" t="s">
+        <v>70</v>
+      </c>
+      <c r="H137" t="s">
+        <v>71</v>
+      </c>
+      <c r="I137">
+        <v>1</v>
+      </c>
+      <c r="J137">
+        <v>1</v>
+      </c>
+      <c r="K137">
+        <v>2</v>
+      </c>
+      <c r="L137">
+        <v>1</v>
+      </c>
+      <c r="M137">
+        <v>2</v>
+      </c>
+      <c r="N137">
+        <v>3</v>
+      </c>
+      <c r="O137" t="s">
+        <v>168</v>
+      </c>
+      <c r="P137" t="s">
+        <v>234</v>
+      </c>
+      <c r="Q137">
+        <v>5</v>
+      </c>
+      <c r="R137">
+        <v>3</v>
+      </c>
+      <c r="S137">
+        <v>8</v>
+      </c>
+      <c r="T137">
+        <v>0</v>
+      </c>
+      <c r="U137">
+        <v>0</v>
+      </c>
+      <c r="V137">
+        <v>0</v>
+      </c>
+      <c r="W137">
+        <v>0</v>
+      </c>
+      <c r="X137">
+        <v>0</v>
+      </c>
+      <c r="Y137">
+        <v>0</v>
+      </c>
+      <c r="Z137">
+        <v>0</v>
+      </c>
+      <c r="AA137">
+        <v>0</v>
+      </c>
+      <c r="AB137">
+        <v>0</v>
+      </c>
+      <c r="AC137">
+        <v>1.38</v>
+      </c>
+      <c r="AD137">
+        <v>4.7</v>
+      </c>
+      <c r="AE137">
+        <v>7.4</v>
+      </c>
+      <c r="AF137">
+        <v>0</v>
+      </c>
+      <c r="AG137">
+        <v>0</v>
+      </c>
+      <c r="AH137">
+        <v>0</v>
+      </c>
+      <c r="AI137">
+        <v>0</v>
+      </c>
+      <c r="AJ137">
+        <v>1.71</v>
+      </c>
+      <c r="AK137">
+        <v>2.06</v>
+      </c>
+      <c r="AL137">
+        <v>0</v>
+      </c>
+      <c r="AM137">
+        <v>0</v>
+      </c>
+      <c r="AN137">
+        <v>0</v>
+      </c>
+      <c r="AO137">
+        <v>0</v>
+      </c>
+      <c r="AP137">
+        <v>0</v>
+      </c>
+      <c r="AQ137">
+        <v>1.45</v>
+      </c>
+      <c r="AR137">
+        <v>0.27</v>
+      </c>
+      <c r="AS137">
+        <v>1.33</v>
+      </c>
+      <c r="AT137">
+        <v>0.5</v>
+      </c>
+      <c r="AU137">
+        <v>1.64</v>
+      </c>
+      <c r="AV137">
+        <v>1.33</v>
+      </c>
+      <c r="AW137">
+        <v>2.97</v>
+      </c>
+      <c r="AX137">
+        <v>0</v>
+      </c>
+      <c r="AY137">
+        <v>0</v>
+      </c>
+      <c r="AZ137">
+        <v>0</v>
+      </c>
+      <c r="BA137">
+        <v>0</v>
+      </c>
+      <c r="BB137">
+        <v>0</v>
+      </c>
+      <c r="BC137">
+        <v>0</v>
+      </c>
+      <c r="BD137">
+        <v>0</v>
+      </c>
+      <c r="BE137">
+        <v>0</v>
+      </c>
+      <c r="BF137">
+        <v>5</v>
+      </c>
+      <c r="BG137">
+        <v>3</v>
+      </c>
+      <c r="BH137">
+        <v>7</v>
+      </c>
+      <c r="BI137">
+        <v>3</v>
+      </c>
+      <c r="BJ137">
+        <v>12</v>
+      </c>
+      <c r="BK137">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="138" spans="1:63">
+      <c r="A138" s="1">
+        <v>137</v>
+      </c>
+      <c r="B138">
+        <v>4933060</v>
+      </c>
+      <c r="C138" t="s">
+        <v>63</v>
+      </c>
+      <c r="D138" t="s">
+        <v>64</v>
+      </c>
+      <c r="E138" s="2">
+        <v>45116.70833333334</v>
+      </c>
+      <c r="F138">
+        <v>1</v>
+      </c>
+      <c r="G138" t="s">
+        <v>74</v>
+      </c>
+      <c r="H138" t="s">
+        <v>72</v>
+      </c>
+      <c r="I138">
+        <v>0</v>
+      </c>
+      <c r="J138">
+        <v>1</v>
+      </c>
+      <c r="K138">
+        <v>1</v>
+      </c>
+      <c r="L138">
+        <v>1</v>
+      </c>
+      <c r="M138">
+        <v>2</v>
+      </c>
+      <c r="N138">
+        <v>3</v>
+      </c>
+      <c r="O138" t="s">
+        <v>169</v>
+      </c>
+      <c r="P138" t="s">
+        <v>235</v>
+      </c>
+      <c r="Q138">
+        <v>11</v>
+      </c>
+      <c r="R138">
+        <v>1</v>
+      </c>
+      <c r="S138">
+        <v>12</v>
+      </c>
+      <c r="T138">
+        <v>0</v>
+      </c>
+      <c r="U138">
+        <v>0</v>
+      </c>
+      <c r="V138">
+        <v>0</v>
+      </c>
+      <c r="W138">
+        <v>0</v>
+      </c>
+      <c r="X138">
+        <v>0</v>
+      </c>
+      <c r="Y138">
+        <v>0</v>
+      </c>
+      <c r="Z138">
+        <v>0</v>
+      </c>
+      <c r="AA138">
+        <v>0</v>
+      </c>
+      <c r="AB138">
+        <v>0</v>
+      </c>
+      <c r="AC138">
+        <v>2.44</v>
+      </c>
+      <c r="AD138">
+        <v>3.55</v>
+      </c>
+      <c r="AE138">
+        <v>2.6</v>
+      </c>
+      <c r="AF138">
+        <v>0</v>
+      </c>
+      <c r="AG138">
+        <v>0</v>
+      </c>
+      <c r="AH138">
+        <v>0</v>
+      </c>
+      <c r="AI138">
+        <v>0</v>
+      </c>
+      <c r="AJ138">
+        <v>2.07</v>
+      </c>
+      <c r="AK138">
+        <v>1.69</v>
+      </c>
+      <c r="AL138">
+        <v>0</v>
+      </c>
+      <c r="AM138">
+        <v>0</v>
+      </c>
+      <c r="AN138">
+        <v>0</v>
+      </c>
+      <c r="AO138">
+        <v>0</v>
+      </c>
+      <c r="AP138">
+        <v>0</v>
+      </c>
+      <c r="AQ138">
+        <v>1.55</v>
+      </c>
+      <c r="AR138">
+        <v>1.55</v>
+      </c>
+      <c r="AS138">
+        <v>1.42</v>
+      </c>
+      <c r="AT138">
+        <v>1.67</v>
+      </c>
+      <c r="AU138">
+        <v>1.41</v>
+      </c>
+      <c r="AV138">
+        <v>1.2</v>
+      </c>
+      <c r="AW138">
+        <v>2.61</v>
+      </c>
+      <c r="AX138">
+        <v>0</v>
+      </c>
+      <c r="AY138">
+        <v>0</v>
+      </c>
+      <c r="AZ138">
+        <v>0</v>
+      </c>
+      <c r="BA138">
+        <v>0</v>
+      </c>
+      <c r="BB138">
+        <v>0</v>
+      </c>
+      <c r="BC138">
+        <v>0</v>
+      </c>
+      <c r="BD138">
+        <v>0</v>
+      </c>
+      <c r="BE138">
+        <v>0</v>
+      </c>
+      <c r="BF138">
+        <v>10</v>
+      </c>
+      <c r="BG138">
+        <v>3</v>
+      </c>
+      <c r="BH138">
+        <v>11</v>
+      </c>
+      <c r="BI138">
+        <v>4</v>
+      </c>
+      <c r="BJ138">
+        <v>21</v>
+      </c>
+      <c r="BK138">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="139" spans="1:63">
+      <c r="A139" s="1">
+        <v>138</v>
+      </c>
+      <c r="B139">
+        <v>4933061</v>
+      </c>
+      <c r="C139" t="s">
+        <v>63</v>
+      </c>
+      <c r="D139" t="s">
+        <v>64</v>
+      </c>
+      <c r="E139" s="2">
+        <v>45116.8125</v>
+      </c>
+      <c r="F139">
+        <v>1</v>
+      </c>
+      <c r="G139" t="s">
+        <v>69</v>
+      </c>
+      <c r="H139" t="s">
+        <v>67</v>
+      </c>
+      <c r="I139">
+        <v>0</v>
+      </c>
+      <c r="J139">
+        <v>1</v>
+      </c>
+      <c r="K139">
+        <v>1</v>
+      </c>
+      <c r="L139">
+        <v>1</v>
+      </c>
+      <c r="M139">
+        <v>3</v>
+      </c>
+      <c r="N139">
+        <v>4</v>
+      </c>
+      <c r="O139" t="s">
+        <v>89</v>
+      </c>
+      <c r="P139" t="s">
+        <v>236</v>
+      </c>
+      <c r="Q139">
+        <v>9</v>
+      </c>
+      <c r="R139">
+        <v>1</v>
+      </c>
+      <c r="S139">
+        <v>10</v>
+      </c>
+      <c r="T139">
+        <v>0</v>
+      </c>
+      <c r="U139">
+        <v>0</v>
+      </c>
+      <c r="V139">
+        <v>0</v>
+      </c>
+      <c r="W139">
+        <v>0</v>
+      </c>
+      <c r="X139">
+        <v>0</v>
+      </c>
+      <c r="Y139">
+        <v>0</v>
+      </c>
+      <c r="Z139">
+        <v>0</v>
+      </c>
+      <c r="AA139">
+        <v>0</v>
+      </c>
+      <c r="AB139">
+        <v>0</v>
+      </c>
+      <c r="AC139">
+        <v>1.39</v>
+      </c>
+      <c r="AD139">
+        <v>4.6</v>
+      </c>
+      <c r="AE139">
+        <v>7.6</v>
+      </c>
+      <c r="AF139">
+        <v>0</v>
+      </c>
+      <c r="AG139">
+        <v>0</v>
+      </c>
+      <c r="AH139">
+        <v>0</v>
+      </c>
+      <c r="AI139">
+        <v>0</v>
+      </c>
+      <c r="AJ139">
+        <v>1.78</v>
+      </c>
+      <c r="AK139">
+        <v>1.95</v>
+      </c>
+      <c r="AL139">
+        <v>0</v>
+      </c>
+      <c r="AM139">
+        <v>0</v>
+      </c>
+      <c r="AN139">
+        <v>0</v>
+      </c>
+      <c r="AO139">
+        <v>0</v>
+      </c>
+      <c r="AP139">
+        <v>0</v>
+      </c>
+      <c r="AQ139">
+        <v>1.82</v>
+      </c>
+      <c r="AR139">
+        <v>1</v>
+      </c>
+      <c r="AS139">
+        <v>1.67</v>
+      </c>
+      <c r="AT139">
+        <v>1.17</v>
+      </c>
+      <c r="AU139">
+        <v>1.54</v>
+      </c>
+      <c r="AV139">
+        <v>1.16</v>
+      </c>
+      <c r="AW139">
+        <v>2.7</v>
+      </c>
+      <c r="AX139">
+        <v>0</v>
+      </c>
+      <c r="AY139">
+        <v>0</v>
+      </c>
+      <c r="AZ139">
+        <v>0</v>
+      </c>
+      <c r="BA139">
+        <v>0</v>
+      </c>
+      <c r="BB139">
+        <v>0</v>
+      </c>
+      <c r="BC139">
+        <v>0</v>
+      </c>
+      <c r="BD139">
+        <v>0</v>
+      </c>
+      <c r="BE139">
+        <v>0</v>
+      </c>
+      <c r="BF139">
+        <v>6</v>
+      </c>
+      <c r="BG139">
+        <v>4</v>
+      </c>
+      <c r="BH139">
+        <v>8</v>
+      </c>
+      <c r="BI139">
+        <v>3</v>
+      </c>
+      <c r="BJ139">
+        <v>14</v>
+      </c>
+      <c r="BK139">
         <v>7</v>
       </c>
     </row>
